--- a/spreadsheet/macrofree/avd_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/avd_checklist.ja.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -1094,7 +1059,7 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
@@ -1109,7 +1074,7 @@
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>AVD 制御プランでは、返金制度のあるサービス レベル アグリーメントは提供されません。Windows 仮想デスクトップ サービス URL の可用性を 99.9% 以上確保するよう努めています。サブスクリプション内のセッション ホスト仮想マシンの可用性は、仮想マシン SLA の対象となります。グローバルな高可用性要件を適切に満たすには、依存するリソース/サービスとインフラストラクチャの可用性も考慮する必要があります。</t>
+          <t>AVD コントロールプレーンは、返金制度のあるサービスレベル契約を提供していません。マイクロソフトは、Azure 仮想デスクトップ サービス URL の可用性を 99.9% 以上確保するよう努めています。サブスクリプション内のセッション ホスト仮想マシンの可用性は、仮想マシン SLA の対象となります。グローバルな高可用性要件を適切に満たすには、依存するリソース/サービスとインフラストラクチャの可用性も考慮する必要があります。</t>
         </is>
       </c>
       <c r="E8" s="21" t="inlineStr">
@@ -1144,7 +1109,7 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
@@ -1154,12 +1119,12 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>AVD ホストプールの geo ディザスタリカバリリージョンの評価</t>
+          <t>AVD ホストプールの geo ディザスタリカバリ要件の評価</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>アクティブ-アクティブ」モデルは、異なるリージョンにある複数のホスト プールで実現できます。異なるリージョンの VM を含む単一のホスト プールは推奨されません。同じユーザーに対して複数のプールを使用する場合は、ユーザー プロファイルを同期/レプリケートする方法の問題を解決する必要があります。FSLogix Cloud Cache を使用することもできますが、慎重に確認して計画する必要があります。または、同期/レプリケートをまったく行わないことをお客様が決定できます。"アクティブ/パッシブ" は、Azure Site Recovery (ASR) または自動化されたメカニズムを使用したオンデマンド プール デプロイを使用して実現できます。</t>
+          <t>「アクティブ/アクティブ」モデルは、異なるリージョンの複数のホストプールで実現できます。異なるリージョンの VM を含む単一のホスト プールは推奨されません。同じユーザーに対して複数のプールを使用する場合は、ユーザー プロファイルを同期/レプリケートする方法の問題を解決する必要があります。FSLogix Cloud Cache を使用することもできますが、慎重に確認して計画する必要があります。または、同期/レプリケートをまったく行わないことをお客様が決定できます。"アクティブ/パッシブ" は、Azure Site Recovery (ASR) または自動化されたメカニズムを使用したオンデマンド プール デプロイを使用して実現できます。マルチリージョンBCDRの詳細については、「詳細情報」列とこのFSLogix関連ページの関連記事をお読みください https://learn.microsoft.com/en-us/fslogix/concepts-container-recovery-business-continuity。</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
@@ -1175,7 +1140,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/wvd/azure-virtual-desktop-multi-region-bcdr</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1194,7 +1159,7 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
@@ -1209,12 +1174,12 @@
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Windows 仮想デスクトップ BCDR の計画と設計に取り組む前に、AVD を介して使用されるアプリケーションを最初に検討することが重要です。重要でないアプリから分離し、異なるディザスター リカバリーのアプローチと機能を備えた別のホスト プールを使用することをお勧めします。</t>
+          <t>Azure 仮想デスクトップ BCDR の計画と設計に取り組む前に、AVD を通じて使用されるアプリケーションが重要であることを最初に検討することが重要です。重要でないアプリから分離し、異なるディザスター リカバリーのアプローチと機能を備えた別のホスト プールを使用することをお勧めします。</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1244,7 +1209,7 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
@@ -1259,7 +1224,7 @@
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>?ホスト プール VM に適切な回復性レベルを選択しましたか (可用性セットと可用性ゾーン)??AS または AZ に伴う HA SLA とスケーラビリティの制限への影響を認識していますか? ?現在、可用性セットなしで Windows 仮想デスクトップ ARM テンプレートのデプロイごとに 399 台の VM をデプロイすることも、可用性セットごとに 200 台の VM をデプロイすることもできます。デプロイあたりの VM の数を増やすには、ARM テンプレートまたは Azure portal ホスト プールの登録で可用性セットをオフにします。AZのデプロイが可能になり、現時点では一度に1つのAZで、目的のAZごとにVMの一部を手動で作成する必要があります。</t>
+          <t>各ホスト プールは、可用性ゾーン (AZ) または可用性セット (AS) を使用してデプロイできます。回復性を最大化するには、AZ の使用をお勧めします。 ホストプールの作成時に、ホストプールセッションホストを使用可能なすべての AZ に分散することを決定できます。 AS を使用しても単一のデータセンターの障害から保護されないため、AZ が使用できないリージョンでのみ使用する必要があります。AZ と AVD の詳細については、関連記事を参照してください。AZとASの比較については、ここで読むことができます:https://learn.microsoft.com/en-us/azure/virtual-machines/availability。</t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
@@ -1275,7 +1240,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-virtual-desktop-blog/announcing-general-availability-of-support-for-azure/ba-p/3636262</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1294,7 +1259,7 @@
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B12" s="21" t="inlineStr">
@@ -1304,12 +1269,12 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>AVD セッションホストをバックアップする要件を評価する</t>
+          <t>AVD セッションホスト VM をバックアップする要件を評価する</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup はホスト プール VM を保護するためにも使用できますが、ホスト プール VM をステートレスにする必要がある場合でも、この方法はサポートされます。このオプションは、個人用ホスト プールで検討できます。</t>
+          <t>Azure Backup を使用して、ホスト プール VM を保護できます。プールされたプールの場合、ステートレスである必要があるため、これは必要ありません。代わりに、このオプションは個人用ホスト プールに対して検討できます。</t>
         </is>
       </c>
       <c r="E12" s="21" t="inlineStr">
@@ -1344,27 +1309,27 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>依存 関係</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>ゴールデン イメージのリージョン間の可用性を計画する</t>
+          <t>パーソナルホストプールセッションホストのローカルDR戦略を準備する</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>カスタムイメージを使用して AVD ホストプール VM を展開する場合は、大規模な災害が発生した場合でも、それらのアーティファクトがすべてのリージョンで使用可能であることを確認することが重要です。Azure コンピューティング ギャラリー サービスを使用すると、ホスト プールがデプロイされているすべてのリージョンで、冗長ストレージと複数のコピーでイメージをレプリケートできます。</t>
+          <t>個人用プールの場合でも、利用可能な場合はアベイラビリティーゾーンを使用することをお勧めします。リージョン内 DR 戦略には 3 つの戦略が考えられますが、コスト、RTO/RPO、および VM OS ディスク全体を保存することが本当に必要な場合は、(1) 特定のゾーン (AZ) に各セッション ホストを作成し、Azure Site Recovery (ASR) を使用して別のゾーンにレプリケートします。(2) Azure Backup を使用して、別の AZ にある特定のセッション ホストをバックアップおよび復元します。 (3) 別の AZ に新しいセッション ホストを作成し、FSLogix や OneDrive を使用してデータと設定を新しいコンピューターで使用できるようにします。すべてのオプションでは、DR に対する管理者の介入と、ホスト プール レベルでの直接のユーザー割り当てが必要であり、事前に計画および構成する必要があります。</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1375,7 +1340,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/azure-to-azure-how-to-enable-zone-to-zone-disaster-recovery</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1383,7 +1348,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
+          <t>5da58639-ca3a-4961-890b-29663c5e10d</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1394,7 +1359,7 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
@@ -1404,17 +1369,17 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>インフラストラクチャとアプリケーションの依存関係を評価する</t>
+          <t>ゴールデン イメージのリージョン間の可用性を計画する</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>AVD インフラストラクチャのユーザがオンプレミスのリソースアクセスを必要とする場合、接続に必要なネットワークインフラストラクチャの高可用性も重要であり、考慮する必要があります。認証インフラストラクチャの回復性を評価および評価する必要があります。依存アプリケーションやその他のリソースの BCDR の側面は、セカンダリ DR の場所の可用性を確保するために考慮する必要があります。</t>
+          <t>カスタムイメージを使用して AVD ホストプール VM を展開する場合は、AVD が展開されているすべてのリージョンでそれらのアーティファクトを使用できることを確認することが重要です。Azure コンピューティング ギャラリー サービスを使用すると、ホスト プールがデプロイされているすべてのリージョンで、冗長ストレージと複数のコピーでイメージをレプリケートできます。Azure コンピューティング ギャラリー サービスはグローバル リソースではないことに注意してください。障害復旧シナリオでは、異なるリージョンに少なくとも 2 つのギャラリーを配置することをお勧めします。</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1425,7 +1390,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/azure-compute-gallery</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1433,7 +1398,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
+          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1444,22 +1409,22 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>依存 関係</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>プロファイルコンテナとオフィスコンテナ内で保護する必要があるデータを評価します</t>
+          <t>インフラストラクチャとアプリケーションの依存関係を評価する</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>FSLogix ユーザー プロファイル内のすべてのデータが、障害から保護する必要があるわけではありません。さらに、OneDrive やファイル サーバー/共有などの外部ストレージが使用されている場合、FSLogix プロファイルに残っているものは最小限であり、極端な状況では失われる可能性があります。また、プロファイル内のデータを他のストレージ (キャッシュ モードの Outlook 受信トレイなど) から再構築できる場合もあります。</t>
+          <t>AVD インフラストラクチャのユーザがオンプレミスのリソースアクセスを必要とする場合、接続に必要なネットワークインフラストラクチャの高可用性も重要であり、考慮する必要があります。認証インフラストラクチャの回復性を評価および評価する必要があります。依存アプリケーションやその他のリソースの BCDR の側面は、セカンダリ DR の場所の可用性を確保するために考慮する必要があります。</t>
         </is>
       </c>
       <c r="E15" s="21" t="inlineStr">
@@ -1475,7 +1440,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1483,7 +1448,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
+          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1494,7 +1459,7 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
@@ -1504,12 +1469,12 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>プロファイルコンテナとオフィスコンテナのバックアップ保護戦略を構築する</t>
+          <t>プロファイルコンテナとオフィスコンテナで保護する必要があるデータを評価します</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>重要なユーザーデータのデータ損失を防ぐことは重要であり、最初のステップは、どのデータを保存して保護する必要があるかを評価することです。OneDriveまたはその他の外部ストレージを使用している場合は、ユーザープロファイルやOfficeコンテナのデータを保存する必要がない場合があります。重要なユーザー データを保護するには、適切なメカニズムを検討する必要があります。Azure Backup サービスは、Azure Files Standard レベルと Premium レベルに格納されているときに、プロファイルとオフィス コンテナーのデータを保護するために使用できます。Azure NetApp Files Snapshots と Policies は、Azure NetApp Files (すべての層) に使用できます。</t>
+          <t>FSLogix ユーザー プロファイル内のすべてのデータが、障害から保護する必要があるわけではありません。さらに、OneDrive やファイル サーバー/共有などの外部ストレージが使用されている場合、FSLogix プロファイルに残っているものは最小限であり、極端な状況では失われる可能性があります。また、プロファイル内のデータを他のストレージ (キャッシュ モードの Outlook 受信トレイなど) から再構築できる場合もあります。</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
@@ -1525,7 +1490,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1533,7 +1498,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1544,7 +1509,7 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
@@ -1554,12 +1519,12 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>BCDRを目的としたプロファイルコンテナストレージレプリケーションの要件と回復性を評価する</t>
+          <t>プロファイルコンテナとオフィスコンテナのバックアップ保護戦略を構築する</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>AVD では、FSLogix コンテナに存在するユーザーデータに複数のレプリケーションメカニズムと戦略を使用できます。プロファイル パターン #1: ネイティブの Azure ストレージ レプリケーション メカニズム (Azure Files Standard GRS レプリケーション、Azure NetApp Files クロスリージョン レプリケーション、VM ベースのファイル サーバー用の Azure Files Sync など)Azure Files にゾーン レプリケート ストレージ (ZRS) または geo レプリケート ストレージ (GRS) を使用することをお勧めします。ローカルのみの回復性を持つ LRS は、ゾーン/リージョンの保護が必要ない場合に使用できます。注: Azure ファイル共有標準は LRS/ZRS/GRS ですが、100 TB の大容量サポートが有効になっている場合は LRS/ZRS のみがサポートされます。?プロファイル パターン #2: FSLogix Cloud Cache は、異なる (最大 4 つの) ストレージ アカウント間でコンテナーをレプリケートするための自動メカニズムで構築されています。クラウドキャッシュは、次の場合にのみ使用する必要があります。ユーザー プロファイルまたは Office コンテナーのデータ可用性が必要 高可用性 SLA は重要であり、リージョンの障害に対する回復性が必要です。選択したストレージ オプションは、BCDR 要件を満たすことができません。たとえば、Azure ファイル共有 Premium レベル、または大きなファイルのサポートが有効になっている Azure ファイル共有標準では、GRS は使用できません。異種ストレージ間のレプリケーションが必要な場合。プロファイル パターン #3: ユーザー データ/プロファイル コンテナーではなく、アプリケーション データに対してのみ geo ディザスター リカバリーを設定する: 重要なアプリケーション データを、OneDrive や独自の組み込み DR メカニズムを備えたその他の外部ストレージなどの個別のストレージに格納します。</t>
+          <t>重要なユーザーデータのデータ損失を防ぐことは重要であり、最初のステップは、どのデータを保存して保護する必要があるかを評価することです。OneDriveまたはその他の外部ストレージを使用している場合は、ユーザープロファイルやOfficeコンテナのデータを保存する必要がない場合があります。重要なユーザー データを保護するには、適切なメカニズムを検討する必要があります。Azure Backup サービスは、Azure Files Standard レベルと Premium レベルに格納されているときに、プロファイルとオフィス コンテナーのデータを保護するために使用できます。Azure NetApp Files Snapshots と Policies は、Azure NetApp Files (すべての層) に使用できます。</t>
         </is>
       </c>
       <c r="E17" s="21" t="inlineStr">
@@ -1583,7 +1548,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1594,7 +1559,7 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
@@ -1604,12 +1569,12 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Azure ネットアップ ファイルの DR 戦略を確認する</t>
+          <t>BCDRを目的としたプロファイルコンテナストレージレプリケーションの要件と回復性を評価する</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>geo ディザスター リカバリー: Azure NetApp Files は基本的に LRS (ローカルにレプリケートされたストレージ) であるため、リージョン間のレプリケーションが必要な場合は、さらに何かを設計する必要があります。現時点でのクロスリージョンの推奨事項は、別の Azure リージョン(およびネットアップボリューム)にレプリケートするネットアップクラウド同期です。バックアップ:バックアップはスナップショットによって処理されますが、自動ではなく、ポリシーを使用してスケジュールする必要があります。https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots。ここに記載されているように、ボリュームあたりのスナップショットの上限(255)があります:https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits。</t>
+          <t>AVD では、FSLogix コンテナーに存在するユーザー データに複数のレプリケーション メカニズムと戦略を使用できます。 [プロファイル パターン #1]: ネイティブの Azure ストレージ レプリケーション メカニズム (Azure Files Standard GRS レプリケーション、Azure NetApp Files クロスリージョン レプリケーションなど)。Azure Files には、ゾーン レプリケート ストレージ (ZRS) または geo レプリケート ストレージ (GRS) を使用することをお勧めします。ローカルのみの回復性を備えた LRS は、ゾーン/リージョンの保護が必要ない場合に使用できます。注: Azure ファイル共有標準は LRS/ZRS/GRS ですが、100 TB の大容量サポートが有効になっている場合は LRS/ZRS のみがサポートされます。[プロファイル パターン #2]: FSLogix Cloud Cache は、異なる (最大 4 つの) ストレージ アカウント間でコンテナーをレプリケートする自動メカニズムで構築されています。Cloud Cache は、(1) ユーザー プロファイルまたは Office コンテナーのデータ可用性が必要 高可用性 SLA が重要であり、リージョンの障害に対する回復力が必要な場合にのみ使用してください。(2) 選択したストレージ オプションは、BCDR 要件を満たすことができません。たとえば、Azure ファイル共有プレミアム レベル、または大きなファイルのサポートが有効になっている Azure ファイル共有標準では、GRS は使用できません。(3) 異種ストレージ間でのレプリケーションが必要な場合。[プロファイル パターン #3]: ユーザー データ/プロファイル コンテナーではなく、アプリケーション データに対してのみ geo ディザスター リカバリーを設定する: 重要なアプリケーション データを、OneDrive や独自の組み込み DR メカニズムを備えたその他の外部ストレージなどの個別のストレージに格納します。</t>
         </is>
       </c>
       <c r="E18" s="21" t="inlineStr">
@@ -1625,7 +1590,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1633,7 +1598,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
+          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1644,7 +1609,7 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr">
@@ -1654,12 +1619,12 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Azure Files DR 戦略を確認する</t>
+          <t>Azure ファイルのディザスター リカバリー戦略を確認する</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>geo ディザスター リカバリー: Azure Files の GRS は、Standard SKU でのみ使用でき、大規模な共有のサポートはないため、ほとんどのお客様のシナリオには適していません。geo レプリケーションが必要な場合は、Azure ファイル共有プレミアムを使用するときに、FSLogix クラウド キャッシュを使用したレプリケーションを評価するか、"リージョン内" 可用性ゾーン (AZ) のみの回復性を考慮する必要があります。バックアップ: Azure Backup は、すべての SKU で Azure ファイル共有を完全にサポートしており、プロファイル コンテナーを保護するために推奨されるソリューションです。OneDriveまたはその他の外部ストレージを使用している場合は、ユーザープロファイルやOfficeコンテナのデータを保存する必要がない場合があります。</t>
+          <t>ローカルのディザスター リカバリーには、Azure ファイルの Azure Backup を使用できます。リージョン間の geo ディザスター リカバリーの場合: GRS for Azure Files は、Standard SKU でのみ使用でき、大規模な共有のサポートはないため、ほとんどのお客様のシナリオには適していません。Azure ファイル共有プレミアムで geo レプリケーションが必要な場合は、FSLogix クラウド キャッシュを使用したレプリケーションを評価するか、"リージョン内" 可用性ゾーン (AZ) のみの回復性を検討する必要があります。</t>
         </is>
       </c>
       <c r="E19" s="21" t="inlineStr">
@@ -1694,22 +1659,22 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションを AVD ホストプールに展開する方法を決定する</t>
+          <t>Azure Files にゾーン冗長ストレージ (ZRS) を使用して回復性を最大化する</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションは、ゴールデン イメージにプレインストールすることも、MSIX &amp; AppAttach 機能を使用してアタッチすることも、従来の SW 配布方法を使用してプールのデプロイ後にホストに配布することもできます。</t>
+          <t>ゾーン冗長ストレージは、ユーザー プロファイル データのリージョン内の回復性を最大化します。ZRS は、"FileStorage" ストレージ アカウントの種類を通じてプレミアム ファイル共有でサポートされます。ZRS は、標準の汎用 v2 ストレージ アカウントでサポートされています。ゾーン冗長ストレージの使用は、各ホスト プール内のセッション ホストのゾーン冗長展開と組み合わせる必要があります。</t>
         </is>
       </c>
       <c r="E20" s="21" t="inlineStr">
@@ -1725,7 +1690,7 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://learn.microsoft.com/azure/storage/files/files-redundancy#zone-redundant-storage</t>
         </is>
       </c>
       <c r="I20" s="15" t="n"/>
@@ -1733,7 +1698,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
+          <t>10d4e875-d502-4142-a795-f2b6eff34f88</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1744,22 +1709,22 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>必要なゴールデン画像の数を見積もる</t>
+          <t>Azure ネットアップ ファイルのディザスター リカバリー戦略を確認する</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>彼らは、単一のイメージ、または異なるアプリケーションが組み込まれた複数のイメージに役立つfslogixアプリケーションマスキングを使用しますか?</t>
+          <t>ローカルのディザスター リカバリーには、Azure ネットアップ ファイル (ANF) ネイティブ バックアップを使用できます。ANF は基本的にローカル冗長であるため、リージョン間の geo ディザスター リカバリーでは、クロスリージョン レプリケーション (CRR) https://learn.microsoft.com/en-us/azure/azure-netapp-files/cross-region-replication-create-peering という追加のメカニズムを使用する必要があります。現在、ANF は異なるアベイラビリティーゾーン (AZ) 間でのレプリケーションも冗長性も提供せず、ANF ボリュームを配置する単一の AZ を選択する可能性のみを提供します。 https://learn.microsoft.com/en-us/azure/azure-netapp-files/manage-availability-zone-volume-placement。</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
@@ -1775,7 +1740,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/cross-region-replication-create-peering</t>
         </is>
       </c>
       <c r="I21" s="15" t="n"/>
@@ -1783,7 +1748,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
+          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1799,22 +1764,22 @@
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ</t>
+          <t>ゴールデン画像</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>ホスト プールの展開に使用する OS イメージを決定する</t>
+          <t>アプリケーションを AVD ホストプールに展開する方法を決定する</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>各ホスト プールの展開に使用するゲスト OS を決定します: Windows 10 と Windows Server、マーケットプレースとカスタム イメージ</t>
+          <t>アプリケーションは、ゴールデン イメージにプレインストールすることも、MSIX &amp; AppAttach 機能を使用してアタッチすることも、ホスト プールの展開後に従来のソフトウェア配布方法を使用してセッション ホストに配布することもできます。</t>
         </is>
       </c>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1825,7 +1790,7 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-golden-image</t>
         </is>
       </c>
       <c r="I22" s="15" t="n"/>
@@ -1833,7 +1798,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
+          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1849,22 +1814,22 @@
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ</t>
+          <t>ゴールデン画像</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>カスタム イメージを使用する場合は、自動ビルド プロセスがあるかどうかを判断しますか。</t>
+          <t>必要なゴールデン画像の数を見積もる</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>何も存在しない場合は、Azure Image Builder を使用してビルド プロセスを自動化することを検討してください。</t>
+          <t>異なる OS バージョンや設定、分離する必要があり、1 つのイメージに含めることができないアプリケーションの異なるグループをサポートするには、複数のゴールデン イメージが必要になる場合があります。</t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1875,7 +1840,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/image-builder-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-golden-image</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1883,7 +1848,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
+          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1899,22 +1864,22 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ</t>
+          <t>ゴールデン画像</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>カスタム イメージを使用する場合、イメージのライフサイクルを整理および管理する計画はありますか?</t>
+          <t>ホスト プールの展開に使用する OS イメージを決定する</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Azure コンピューティング ギャラリーを評価します。</t>
+          <t>各ホスト プールの展開に使用するゲスト OS を決定します: Windows 10 と Windows Server、マーケットプレースとカスタム イメージ</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1925,7 +1890,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/prerequisites?tabs=portal#operating-systems-and-licenses</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1933,7 +1898,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
+          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1949,22 +1914,22 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ</t>
+          <t>ゴールデン画像</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>カスタムイメージを使用する場合は、マスターイメージの構築方法に関する AVD の推奨ベストプラクティスを確認してください。</t>
+          <t>カスタム イメージの適切なストアを選択する</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>ゴールデンイメージのカスタマイズに関するいくつかの既知のベストプラクティスと推奨事項がありますので、参照されている記事を確認してください。</t>
+          <t>Azure VM カスタム イメージは、Azure コンピューティング ギャラリー、マネージド イメージ オブジェクト、ストレージ内のマネージド ディスクなど、さまざまな方法で作成および保存できます。推奨される方法は、Azure コンピューティング ギャラリーを使用することです。</t>
         </is>
       </c>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1975,7 +1940,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/shared-image-galleries</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1983,7 +1948,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
+          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1999,22 +1964,22 @@
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ</t>
+          <t>ゴールデン画像</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>仮想デスクトップ最適化ツールの使用状況を評価する</t>
+          <t>カスタム イメージのビルド プロセスを設計する</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>このツール セットは、ホワイト ペーパー「仮想デスクトップ インフラストラクチャ (VDI) の役割に対する Windows 10 バージョン 2004 の最適化」で参照されている設定を自動的に適用するために作成されました https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004。ホワイトペーパーに記載されているツールの使用および/または最適化を検討する必要があります。</t>
+          <t>カスタム イメージを使用する場合は、自動ビルド プロセスを計画します。既存のソフトウェア ファクトリが存在しない場合は、カスタム イメージ テンプレートや Azure Image Builder を使用してビルド プロセスを自動化することを検討してください。</t>
         </is>
       </c>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2025,7 +1990,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-custom-image-templates</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -2033,7 +1998,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
+          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -2049,22 +2014,22 @@
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ</t>
+          <t>ゴールデン画像</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>AVD セッションホスト設定管理戦略の計画/評価</t>
+          <t>カスタムイメージを使用する場合は、カスタムイメージの構築方法に関する AVD の推奨ベストプラクティスを確認してください</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>初期展開後にホスト プール VM の構成を管理するための構成管理ツールが既に導入されているかどうかを確認します (SCCM、MEM/Intune、GPO、3 番目のパーティのソリューションなど)。</t>
+          <t>ゴールデンイメージのカスタマイズに関するいくつかの既知のベストプラクティスと推奨事項がありますので、参照されている記事を確認してください。</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2075,14 +2040,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-golden-image</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
+          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2098,22 +2063,22 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ</t>
+          <t>ゴールデン画像</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Microsoft OneDrive が AVD 展開の一部になるかどうかを判断する</t>
+          <t>ゴールデン イメージ更新プロセスに最新バージョンの FSLogix を含める</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>提供されている記事を確認し、「既知のフォルダーリダイレクト」と「ファイルオンデマンド」を確認します OneDrive 機能を検討し、最終的に採用する必要があります。</t>
+          <t>AVD セッションホストにインストールされている FSLogix スタックは、自動更新機能を提供しません。このため、最新バージョンのFSLogixをダウンロードし、ゴールデンイメージの更新プロセスに含めることをお勧めします。</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2124,14 +2089,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
+          <t>https://learn.microsoft.com/fslogix/how-to-install-fslogix</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
+          <t>ed5c9027-dd1a-4343-86ca-52b199223186</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2147,22 +2112,22 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ</t>
+          <t>ゴールデン画像</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Teams が AVD 展開の一部になるかどうかを判断する</t>
+          <t>仮想デスクトップ最適化ツールの使用状況を評価する</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>この記事を確認し、最新バージョンを使用し、Teams の除外を確認して評価し、プロファイルのサイズを小さくしてください。</t>
+          <t>このツール セットは、ホワイト ペーパー「仮想デスクトップ インフラストラクチャ (VDI) の役割に対する Windows 10 バージョン 2004 の最適化」で参照されている設定を自動的に適用するために作成されました https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004。ホワイトペーパーに記載されているツールの使用および/または最適化を検討する必要があります。</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2173,14 +2138,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
+          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
+          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2196,22 +2161,22 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>ゴールデン画像</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>プロファイル/Office コンテナーと同じストレージ アカウント/共有を使用しないでください</t>
+          <t>Microsoft OneDrive が AVD 展開の一部になるかどうかを判断する</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>MSIX パッケージを格納するには、個別のストレージ アカウント/共有を使用することを強くお勧めします。必要に応じて、ストレージは個別にスケールアウトでき、プロファイル I/O アクティビティの影響を受けません。Azure には、MISX アプリのアタッチに使用できる複数のストレージ オプションが用意されています。Azure Files または Azure NetApp Files は、コストと管理オーバーヘッドの間で最適な価値を提供するため、これらのオプションを使用することをお勧めします。</t>
+          <t>OneDriveが使用され、ゴールデンイメージに含まれている場合は、「詳細情報」セクションの関連記事に記載されている構成手順に従ってください。この AVD チェックリストの範囲外ですが、FSLogix プロファイルで使用される領域を削減し、ユーザー エクスペリエンスを向上させるために、"既知のフォルダー リダイレクト" や "ファイル オンデマンド" などの OneDrive の最適化を評価する必要があります。現在の OneDrive は、リモート アプリではサポートされていません。</t>
         </is>
       </c>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2222,14 +2187,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/install-office-on-wvd-master-image#install-onedrive-in-per-machine-mode</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
+          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2245,22 +2210,22 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>ゴールデン画像</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>MSIX のパフォーマンスに関する考慮事項を確認する</t>
+          <t>Microsoft Teams が AVD 展開の一部になるかどうかを判断する</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>参照記事では、AVD コンテキストでの MSIX の使用に関するパフォーマンスに関する考慮事項はほとんどありませんが、慎重に確認してください。</t>
+          <t>「詳細情報」列の関連記事に含まれている要件と構成手順を必ず確認してください。Teams の自動更新は無効になるため、Teams の最新バージョンを確認してゴールデン イメージ更新プロセスに含めることをお勧めします。</t>
         </is>
       </c>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2271,14 +2236,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
+          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2294,22 +2259,22 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>ゴールデン画像</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>MSIX 共有の適切なセッション ホストのアクセス許可を確認する</t>
+          <t>複数の言語をサポートするための要件を評価する</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>MSIX アプリのアタッチには、ファイル共有にアクセスするための読み取り専用アクセス許可が必要です。MSIX アプリケーションを Azure Files に格納する場合は、セッション ホストに対して、すべてのセッション ホスト VM に、共有に対するストレージ アカウント ロールベースのアクセス制御 (RBAC) とファイル共有の新技術ファイル システム (NTFS) アクセス許可の両方を割り当てる必要があります。</t>
+          <t>AVD は、同じホストプール内で異なる言語とローカリゼーション要件を持つユーザをサポートできます。これは、ゴールデンイメージをカスタマイズして、ユーザーが必要な言語を選択できるようにすることができます。Windows 11で追加の言語パックを構成する手順は、リファレンス記事に記載されています。</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2320,7 +2285,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/windows-11-language-packs</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2328,7 +2293,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
+          <t>7c336f3b-822a-498e-8cd1-667d1150df4a</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2349,12 +2314,12 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>3番目のパーティ製アプリケーション用の MSIX パッケージ</t>
+          <t>FSLogix プロファイルと同じストレージ アカウント/共有を使用しないでください</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>3番目のパーティのソフトウェアベンダーは、MIXパッケージを提供する必要があります、それは顧客アプリケーションの所有者からの適切なサポートなしで変換手順を試みることはお勧めしません。</t>
+          <t>MSIX パッケージを格納するには、個別のストレージ アカウント/共有を使用することを強くお勧めします。必要に応じて、ストレージは個別にスケールアウトでき、プロファイル I/O アクティビティの影響を受けません。Azure には、MISX アプリのアタッチに使用できる複数のストレージ オプションが用意されています。Azure Files または Azure NetApp Files は、コストと管理オーバーヘッドの間で最適な価値を提供するため、これらのオプションを使用することをお勧めします。</t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
@@ -2370,7 +2335,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2378,7 +2343,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
+          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2399,17 +2364,17 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>MSIX パッケージの自動更新を無効にする</t>
+          <t>MSIX のパフォーマンスに関する考慮事項を確認する</t>
         </is>
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>MSIX アプリのアタッチでは、MSIX アプリケーションの自動更新がサポートされないため、無効にする必要があります。</t>
+          <t>参照記事では、AVD コンテキストでの MSIX の使用に関するパフォーマンスに関する考慮事項はほとんどありませんが、慎重に確認してください。</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2420,7 +2385,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2428,7 +2393,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2449,12 +2414,12 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>オペレーティング システムのサポートを確認する</t>
+          <t>MSIX 共有の適切なセッション ホストのアクセス許可を確認する</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>MSIX &amp; App Attach を利用するには、AVD ホスト プールのゲスト OS イメージが Windows 10 Enterprise または Windows 10 Enterprise Multi-session バージョン 2004 以降である必要があります。</t>
+          <t>MSIX アプリのアタッチには、ファイル共有にアクセスするための読み取り専用アクセス許可が必要です。MSIX アプリケーションを Azure Files に格納する場合は、セッション ホストに対して、すべてのセッション ホスト VM に、共有に対するストレージ アカウント ロールベースのアクセス制御 (RBAC) とファイル共有の新技術ファイル システム (NTFS) アクセス許可の両方を割り当てる必要があります。</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
@@ -2470,7 +2435,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2478,7 +2443,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
+          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2494,22 +2459,22 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>セッション ホスト</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>ホスト プールの展開のための Gen2 VM の使用状況を評価する</t>
+          <t>3番目のパーティ製アプリケーション用の MSIX パッケージ</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>ホスト プールのデプロイに使用する VM SKU を選択したら、セキュリティを強化し、機能を向上させるために、Gen2 タイプの SKU を使用することをお勧めします。</t>
+          <t>3番目のパーティのソフトウェアベンダーは、MIXパッケージを提供する必要があります、それは顧客アプリケーションの所有者からの適切なサポートなしで変換手順を試みることはお勧めしません。</t>
         </is>
       </c>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2520,7 +2485,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-machines/generation-2</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2528,7 +2493,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
+          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2539,27 +2504,27 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>キャパシティ プランニング</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>使用するホスト・プール・タイプの決定</t>
+          <t>MSIX パッケージの自動更新を無効にする</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>共有/プールまたは専用/個人</t>
+          <t>MSIX アプリのアタッチでは MSIX アプリケーションの自動更新がサポートされていないため、無効にする必要があります。</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2570,7 +2535,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2578,7 +2543,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>8468c55a-775c-46ee-a5b8-6ad8844ce3b2</t>
+          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2589,22 +2554,22 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>キャパシティ プランニング</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>パーソナルホストプールタイプで、割り当てタイプを決定します</t>
+          <t>オペレーティング システムのサポートを確認する</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>自動割り当てと直接割り当ての違いがよく理解されており、選択したオプションが問題のシナリオに適していることを確認します。</t>
+          <t>MSIX &amp; App Attach を利用するには、AVD ホスト プールのゲスト OS イメージが Windows 10/11 Enterprise または Windows 10/11 Enterprise Multi-session バージョン 2004 以降である必要があります。</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2620,7 +2585,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2628,7 +2593,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
+          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2639,22 +2604,22 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>キャパシティ プランニング</t>
+          <t>セッション ホスト</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>プールされたホストプールタイプで、負荷分散方法を決定します</t>
+          <t>ホスト プールの展開のための Gen2 VM の使用状況を評価する</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>使用するものと使用可能なオプションを確認し、自動スケーリングを使用する場合は幅優先に設定されることに注意してください。</t>
+          <t>ホスト プールのデプロイに使用する VM SKU を選択したら、セキュリティを強化し、機能を向上させるために、Gen2 タイプの SKU を使用することをお勧めします。</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
@@ -2670,7 +2635,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/generation-2</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2678,7 +2643,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
+          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2689,27 +2654,27 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>財団</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>キャパシティ プランニング</t>
+          <t>セッション ホスト</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>展開するさまざまなホスト プールの数を見積もる</t>
+          <t>MMR(マルチメディアリダイレクト)を使用して、ブラウザでのビデオパフォーマンスを向上させることを検討してください</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>選択基準に基づいて、必要なホストプールの数はいくつですか。次の場合は、複数のものを持つことを検討する必要があります。複数のOSイメージ?複数の地域?別のハードウェアが必要ですか?異なるホストプールタイプ(共有と個人)?異なるユーザー要件とSLA(トップユーザー、エグゼクティブ、オフィスワーカー対開発者など)?さまざまな RDP 設定 (ホスト プール レベルで適用) については、「https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties」を参照してください。ホスト プール内の必要な数の VM が最大機能を超えています</t>
+          <t>MMR は、メディア コンテンツをセッション ホストからローカル コンピューターにリダイレクトして、処理とレンダリングを高速化します。Microsoft EdgeまたはGoogle Chromeでメディアコンテンツを再生する場合にのみ機能します。詳細については、リンク先の URL を参照してください。</t>
         </is>
       </c>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2720,7 +2685,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/multimedia-redirection</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2728,7 +2693,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
+          <t>adecb27f-dc40-40f5-aca2-0090f633b1c9</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2749,17 +2714,17 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>ワークロード パフォーマンス テストを実行して、使用する最適な Azure VM SKU とサイズを決定します (プールあたりのホスト数を決定します)</t>
+          <t>使用するホスト・プール・タイプの決定</t>
         </is>
       </c>
       <c r="D41" s="21" t="inlineStr">
         <is>
-          <t>提供されているリンクを使用して SKU 決定の開始点を設定し、パフォーマンス テストを使用して検証します。セッション ホストごとに少なくとも 4 つのコアが本番用に選択されていることを確認します (マルチセッション)</t>
+          <t>ホスト プールは、セッション ホストとして Azure 仮想デスクトップに登録される Azure 仮想マシンのコレクションです。ホスト プールは、個人用とプール型の 2 種類のいずれかになります。使用する型とその数は、文書化および検証する必要がある重要な設計上の決定事項です。詳細については、「詳細情報」列の関連記事を参照してください。</t>
         </is>
       </c>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2770,7 +2735,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/terminology#host-pools</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2778,7 +2743,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
+          <t>8468c55a-775c-46ee-a5b8-6ad8844ce3b2</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2799,12 +2764,12 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>環境の AVD スケーラビリティの制限を確認する</t>
+          <t>展開するさまざまなホスト プールの数を見積もる</t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>参照記事で報告されているAVDの容量と制限を確認することが重要です。</t>
+          <t>設計基準を使用して、展開するホスト プールの数を決定します。これは、さまざまな OS イメージ、マルチリージョンのサポート、ゲスト VM ハードウェアの違い (GPU のサポートの有無など)、さまざまなユーザーの期待と稼働時間の要件 ("エグゼクティブ"、"オフィス ワーカー"、"開発者" など)、ホスト プールの RDP 設定 (ドライブ リダイレクトのサポートなど) などの要因に基づきます。これらにより、ホスト プールの数と、各プールに含まれるホストの数が決まります。</t>
         </is>
       </c>
       <c r="E42" s="21" t="inlineStr">
@@ -2820,7 +2785,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/terminology?WT.mc_id=Portal-fx#host-pools</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2828,7 +2793,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
+          <t>4e98495f-d3c0-4af2-aa59-a793395a32a7</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2849,17 +2814,17 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>セッション ホストに GPU が必要かどうかを判断する</t>
+          <t>[パーソナル ホスト プールの種類] で、適切な割り当ての種類を選択します。</t>
         </is>
       </c>
       <c r="D43" s="21" t="inlineStr">
         <is>
-          <t>GPU を搭載したホスト プールには特別な構成が必要ですので、参照先の記事を必ず確認してください。</t>
+          <t>自動割り当てと直接割り当ての違いがよく理解されており、選択したオプションが問題のシナリオに適していることを確認します。[自動] が既定の設定です。</t>
         </is>
       </c>
       <c r="E43" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2870,7 +2835,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2878,7 +2843,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
+          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2899,12 +2864,12 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Azure の高速ネットワーク機能を利用できる VM SKU を使用することをお勧めします。</t>
+          <t>[プールされたホスト プールの種類] で、最適な負荷分散方法を選択します。</t>
         </is>
       </c>
       <c r="D44" s="21" t="inlineStr">
         <is>
-          <t>可能な限り、高速ネットワーク機能を備えた VM SKU を活用することをお勧めします。現在、Windows Server OSがサポートされており(記事のリストを参照)、将来的にはWindowsクライアントOSも含まれる可能性があります。</t>
+          <t>使用するものと使用可能なオプションを確認すると、自動スケーリングでは既存の負荷分散アルゴリズムは無視されます。</t>
         </is>
       </c>
       <c r="E44" s="21" t="inlineStr">
@@ -2920,7 +2885,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2928,7 +2893,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
+          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2944,17 +2909,17 @@
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>AVD に接続するユーザーの数と、どのリージョンから接続するかを評価する</t>
+          <t>プールされたホスト プールの種類の場合、VM のコア数は 32 を超えないようにしてください</t>
         </is>
       </c>
       <c r="D45" s="21" t="inlineStr">
         <is>
-          <t>適切な計画と展開を行うには、最大ユーザー数と平均同時セッション数を評価することが重要です。</t>
+          <t>コアの数が増えると、システムの同期オーバーヘッドも増加します。特に、複数のユーザーが同時にサインインする場合。セッション ホストに対して大きすぎる VM を使用しないようにする</t>
         </is>
       </c>
       <c r="E45" s="21" t="inlineStr">
@@ -2970,14 +2935,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://learn.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
+          <t>b3724959-4943-4577-a3a9-e10ff6345f24</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2993,22 +2958,22 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>すべてのユーザーが同じアプリケーション・セットを持つか、異なるホスト・プール構成やOSイメージを使用するかを決定する</t>
+          <t>同じホスト プールを使用して、フル デスクトップ (DAG) とリモート アプリの両方を同じユーザー セットに提供しないでください。</t>
         </is>
       </c>
       <c r="D46" s="21" t="inlineStr">
         <is>
-          <t>複数のホストプールは、さまざまなユーザーセットをサポートするために必要になる可能性があるため、必要な数を見積もることをお勧めします。</t>
+          <t>AVD は、1 つのホスト プール内の RemoteApp とデスクトップ アプリケーション グループ(DAG)の両方を同じユーザー セットに割り当てることをサポートしていません。これにより、1 人のユーザーが 1 つのホスト プールに 2 つのユーザー セッションを持つことになります。ユーザーは、同じプロファイルを使用して、同じホスト プール内で同時に 2 つのアクティブなセッションを持つことはできません。</t>
         </is>
       </c>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3019,7 +2984,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/terminology?WT.mc_id=Portal-fx#application-groups</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -3027,7 +2992,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
+          <t>b384b7ed-1cdd-457e-a2cd-c8d4d55bc144</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -3043,22 +3008,22 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>各ホスト プールの外部依存関係を評価する</t>
+          <t>Microsoft Entra ID テナント内のすべてのホスト プールで必要なアプリケーション グループの数を見積もる</t>
         </is>
       </c>
       <c r="D47" s="21" t="inlineStr">
         <is>
-          <t>AVD プールの外部のリソース(Active Directory、外部ファイル共有またはその他のストレージ、オンプレミスのサービスとリソース、VPN や Express Route などのネットワーク インフラストラクチャ コンポーネント、外部サービス、サードパーティ コンポーネントなど)への依存関係を評価および確認する必要があります。これらすべてのリソースについて、AVD ホストプールからの遅延を評価し、接続を考慮する必要があります。さらに、BCDR に関する考慮事項をこれらの依存関係にも適用する必要があります。</t>
+          <t>AVD で作成できるアプリケーション グループは、Microsoft Entra ID(以前の Azure AD) テナントごとに 500 個に制限されています。制限を増やすことはできますが(詳細については、コンパニオンリンクを参照してください)、推奨されません。</t>
         </is>
       </c>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3069,7 +3034,7 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits#azure-virtual-desktop-service-limits</t>
         </is>
       </c>
       <c r="I47" s="15" t="n"/>
@@ -3077,7 +3042,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
+          <t>971cc4a4-b1f7-4c12-90e0-1ad96808f00c</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3093,22 +3058,22 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>使用されているクライアント OS と AVD クライアントタイプを確認する</t>
+          <t>各アプリケーショングループのアプリケーション数を見積もる</t>
         </is>
       </c>
       <c r="D48" s="21" t="inlineStr">
         <is>
-          <t>各クライアントの制限事項を確認し、可能な場合は複数のオプションを比較します。</t>
+          <t>アプリケーションは、アクセス許可を発行および割り当てるためのコンテナーとして [アプリケーション グループ] の下にグループ化されます: アプリケーション グループごとに 50 を超えるアプリケーションを発行しないことをお勧めします。</t>
         </is>
       </c>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3119,14 +3084,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop#considerations</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
+          <t>fa9f2895-473d-439b-ab8e-5a5cf92c7f32</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3142,17 +3107,17 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>ライセンス要件を確認する</t>
+          <t>パーソナル ホスト プールの FSLogix の使用を評価する</t>
         </is>
       </c>
       <c r="D49" s="21" t="inlineStr">
         <is>
-          <t>Windows Virtual Desktop ワークロードを実行するための適切なライセンスを持つお客様は、セッション ホスト仮想マシンに Windows ライセンスを適用し、別のライセンスを支払うことなく実行できます。</t>
+          <t>個人用ホスト プールでは、各 VM が 1 人のユーザーに静的に割り当てられるため、移動プロファイル ソリューションがすぐに必要ないため、FSLogix は必要ありません。一部の使用シナリオでは、FSLogix が役立ちます。たとえば、VM を再割り当てしたり、ユーザーを別のデスクトップに移動したり、移動プロファイルを使用して DR 目的でユーザー プロファイルを別の場所に保存したりできます。</t>
         </is>
       </c>
       <c r="E49" s="21" t="inlineStr">
@@ -3168,14 +3133,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type?tabs=azure#reassign-a-personal-desktop</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
+          <t>38b19ab6-0693-4992-9394-5590883916ec</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3191,17 +3156,17 @@
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>PoC を実行してエンドツーエンドのユーザー エクスペリエンスをテストし、ネットワーク遅延による影響を検証する</t>
+          <t>ワークロード パフォーマンス テストを実行して、使用する最適な Azure VM SKU とサイズを決定する</t>
         </is>
       </c>
       <c r="D50" s="21" t="inlineStr">
         <is>
-          <t>ユーザーの場所と AVD リージョンの展開によっては、ユーザーのエクスペリエンスが最適でない場合があるため、小規模な PoC 環境でできるだけ早くテストすることが重要です。</t>
+          <t>提供されているリンクを使用して SKU 決定の開始点を設定し、パフォーマンス テストを使用して検証します。本番用に少なくとも4つのコアがセッション・ホストごとに選択されていることを確認します(マルチセッション)</t>
         </is>
       </c>
       <c r="E50" s="21" t="inlineStr">
@@ -3217,7 +3182,7 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
         </is>
       </c>
       <c r="I50" s="15" t="n"/>
@@ -3225,7 +3190,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
+          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3241,22 +3206,22 @@
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>ユーザーがフルデスクトップやリモートアプリケーションを使用して AVD にアクセスするかどうかを決定する</t>
+          <t>環境の AVD スケーラビリティの制限を確認する</t>
         </is>
       </c>
       <c r="D51" s="21" t="inlineStr">
         <is>
-          <t>ユーザーにフルデスクトップまたはリモートアプリケーショングループを提供するかどうかを決定します。</t>
+          <t>参照記事で報告されている AVD の容量と制限を確認することが重要です。追加の制限としきい値は、ネットワーク、コンピューティング、ストレージ、およびサービスの管理に適用されます。</t>
         </is>
       </c>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3267,7 +3232,7 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop#considerations</t>
         </is>
       </c>
       <c r="I51" s="15" t="n"/>
@@ -3275,7 +3240,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
+          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3291,17 +3256,17 @@
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>すべてのユーザーの RDP 設定は同じですか?</t>
+          <t>セッション ホストに GPU が必要かどうかを判断する</t>
         </is>
       </c>
       <c r="D52" s="21" t="inlineStr">
         <is>
-          <t>RDP 設定は、現在、ユーザー/グループごとではなく、ホスト プール レベルでのみ構成できます。</t>
+          <t>GPU を搭載したホスト プールには特別な構成が必要ですので、参照先の記事を必ず確認してください。</t>
         </is>
       </c>
       <c r="E52" s="21" t="inlineStr">
@@ -3317,7 +3282,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3325,7 +3290,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
+          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3341,22 +3306,22 @@
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>クライアントとユーザー</t>
+          <t>キャパシティ プランニング</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>管理された内部ネットワークから接続するクライアントの RDP ShortPath を評価する</t>
+          <t>高速ネットワークを活用できる Azure VM SKU を使用する</t>
         </is>
       </c>
       <c r="D53" s="21" t="inlineStr">
         <is>
-          <t>マネージド ネットワークの RDP ショートパスは、リモート デスクトップ クライアントとセッション ホスト間の直接 UDP ベースのトランスポートを確立する Azure 仮想デスクトップの機能です。余分なリレーを削除すると、ラウンドトリップ時間が短縮され、遅延の影響を受けやすいアプリケーションや入力方式のユーザーエクスペリエンスが向上します。RDP ショートパスをサポートするには、Azure 仮想デスクトップ クライアントがセッション ホストへの直接の通信経路を必要とし、Windows 10 または Windows 7 のいずれかを実行し、Windows デスクトップ クライアントがインストールされている必要があります。</t>
+          <t>可能な限り、高速ネットワーク機能を備えた VM SKU を活用することをお勧めします。この機能には、特定の VM SKU/サイズと OS バージョンが必要です。関連記事の一覧と要件を参照してください。</t>
         </is>
       </c>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3367,14 +3332,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-desktop/shortpath</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
+          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3390,22 +3355,22 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>どの Azure リージョンにデプロイされるかを決定します。</t>
+          <t>AVD に接続するユーザーの数と、どのリージョンから接続するかを評価する</t>
         </is>
       </c>
       <c r="D54" s="21" t="inlineStr">
         <is>
-          <t>AVDは非地域サービスであり、ホストプールは任意のリージョンで作成でき、最も近いフロントエンドからの自動リダイレクトが自動的に行われます。</t>
+          <t>適切な計画と展開を行うには、各ホスト プールの同時ユーザーの最大数と合計ユーザー数を評価することが重要です。さらに、異なるリージョンのユーザーは、最適なユーザー エクスペリエンスを確保するために異なるホスト プールを必要とする場合があります。</t>
         </is>
       </c>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3416,7 +3381,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3424,7 +3389,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
+          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3440,17 +3405,17 @@
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>オンプレミス環境への接続にハイブリッド接続が必要かどうかを判断する</t>
+          <t>各ホスト プールの外部依存関係を評価する</t>
         </is>
       </c>
       <c r="D55" s="21" t="inlineStr">
         <is>
-          <t>オンプレミス環境に接続する必要がある場合は、現在の接続オプションを評価するか、必要な接続を計画します。</t>
+          <t>AVD プールの外部のリソース(Active Directory、外部ファイル共有またはその他のストレージ、オンプレミスのサービスとリソース、VPN や ExpressRoute などのネットワーク インフラストラクチャ コンポーネント、外部サービス、サードパーティ コンポーネントなど)への依存関係を評価および確認する必要があります。これらすべてのリソースについて、AVD ホストプールからの遅延を評価し、接続を考慮する必要があります。さらに、BCDR に関する考慮事項をこれらの依存関係にも適用する必要があります。</t>
         </is>
       </c>
       <c r="E55" s="21" t="inlineStr">
@@ -3466,14 +3431,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop?toc=%2Fazure%2Fvirtual-desktop%2Ftoc.json&amp;bc=%2Fazure%2Fvirtual-desktop%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
+          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3489,22 +3454,22 @@
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>ユーザーの場所と Azure AVD インフラストラクチャの間の待機時間を評価しましたか?</t>
+          <t>使用されているユーザクライアント OS と AVD クライアントタイプを確認する</t>
         </is>
       </c>
       <c r="D56" s="21" t="inlineStr">
         <is>
-          <t>"Windows 仮想デスクトップ エクスペリエンス推定ツール" ツールを実行して、ホスト プールをデプロイするのに最適な Azure リージョンを選択します。150 ミリ秒を超える待機時間を超えると、ユーザー エクスペリエンスが最適でなくなる可能性があります。</t>
+          <t>AVDは、さまざまなプラットフォーム(ウィンドウズ、MacOS、iOS、アンドロイド)を介して接続するためのさまざまなクライアントタイプ(ファット、シン、ウェブ)を提供します。各クライアントの制限事項を確認し、可能な場合は複数のオプションを比較します。</t>
         </is>
       </c>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3515,14 +3480,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-desktop/users/connect-windows</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
+          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3538,22 +3503,22 @@
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>AVD サービスのメタデータの場所を決定する</t>
+          <t>PoC を実行して、エンドツーエンドのユーザー エクスペリエンスとネットワーク遅延の影響を検証します</t>
         </is>
       </c>
       <c r="D57" s="21" t="inlineStr">
         <is>
-          <t>AVD は、特定の地理的な場所でサービスを実行するためにのみメタデータを保存し、顧客の要件に基づいて、現在利用可能なものと適切なものを決定します。</t>
+          <t>ユーザーの場所と AVD リージョンの展開によっては、ユーザーのエクスペリエンスが最適でない場合があるため、小規模な PoC 環境でできるだけ早くテストすることが重要です。"Azure 仮想デスクトップ エクスペリエンス推定ツール" ツールを実行して、ホスト プールをデプロイするのに最適な Azure リージョンを選択します。150 ミリ秒を超える待機時間を超えると、ユーザー エクスペリエンスが最適でなくなる可能性があります。</t>
         </is>
       </c>
       <c r="E57" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3564,14 +3529,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
+          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3587,17 +3552,17 @@
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>全般</t>
+          <t>クライアントとユーザー</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>選択したリージョンの特定の VM サイズの Azure クォータと可用性を確認する</t>
+          <t>すべてのユーザー グループの RDP 設定を評価して文書化する</t>
         </is>
       </c>
       <c r="D58" s="21" t="inlineStr">
         <is>
-          <t>特定の VM SKU を確認し (特に GPU またはハイスペックの SKU が必要な場合は)、最終的には Azure NetApp Files の可用性 (使用されている場合) を確認します。</t>
+          <t>RDP 設定は、現在、ユーザー/グループごとではなく、ホスト プール レベルでのみ構成できます。ユーザー セットごとに異なる設定が必要な場合は、複数のホスト プールを作成することをお勧めします。</t>
         </is>
       </c>
       <c r="E58" s="21" t="inlineStr">
@@ -3613,14 +3578,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
+          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3641,17 +3606,17 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>選択したリージョンのアベイラビリティーゾーン (AZ) の可用性を確認する</t>
+          <t>AVD ホスト プールをデプロイする Azure リージョンを決定します。</t>
         </is>
       </c>
       <c r="D59" s="21" t="inlineStr">
         <is>
-          <t>詳細については、「BCDR 」セクションを参照してください。</t>
+          <t>AVDは非地域サービスであり、ホストプールは任意のリージョンで作成でき、最も近いフロントエンドからの自動リダイレクトが自動的に行われます。</t>
         </is>
       </c>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3662,14 +3627,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-region</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
+          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3680,22 +3645,22 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>全般</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>AVD ホスト プールに近い Azure VNET 環境に少なくとも 2 つのアクティブ ディレクトリ ドメイン コントローラー (DC) を作成します。</t>
+          <t>AVD サービスのメタデータの場所を決定する</t>
         </is>
       </c>
       <c r="D60" s="21" t="inlineStr">
         <is>
-          <t>Azure の AD DC は、AVD セッションホストにログインするユーザーのレイテンシーを短縮し、最終的には Azure NetApp Files と AD 統合のレイテンシーを削減するために推奨されます。ADCは、すべての子ドメインのDCと通信できる必要があります。別の方法として、オンプレミス接続を使用して AD DC に到達する必要があります。</t>
+          <t>AVD は、サービスをサポートするためにメタデータを保存する必要があります。これは、指定された地域に格納されます。ただし、これはホスト プールが配置されているリージョンとは無関係です。</t>
         </is>
       </c>
       <c r="E60" s="21" t="inlineStr">
@@ -3711,14 +3676,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
+          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3729,22 +3694,22 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>財団</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>全般</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>ホスト プールごとにアクティブ ディレクトリに特定の OU を作成する</t>
+          <t>選択したリージョンの特定の VM サイズと種類の Azure クォータと可用性を確認する</t>
         </is>
       </c>
       <c r="D61" s="21" t="inlineStr">
         <is>
-          <t>別の OU 階層の下にホスト プールごとに個別の OU を作成することをお勧めします。これらの OU には、AVD セッションホストのマシンアカウントが含まれます。</t>
+          <t>特定の VM SKU を確認し (特に GPU またはハイスペックの SKU が必要な場合は)、最終的には Azure NetApp Files を使用します。</t>
         </is>
       </c>
       <c r="E61" s="21" t="inlineStr">
@@ -3760,14 +3725,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
+          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3788,12 +3753,12 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>OU に適用され、ホスト プール VM の機能に影響を与えるドメイン GPO を確認する</t>
+          <t>AVD ホスト プールに近い Azure VNet 環境に少なくとも 2 つのアクティブ ディレクトリ ドメイン コントローラー (DC) を作成する</t>
         </is>
       </c>
       <c r="D62" s="21" t="inlineStr">
         <is>
-          <t>慎重に確認し、最終的に AVD ホストプールを含む OU への GPO の継承をブロック/フィルタリングします。</t>
+          <t>AVD セッションホストにログインするユーザーのレイテンシーを短縮し、最終的には Azure NetApp Files と AD 統合のために、Azure の AD DC (異なる AZ に少なくとも 2 つ)することをお勧めします。DC は、すべての子ドメインの DC と通信できる必要があります。別の方法として、オンプレミス接続を使用して AD DC に到達する必要があります。</t>
         </is>
       </c>
       <c r="E62" s="21" t="inlineStr">
@@ -3809,14 +3774,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>7126504b-b47a-4393-a080-327294798b15</t>
+          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3837,12 +3802,12 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>VM をドメインに参加させるためのアクセス許可のみを持つ専用ユーザー アカウントを作成する</t>
+          <t>ホスト プールごとにアクティブ ディレクトリに特定の OU を作成する</t>
         </is>
       </c>
       <c r="D63" s="21" t="inlineStr">
         <is>
-          <t>特定のアクセス許可を持つ特定の専用アカウントを持ち、既定の 10 回の参加制限がないことをお勧めします。</t>
+          <t>別の OU 階層の下にホスト プールごとに個別の OU を作成することをお勧めします。これらの OU には、AVD セッションホストのマシンアカウントが含まれます。</t>
         </is>
       </c>
       <c r="E63" s="21" t="inlineStr">
@@ -3866,7 +3831,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
+          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3887,12 +3852,12 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>各ホスト プール アプリケーション グループ (DAG または RAG) へのアクセスが許可されるユーザーのセットごとにドメイン ユーザー グループを作成します。</t>
+          <t>OU に適用され、ホスト プール セッション ホストの機能に影響を与えるドメイン GPO を確認する</t>
         </is>
       </c>
       <c r="D64" s="21" t="inlineStr">
         <is>
-          <t>ユーザーごとにアクセスを許可するのではなく、AD グループを使用し、Azure AD の ADC を使用してレプリケートします。</t>
+          <t>慎重に確認し、AVD ホストプールを含む OU への GPO の継承をブロック/フィルタリングする可能性があります。</t>
         </is>
       </c>
       <c r="E64" s="21" t="inlineStr">
@@ -3908,7 +3873,7 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
         </is>
       </c>
       <c r="I64" s="15" t="n"/>
@@ -3916,7 +3881,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
+          <t>7126504b-b47a-4393-a080-327294798b15</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3937,17 +3902,17 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Azure Files AD 統合で使用されるアカウントの組織のパスワード有効期限ポリシーを確認する</t>
+          <t>組み込みの GPO ADMX テンプレートを使用して FSLogix 設定を構成する</t>
         </is>
       </c>
       <c r="D65" s="21" t="inlineStr">
         <is>
-          <t>Azure ファイル共有と Active Directory 認証を統合する手順の一環として、ストレージ アカウント (ファイル共有) を表す AD アカウントが作成されます。コンピューター アカウントまたはサービス ログオン アカウントとして登録することを選択できます (詳細については、FAQ を参照してください)。コンピューター アカウントの場合、AD には既定のパスワードの有効期限が 30 日に設定されています。同様に、サービス ログオン アカウントには、AD ドメインまたは組織単位 (OU) に既定のパスワード有効期限が設定されている場合があります。どちらのアカウントの種類でも、AD 環境で構成されているパスワードの有効期限を確認し、パスワードの最大有効期間の前に AD アカウントのストレージ アカウント ID のパスワードを更新することを計画することをお勧めします。AD に新しい AD 組織単位 (OU) を作成し、それに応じてコンピューター アカウントまたはサービス ログオン アカウントのパスワード有効期限ポリシーを無効にすることを検討できます。</t>
+          <t>Active Directory ドメイン GPO を使用する場合は、「詳細情報」列の関連記事で参照されている組み込みの GPO ADMX テンプレートを使用して FSLogix を構成することをお勧めします。</t>
         </is>
       </c>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3958,7 +3923,7 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
+          <t>https://learn.microsoft.com/fslogix/how-to-use-group-policy-templates</t>
         </is>
       </c>
       <c r="I65" s="15" t="n"/>
@@ -3966,7 +3931,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
+          <t>2226a8e3-50a4-4ac3-8bd6-ee150553051f</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3982,22 +3947,22 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>必要条件</t>
+          <t>アクティブディレクトリ</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Azure Active Directory テナントは、少なくとも 1 つのサブスクリプションがリンクされている状態で使用可能である必要があります</t>
+          <t>VM をドメインに参加させるためのアクセス許可のみを持つ専用ユーザー アカウントを作成する</t>
         </is>
       </c>
       <c r="D66" s="21" t="inlineStr">
         <is>
-          <t>Azure サブスクリプションは、Windows Server Active Directory または Azure AD DS インスタンスを含む、または Azure AD DS インスタンスに接続されている仮想ネットワークを含む、同じ Azure AD テナントの親である必要があります。</t>
+          <t>最小限の権限を持ち、デフォルトの10回の参加制限のない特定の専用アカウントを使用することをお勧めします。詳細については、関連記事を参照してください。</t>
         </is>
       </c>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4008,14 +3973,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/prerequisites?tabs=portal#session-hosts</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
+          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -4031,22 +3996,22 @@
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>必要条件</t>
+          <t>アクティブディレクトリ</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Windows Server Active Directory フォレスト/ドメインが Azure Active Directory と同期している</t>
+          <t>各ホスト プール アプリケーション グループ (DAG または RAG) へのアクセスが許可されるユーザーのセットごとにドメイン ユーザー グループを作成します。</t>
         </is>
       </c>
       <c r="D67" s="21" t="inlineStr">
         <is>
-          <t>これは、Azure AD Connect (ハイブリッド組織の場合) または Azure AD ドメイン サービス (ハイブリッド組織またはクラウド組織の場合) を使用して構成できます。</t>
+          <t>ユーザーごとにアクセスを許可するのではなく、AD グループを使用し、Microsoft Entra ID (以前の Azure AD) の Active Directory コネクタ (ADC) を使用してレプリケートします。</t>
         </is>
       </c>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4057,7 +4022,7 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I67" s="15" t="n"/>
@@ -4065,7 +4030,7 @@
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
+          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -4081,22 +4046,22 @@
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>必要条件</t>
+          <t>アクティブディレクトリ</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Windows 仮想デスクトップに接続するためのユーザー アカウント要件を確認する</t>
+          <t>Azure Files AD 統合で使用されるアカウントの組織のパスワード有効期限ポリシーを確認する</t>
         </is>
       </c>
       <c r="D68" s="21" t="inlineStr">
         <is>
-          <t>(1) ユーザーは、Azure AD に接続されているのと同じ Active Directory から取得する必要があります。 Windows 仮想デスクトップは、B2B または MSA アカウントをサポートしていません。(2) Windows 仮想デスクトップのサブスクライブに使用する UPN は、VM が参加しているアクティブ ディレクトリ ドメインに存在する必要があります。</t>
+          <t>Azure Files Active Directory (AD) 統合を使用する場合は、構成手順の一部として、ストレージ アカウント (ファイル共有) を表す AD アカウントが作成されます。コンピューター アカウントまたはサービス ログオン アカウントとして登録することを選択できます (詳細については、FAQ を参照してください)。コンピューター アカウントの場合、AD には既定のパスワードの有効期限が 30 日に設定されています。同様に、サービス ログオン アカウントには、AD ドメインまたは組織単位 (OU) に既定のパスワード有効期限が設定されている場合があります。どちらのアカウントの種類でも、AD 環境で構成されているパスワードの有効期限を確認し、パスワードの最大有効期間の前に AD アカウントのストレージ アカウント ID のパスワードを更新することを計画することをお勧めします。AD に新しい AD 組織単位 (OU) を作成し、それに応じてコンピューター アカウントまたはサービス ログオン アカウントのパスワード有効期限ポリシーを無効にすることを検討できます。</t>
         </is>
       </c>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4107,7 +4072,7 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
         </is>
       </c>
       <c r="I68" s="15" t="n"/>
@@ -4115,7 +4080,7 @@
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
+          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4131,22 +4096,22 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>必要条件</t>
+          <t>アクティブディレクトリ</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>作成される AVD セッションホストの VM 要件を確認する</t>
+          <t>Windows Server Active Directory フォレスト/ドメインは、Microsoft Entra ID と同期している必要があります。</t>
         </is>
       </c>
       <c r="D69" s="21" t="inlineStr">
         <is>
-          <t>VM は、Standard ドメイン参加済みまたはハイブリッド AD 参加済みである必要があります。仮想マシンを Azure AD に参加させることはできません。</t>
+          <t>これは、Active Directory Connect (ADC) または Azure AD ドメイン サービス (ハイブリッド組織またはクラウド組織の場合) を使用して構成できます。Microsoft Entra ID は、Azure Active Directory (Azure AD) の新しい名前です。</t>
         </is>
       </c>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4157,7 +4122,7 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/prerequisites?tabs=portal#identity</t>
         </is>
       </c>
       <c r="I69" s="15" t="n"/>
@@ -4165,7 +4130,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>ea962a15-9394-46da-a7cc-3923266b2258</t>
+          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4181,22 +4146,22 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>必要条件</t>
+          <t>マイクロソフト エントラ ID</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>AVD に Azure Active Directory ドメイン サービス (AAD-DS) を使用する前に、制限事項を確認してください。</t>
+          <t>Microsoft Entra ID (以前の Azure AD) Kerberos 認証の Azure Files Share を Microsoft Entra ID Join シナリオ用に構成する</t>
         </is>
       </c>
       <c r="D70" s="21" t="inlineStr">
         <is>
-          <t>セルフマネージド Active Directory Domain Services、Azure Active Directory、および管理された Azure Active Directory Domain Services の比較</t>
+          <t>Azure Files が使用され、前提条件が満たされている場合は、(Microsoft Entra ID) Kerberos 認証を構成することをお勧めします。この構成により、ドメイン コントローラーへのネットワーク通信を必要とせずに、Azure AD 参加済みセッション ホストからハイブリッド ユーザー ID でアクセスできる FSLogix プロファイルを格納できます。</t>
         </is>
       </c>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4207,7 +4172,7 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
+          <t>https://learn.microsoft.com/azure/storage/files/storage-files-identity-auth-hybrid-identities-enable</t>
         </is>
       </c>
       <c r="I70" s="15" t="n"/>
@@ -4215,7 +4180,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
+          <t>e777fd5e-c5f1-4d6e-8fa9-fc210b88e338</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4226,27 +4191,27 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>必要条件</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>ホスト プールの自動スケーリング機能の要件を評価する</t>
+          <t>Microsoft Entra ID テナントは、少なくとも 1 つのサブスクリプションがリンクされている必要があります</t>
         </is>
       </c>
       <c r="D71" s="21" t="inlineStr">
         <is>
-          <t>スケーリング ツールは、セッション ホスト VM のコストを最適化したいお客様向けに、低コストの自動化オプションを提供します。スケーリング ツールを使用して、ピーク時とオフピーク時の営業時間に基づいて VM を起動および停止するようにスケジュールしたり、CPU コアあたりのセッション数に基づいて VM をスケールアウトしたり、オフピーク時に VM をスケールインしたりして、セッション ホスト VM の最小数を実行したままにすることができます。パーソナルホストプールタイプではまだ使用できないため、ホストプールごとに個別に設定することをお勧めします。</t>
+          <t>Azure サブスクリプションは、Windows Server Active Directory ドメイン サービスまたは Microsoft Entra ID ドメイン サービス インスタンスを含む、または接続されている仮想ネットワークを含む、同じ Microsoft Entra ID (以前の Azure AD) テナントの親である必要があります。</t>
         </is>
       </c>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4257,7 +4222,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/prerequisites?tabs=portal#identity</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -4265,7 +4230,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
+          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4276,27 +4241,27 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>必要条件</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>AVD に関する Azure アドバイザーの推奨事項を定期的に確認する</t>
+          <t>ID シナリオを確認して文書化する</t>
         </is>
       </c>
       <c r="D72" s="21" t="inlineStr">
         <is>
-          <t>Azure Advisor は、構成とテレメトリを分析して、一般的な問題を解決するためのパーソナライズされた推奨事項を提供します。これらの推奨事項を使用すると、信頼性、セキュリティ、オペレーショナル エクセレンス、パフォーマンス、コストに関して Azure リソースを最適化できます。</t>
+          <t>Azure 仮想デスクトップでは、選択した構成に応じてさまざまな種類の ID がサポートされています。「詳細情報」の記事に記載されているサポートされているシナリオを確認し、それに応じて「コメント」列に設計上の決定を文書化してください。重要なことに、外部 ID (B2B または B2C) はサポートされていません。https://learn.microsoft.com/en-us/azure/virtual-desktop/prerequisites?tabs=portal#supported-identity-scenarios でサポートされているシナリオの一覧も必ず確認してください。</t>
         </is>
       </c>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4307,7 +4272,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-advisor</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/authentication</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4315,7 +4280,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
+          <t>b4ce4781-7557-4a1f-8043-332ae199d44c</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4326,22 +4291,22 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>必要条件</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>ゴールデンイメージ更新管理戦略を計画する</t>
+          <t>ユーザー アカウントの種類と要件を評価する</t>
         </is>
       </c>
       <c r="D73" s="21" t="inlineStr">
         <is>
-          <t>ゴールデン イメージの更新を管理するための戦略を準備します (たとえば、セキュリティ修正プログラムの適用やイメージ内にインストールされているアプリケーションの更新など)。Azure Image Builder Service は、VM のビルドとカスタマイズを自動化するためのファースト パーティのソリューションです。ARM テンプレートを使用して新しいホストを作成し、古いホストを使用停止にすることができます。 https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool 推奨されるアプローチは、新しいプールをサイド バイ サイドで作成し、ロールバックしやすく、専用プールに使用できない ARM テンプレートを使用して VM を再デプロイして数を増やすことも実行可能なオプションです。お客様は、既存のソフトウェア配布方法を使用して、SCCM などで検討するために、再展開せずにイメージを更新することもできます。</t>
+          <t>ユーザーには、Microsoft Entra ID (以前の Azure AD) にあるアカウントが必要です。Azure Virtual Desktop のデプロイで AD DS または Azure AD ドメイン サービスも使用している場合、これらのアカウントはハイブリッド ID である必要があり、ユーザー アカウントが同期されていることを意味します。AD DS で Microsoft Entra ID を使用している場合は、AD DS と Microsoft Entra ID の間でユーザー ID データを同期するように Azure AD Connect を構成する必要があります。Azure AD Domain Services で Microsoft Entra ID を使用している場合、ユーザー アカウントは Microsoft Entra ID から Azure AD Domain Services に一方向で同期されます。この同期プロセスは自動的に行われます。AVD は、Microsoft Entra ID ネイティブ アカウントもサポートしていますが、いくつかの制限があります。外部 ID (B2B または B2C) はサポートされていません。</t>
         </is>
       </c>
       <c r="E73" s="21" t="inlineStr">
@@ -4357,7 +4322,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/prerequisites?tabs=portal#supported-identity-scenarios</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4365,7 +4330,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
+          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4376,22 +4341,22 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>必要条件</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>セッションホストのパッチ適用と更新戦略を計画する</t>
+          <t>シングル サインオン (SSO) が必要な場合は、サポートされているシナリオと前提条件を確認してください</t>
         </is>
       </c>
       <c r="D74" s="21" t="inlineStr">
         <is>
-          <t>お客様にはいくつかのオプションがあります。- Microsoft エンドポイント構成マネージャー、この記事では、Windows 10 エンタープライズ マルチセッションを実行している Windows 仮想デスクトップ ホストに更新プログラムを自動的に適用するように Microsoft エンドポイント構成マネージャーを構成する方法について説明します。 https://docs.microsoft.com/azure/virtual-desktop/configure-automatic-updates- マイクロソフト Intune : https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)- OS をサポートする第三者 - Azure Update Management (Azure Automation)、現在はクライアント OS ではサポートされていません: https://docs.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt は、パッチ適用戦略から離れ、可能であれば再イメージ化戦略に移行することをお勧めします。</t>
+          <t>AVD は、Active Directory Federation Services (AD FS) または Microsoft Entra ID(以前の Azure AD) 認証のいずれかを使用した SSO をサポートしています。後者をお勧めしますので、「詳細情報」の記事で要件と制限を確認してください。AD FS の使用は、お客様の環境にすでに存在する場合は実行可能な選択肢となる可能性があるため、AVD SSO 実装のためだけに新しい ADFS インフラストラクチャを展開することはお勧めしません。</t>
         </is>
       </c>
       <c r="E74" s="21" t="inlineStr">
@@ -4407,7 +4372,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/authentication#single-sign-on-sso</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4415,7 +4380,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
+          <t>5f9f680a-ba07-4429-bbf7-93d7071561f4</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4426,27 +4391,27 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>必要条件</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>AVD テストカナリア環境の要件を評価する</t>
+          <t>適切な AVD セッションホストドメイン参加タイプの選択</t>
         </is>
       </c>
       <c r="D75" s="21" t="inlineStr">
         <is>
-          <t>ホスト プールは、Windows 仮想デスクトップ環境内の 1 つ以上の同一の仮想マシンのコレクションです。サービス更新プログラムが最初に適用される検証ホスト プールを作成することを強くお勧めします。これにより、サービスの更新を標準環境または非検証環境に適用する前に監視できます。</t>
+          <t>VM は、Windows Active Directory (AD) ドメイン参加済み、ハイブリッド AD 参加済み、Microsoft Entra ID (以前の Azure AD) 参加済み、または Azure AD ドメイン サービスに参加している場合があります。サポートされているシナリオ、制限事項、および要件については、参照されている記事から確認してください。</t>
         </is>
       </c>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4457,7 +4422,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/prerequisites?tabs=portal#supported-identity-scenarios</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4465,7 +4430,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
+          <t>ea962a15-9394-46da-a7cc-3923266b2258</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4476,27 +4441,27 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>必要条件</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>ホスト プールの展開戦略を決定する</t>
+          <t>AVD に Azure AD ドメイン サービス (AAD-DS) を使用する前に、制限事項を確認してください。</t>
         </is>
       </c>
       <c r="D76" s="21" t="inlineStr">
         <is>
-          <t>AVD ホスト プールは、Azure ポータル、ARM テンプレート、Azure CLI ツール、Powershell、登録トークンを使用した手動 VM 作成、Terraform など、いくつかの方法でデプロイできます。自動化および CI/CD ツールによる自動デプロイをサポートするために、適切な方法を採用することが重要です。</t>
+          <t>セルフマネージド型の Windows Active Directory Domain Services、Microsoft Entra ID (旧 Azure AD)、マネージド型の Azure AD Domain Services (AAD-DS) を比較する</t>
         </is>
       </c>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4507,7 +4472,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
+          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4515,7 +4480,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
+          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4536,17 +4501,17 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>トークンの更新のために 90 日ごとに VM を定期的にオンにする</t>
+          <t>AVD 設定の構成に組み込みの管理用テンプレートを使用する</t>
         </is>
       </c>
       <c r="D77" s="21" t="inlineStr">
         <is>
-          <t>Windows 仮想デスクトップ サービス内のホスト プールに VM を登録すると、VM がアクティブになるたびに、エージェントによって VM のトークンが定期的に更新されます。登録トークンの証明書は 90 日間有効です。この 90 日間の制限のため、マシンがトークンを更新し、エージェントとサイド バイ サイド スタック コンポーネントを更新できるように、VM を 90 日ごとに 20 分間オンラインにすることをお勧めします。</t>
+          <t>AVD は、Intune および Active Directory GPO 用の管理用テンプレートを提供します。これらのテンプレートを使用すると、グラフィックス関連のデータロギング、画面キャプチャ保護、管理対象ネットワークのRDPショートパス、透かしなど、いくつかのAVD構成設定を集中的に制御できます。詳細については、「詳細情報」コラムの関連記事を参照してください。注: FSLogix には独自のテンプレートがあります。</t>
         </is>
       </c>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4557,7 +4522,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/administrative-template</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4565,7 +4530,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
+          <t>5549524b-36c0-4f1a-892b-ab3ca78f5db2</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4581,22 +4546,22 @@
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>AVD の Azure モニタリングを有効にする</t>
+          <t>AVD セッションホストの構成管理戦略の計画</t>
         </is>
       </c>
       <c r="D78" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor for Windows Virtual Desktop は、Azure Monitor ブック上に構築されたダッシュボードであり、IT プロフェッショナルが Windows 仮想デスクトップ環境を理解するのに役立ちます。Windows 仮想デスクトップ環境を監視するように Windows 仮想デスクトップ用 Azure Monitor を設定する方法については、参照先の記事をお読みください。</t>
+          <t>初期展開後にホスト プール VM の構成を管理するための構成管理ツールが既に配置されているかどうかを確認します (SCCM/SCOM、Intune/ConfigurationManager、第 3 パーティのソリューションなど)。</t>
         </is>
       </c>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4607,7 +4572,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-monitor</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/management</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4615,7 +4580,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
+          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4631,17 +4596,17 @@
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>ワークスペース、ホスト プール、アプリケーション グループ、ホスト VM の診断設定を有効にして Log Analytics ワークスペースにリダイレクトする</t>
+          <t>AVD セッション ホスト管理のための Intune の評価</t>
         </is>
       </c>
       <c r="D79" s="21" t="inlineStr">
         <is>
-          <t>Windows Virtual Desktop では、他の多くの Azure サービスと同様に、監視とアラートに Azure Monitor と Log Analytics を使用します。これにより、管理者は単一のインターフェイスから問題を特定できます。このサービスは、ユーザー操作と管理者操作の両方のアクティビティ ログを作成します。 各アクティビティ ログは、管理、フィード、接続、ホスト登録、エラー、チェックポイントのカテゴリに分類されます。</t>
+          <t>要件を満たすことができる場合は、Microsoft Intune を使用して Azure 仮想デスクトップ環境を管理することをお勧めします。AVD セッション ホスト管理用に Intune を有効にするためのサポートされているシナリオと要件については、「詳細情報」列の参照記事を参照してください。[コメント] 列に選択内容を記入します。この記事では、シングルセッション https://learn.microsoft.com/en-us/mem/intune/fundamentals/windows-virtual-desktop とマルチセッション https://learn.microsoft.com/en-us/mem/intune/fundamentals/windows-virtual-desktop-multi-session AVD のさまざまな要件と機能を確認します。</t>
         </is>
       </c>
       <c r="E79" s="21" t="inlineStr">
@@ -4657,7 +4622,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
+          <t>https://learn.microsoft.com/mem/intune/fundamentals/azure-virtual-desktop</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4665,7 +4630,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
+          <t>63a08be1-6004-4b4a-a79b-f3239faae113</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4681,17 +4646,17 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>プロファイルストレージにアラートを作成して、使用率とスロットリングが高い場合にアラートを受け取る</t>
+          <t>ホスト プールの自動スケーリング機能の要件を評価する</t>
         </is>
       </c>
       <c r="D80" s="21" t="inlineStr">
         <is>
-          <t>参照されている記事と、ストレージの適切な監視とアラートを設定するには、次の追加の記事を参照してください。 https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance。</t>
+          <t>スケーリング ツールは、セッション ホスト VM のコストを最適化したいお客様向けに、低コストの自動化オプションを提供します。スケーリング ツールを使用して、ピーク時とオフピーク時の営業時間に基づいて VM を起動および停止するようにスケジュールしたり、CPU コアあたりのセッション数に基づいて VM をスケールアウトしたり、オフピーク時に VM をスケールインしたりして、セッション ホスト VM の最小数を実行したままにすることができます。パーソナルホストプールタイプではまだ使用できません。</t>
         </is>
       </c>
       <c r="E80" s="21" t="inlineStr">
@@ -4707,7 +4672,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/autoscale-scenarios</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4715,7 +4680,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
+          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4731,22 +4696,22 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>AVD アラートの Azure サービス正常性を構成する</t>
+          <t>個人用ホスト プールの接続時に VM を起動する の使用を検討する</t>
         </is>
       </c>
       <c r="D81" s="21" t="inlineStr">
         <is>
-          <t>Azure サービス正常性を使用して、Windows 仮想デスクトップのサービスの問題と正常性アドバイザリを監視できます。Azure Service Health では、さまざまな種類のアラート (電子メールや SMS など) で通知し、問題の影響を理解し、問題の解決時に最新情報を入手できます。</t>
+          <t>VM On Connect を起動すると、エンド ユーザーが必要なときにのみセッション ホスト仮想マシン (VM) をオンにできるようにすることで、コストを削減できます。その後、不要なときに VM をオフにすることができます。Azure ポータルまたは PowerShell を使用して、個人用またはプールされたホスト プールに対して接続時に VM を起動するように構成できます。[接続時に VM を起動する] は、ホスト プール全体の設定です。</t>
         </is>
       </c>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4757,7 +4722,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/start-virtual-machine-connect</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4765,7 +4730,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
+          <t>55f612fe-f215-4f0d-a956-10e7dd96bcbc</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4776,27 +4741,27 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>オンプレミス環境のハイブリッド接続アーキテクチャを確認する</t>
+          <t>パーソナル AVD セッションホストをシャットダウンするアドホックメカニズムの実装を評価する</t>
         </is>
       </c>
       <c r="D82" s="21" t="inlineStr">
         <is>
-          <t>どのタイプのハイブリッド接続ですか?エクスプレスルート、VPN、NVA?</t>
+          <t>「接続時にVMを起動する」は、以前に停止したセッションホストを自動的に起動するスマートな方法を提供しますが、使用されていないときにシャットダウンするメカニズムは提供しません。管理者は、追加のポリシーを構成してユーザーをセッションからサインアウトし、Azure 自動化スクリプトを実行して VM の割り当てを解除することをお勧めします。 Azure VM の割り当てを解除できないため、ユーザーは個人用ホストをシャットダウンできないようにする必要があります。</t>
         </is>
       </c>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4807,7 +4772,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/start-virtual-machine-connect-faq#are-vms-automatically-deallocated-when-a-user-stops-using-them</t>
         </is>
       </c>
       <c r="I82" s="15" t="n"/>
@@ -4815,7 +4780,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
+          <t>79a686ea-d971-4ea0-a9a8-1aea074c94cb</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4826,27 +4791,27 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>ユーザーが AVD ホストプールからオンプレミスにアクセスする必要があるリソースを評価する</t>
+          <t>Azure 仮想デスクトップ用に推奨される Azure タグを確認して採用する</t>
         </is>
       </c>
       <c r="D83" s="21" t="inlineStr">
         <is>
-          <t>帯域幅の要件を評価し、VPN/ER 帯域幅が十分であり、待機時間が許容できることを確認します。</t>
+          <t>Azure Virtual Desktop の課金は、主にホスト プールによって消費されるコンピューティング、ネットワーク、およびストレージ リソースに関連するコストに基づきます。これに加えて、コストは、VPN や ExpressRoute や vWAN、Active Directory ドメイン コントローラー、DNS などの依存リソースによって生成される可能性があります。ワークスペース、ホストプール、アプリケーショングループなどの AVD オブジェクトに関連する直接コストはありません。AVD に関連するコストをより明確にし、ホスト プールごとにグループ化するには、「cm-resource-parent」タグを使用することをお勧めします。</t>
         </is>
       </c>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4857,7 +4822,7 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/tag-virtual-desktop-resources</t>
         </is>
       </c>
       <c r="I83" s="15" t="n"/>
@@ -4865,7 +4830,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
+          <t>51bcafca-476a-48fa-9b91-9645a7679f20</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4876,27 +4841,27 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>AVD サービスのランディングゾーンネットワーキングトポロジの確認</t>
+          <t>AVD に関する Azure アドバイザーの推奨事項を定期的に確認する</t>
         </is>
       </c>
       <c r="D84" s="21" t="inlineStr">
         <is>
-          <t>CAF に基づいて AVD ホストプールを配置する場所をレビューまたは推奨する(vWAN vs. ハブ&amp;スポーク)</t>
+          <t>Azure Advisor は、構成とテレメトリを分析して、一般的な問題を解決するためのパーソナライズされた推奨事項を提供します。これらの推奨事項を使用すると、信頼性、セキュリティ、オペレーショナル エクセレンス、パフォーマンス、コストに関して Azure リソースを最適化できます。</t>
         </is>
       </c>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4907,7 +4872,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/azure-advisor-recommendations</t>
         </is>
       </c>
       <c r="I84" s="15" t="n"/>
@@ -4915,7 +4880,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
+          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4926,22 +4891,22 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>複数のホスト プールの VNET とサブネットの配置を評価する</t>
+          <t>セッションホストの緊急パッチ適用と更新戦略を計画する</t>
         </is>
       </c>
       <c r="D85" s="21" t="inlineStr">
         <is>
-          <t>各サブネットに AVD ホストプールをスケーリングするのに十分なスペースがあることを確認します。ホスト プールが異なる場合は、可能であれば個別のサブネットを使用することをお勧めします。</t>
+          <t>お客様にはいくつかのオプションがあります。 Microsoft 構成マネージャー、この記事では、Windows 10/11: https://learn.microsoft.com/en-us/azure/virtual-desktop/configure-automatic-updates、Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session、Azure Update Management、および Windows Server OS のみの WSUS を実行している Azure 仮想デスクトップ セッション ホストに更新プログラムを自動的に適用する方法について説明します (クライアント OS はサポートされていません)。 https://learn.microsoft.com/en-us/azure/automation/update-management/operating-system-requirements)、第三者のツール。緊急のセキュリティパッチ適用状況以外では、「インプレース」更新戦略パッチ適用戦略から離れ、再イメージングアプローチを採用することをお勧めします。</t>
         </is>
       </c>
       <c r="E85" s="21" t="inlineStr">
@@ -4957,7 +4922,7 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/mem/intune/fundamentals/azure-virtual-desktop-multi-session</t>
         </is>
       </c>
       <c r="I85" s="15" t="n"/>
@@ -4965,7 +4930,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
+          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4976,27 +4941,27 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>AVD ホストのインターネットアウトバウンドトラフィックを制御/制限する必要がありますか?</t>
+          <t>スケジュールされたエージェント更新機能の構成</t>
         </is>
       </c>
       <c r="D86" s="21" t="inlineStr">
         <is>
-          <t>いくつかのオプションを使用できます。Azure Firewall または NVA ファイアウォール、NSG、プロキシを使用できます。NSG では、URL による有効化/無効化はできず、ポートとプロトコルのみが可能です。プロキシは、ユーザーブラウザの明示的な設定としてのみ使用する必要があります。AVD での Azure Firewall Premium の使用の詳細については、こちら https://aka.ms/AVDfirewall と こちら https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop を参照してください。AVD URL アクセスの要件の完全なリストを確認してください。</t>
+          <t>スケジュールされたエージェントアップデート機能を使用すると、ホストプールごとに最大 2 つのメンテナンスウィンドウを作成して、都合の良いときに AVD コンポーネントを更新できます。メンテナンスウィンドウを指定すると、セッションホストのアップグレードは営業時間のピーク時に行われません。スケジュールされたエージェントのアップデートは、デフォルトでは無効になっています。つまり、この設定を有効にしない限り、エージェント更新フライティングサービスによってエージェントをいつでも更新できます。</t>
         </is>
       </c>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5007,7 +4972,7 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://aka.ms/AVDfirewall</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/scheduled-agent-updates</t>
         </is>
       </c>
       <c r="I86" s="15" t="n"/>
@@ -5015,7 +4980,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
+          <t>c067939b-e5ca-4698-b9ce-3bd91843e73f</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -5026,22 +4991,22 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>AVD ホスト上のユーザに対してのみインターネットアウトバウンドトラフィックを制御/制限する必要がありますか?</t>
+          <t>検証 (カナリア) ホスト プールを作成する</t>
         </is>
       </c>
       <c r="D87" s="21" t="inlineStr">
         <is>
-          <t>Azure Defender エンドポイントを使用してユーザーの Web ナビゲーションを制御することを検討してください。詳細については、「セキュリティ」セクションを参照してください。</t>
+          <t>ホスト プールは、Azure 仮想デスクトップ環境内の 1 つ以上の同一の仮想マシンのコレクションです。サービス更新プログラムが最初に適用される検証ホスト プールを作成することを強くお勧めします。これにより、サービスの更新を標準環境または非検証環境に適用する前に監視できます。</t>
         </is>
       </c>
       <c r="E87" s="21" t="inlineStr">
@@ -5057,7 +5022,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
         </is>
       </c>
       <c r="I87" s="15" t="n"/>
@@ -5065,7 +5030,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
+          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -5076,27 +5041,27 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>AVD ホストプールサブネットの UDR の確認</t>
+          <t>ホスト プールの展開戦略を決定する</t>
         </is>
       </c>
       <c r="D88" s="21" t="inlineStr">
         <is>
-          <t>カスタム UDR は、たとえば Azure ファイアウォールや NVA にリダイレクトするために、AVD ホスト プール サブネットに適用できます。この場合、AVD コントロールプレーンへのアウトバウンドトラフィックの最適なパスが使用されていることを慎重に確認することをお勧めします。サービスタグを UDR で使用できるようになり、AVD 管理プレーントラフィックを簡単にホワイトリストに登録できるようになりました。https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop</t>
+          <t>AVD ホスト プールは、Azure ポータル、ARM テンプレート、Azure CLI ツール、Powershell、登録トークンを使用した手動 VM 作成、Terraform、3 番目のパーティ製ツールなど、いくつかの方法で展開できます。自動化および CI/CD ツールによる自動デプロイをサポートするために、適切な方法を採用することが重要です。</t>
         </is>
       </c>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5107,7 +5072,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/wvd/eslz-platform-automation-and-devops</t>
         </is>
       </c>
       <c r="I88" s="15" t="n"/>
@@ -5115,7 +5080,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
+          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -5126,27 +5091,27 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>AVD コントロールプレーンエンドポイントにアクセスできることを確認する</t>
+          <t>トークンの更新のために少なくとも 90 日ごとにセッション ホスト VM をオンにする</t>
         </is>
       </c>
       <c r="D89" s="21" t="inlineStr">
         <is>
-          <t>セッションホストによる AVD コントロールプレーンアクセスに必要な URL については、次の https://docs.microsoft.com/azure/virtual-desktop/safe-url-list を参照してください。セッション ホストからの接続を確認するためのチェック ツールを使用できます。 https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool。</t>
+          <t>Azure Virtual Desktop サービス内のホスト プールに VM を登録すると、VM がアクティブになるたびに、エージェントによって VM のトークンが定期的に更新されます。登録トークンの証明書は 90 日間有効です。この 90 日間の制限のため、マシンがトークンを更新し、エージェントとサイド バイ サイド スタック コンポーネントを更新できるように、VM を 90 日ごとに 20 分間オンラインにすることをお勧めします。</t>
         </is>
       </c>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5157,7 +5122,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I89" s="15" t="n"/>
@@ -5165,7 +5130,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
+          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5176,27 +5141,27 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>VM SKU の各ユーザーおよび合計に必要なネットワーク帯域幅を確認する</t>
+          <t>AVD のモニタリングを有効にする</t>
         </is>
       </c>
       <c r="D90" s="21" t="inlineStr">
         <is>
-          <t>特定のワークロードの種類に基づいて、ユーザーのネットワーク帯域幅要件を評価および確認することをお勧めします。参照されている記事は一般的な見積もりと推奨事項を提供しますが、適切なサイズ設定には特定の手段が必要です。</t>
+          <t>Azure Virtual Desktop Insights は、Azure Monitor ブック上に構築されたダッシュボードであり、IT プロフェッショナルが Azure Virtual Desktop 環境を理解するのに役立ちます。AVD 環境を監視するように Azure 仮想デスクトップ用 Azure Monitor を設定する方法については、参照されている記事をお読みください。</t>
         </is>
       </c>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5207,7 +5172,7 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/insights</t>
         </is>
       </c>
       <c r="I90" s="15" t="n"/>
@@ -5215,7 +5180,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
+          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5226,22 +5191,22 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>ホスト構成</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>AVD ユーザーが AVD ホストのローカル管理者権限を持たないようにします。</t>
+          <t>ワークスペース、ホスト プール、アプリケーション グループ、および Log Analytics ワークスペースへのホスト VM の診断設定を有効にする</t>
         </is>
       </c>
       <c r="D91" s="21" t="inlineStr">
         <is>
-          <t>仮想デスクトップへの管理者アクセス権をユーザーに付与しないことをお勧めします。ソフトウェア パッケージが必要な場合は、Microsoft エンドポイント マネージャーなどの構成管理ユーティリティを使用して使用できるようにすることをお勧めします。マルチセッション環境では、ユーザーがソフトウェアを直接インストールできないようにすることをお勧めします。</t>
+          <t>Azure Virtual Desktop では、他の多くの Azure サービスと同様に、監視とアラートに Azure Monitor と Log Analytics が使用されます。これにより、管理者は単一のインターフェイスから問題を特定できます。このサービスは、ユーザー操作と管理者操作の両方のアクティビティ ログを作成します。 各アクティビティ ログは、管理、フィード、接続、ホスト登録、エラー、チェックポイントのカテゴリに分類されます。</t>
         </is>
       </c>
       <c r="E91" s="21" t="inlineStr">
@@ -5257,7 +5222,7 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
         </is>
       </c>
       <c r="I91" s="15" t="n"/>
@@ -5265,7 +5230,7 @@
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
+          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5276,27 +5241,27 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>ホスト構成</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>ウイルス対策およびマルウェア対策ソリューションが使用されていることを確認します</t>
+          <t>プロファイルストレージにアラートを作成して、使用率とスロットリングが高い場合にアラートを受け取る</t>
         </is>
       </c>
       <c r="D92" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Endpoint は、Windows Virtual Desktop for Windows 10 Enterprise Multi-session をサポートするようになりました。非永続的な仮想デスクトップ インフラストラクチャ (VDI) デバイスのオンボードに関する記事を確認してください: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
+          <t>参照されている記事と、ストレージの適切な監視とアラートを設定するには、次の追加の記事を参照してください。 https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance。</t>
         </is>
       </c>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5307,7 +5272,7 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I92" s="15" t="n"/>
@@ -5315,7 +5280,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
+          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5326,27 +5291,27 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>監視と管理</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>ホスト構成</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>適切なAV除外が実施されていることを確認する</t>
+          <t>AVD アラートの Azure サービス正常性を構成する</t>
         </is>
       </c>
       <c r="D93" s="21" t="inlineStr">
         <is>
-          <t>次の除外が設定されていることを確認してください: https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix#antivirus-exclusions .</t>
+          <t>Azure サービス正常性を使用して、Azure 仮想デスクトップのサービスの問題と正常性アドバイザリを監視できます。Azure Service Health では、さまざまな種類のアラート (電子メールや SMS など) で通知し、問題の影響を理解し、問題の解決時に最新情報を入手できます。</t>
         </is>
       </c>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5357,7 +5322,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -5365,7 +5330,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
+          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5376,27 +5341,27 @@
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>ホスト構成</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>AVD ホストのディスク暗号化要件を評価する</t>
+          <t>オンプレミス環境への接続にハイブリッド接続が必要かどうかを判断する</t>
         </is>
       </c>
       <c r="D94" s="21" t="inlineStr">
         <is>
-          <t>Azure のディスクは、既定では Microsoft マネージド キーを使用して保存時に既に暗号化されています。ホスト VM OS ディスクの暗号化は、ADE と DES を使用して可能であり、サポートされています: 賢明で永続的なユーザー データはセッション ホスト ディスクに格納せず、コンプライアンス上の理由で厳密に必要な場合にのみ使用する必要があります。Azure Files を使用した FSLogix ストレージの暗号化は、Azure Storage 上の SSE を使用して実行できます。OneDrive の暗号化については、次の記事を参照してください https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services。</t>
+          <t>オンプレミス環境に接続する必要がある場合は、現在の接続オプションを評価するか、必要な接続 (ExpressRoute、Azure S2S、または第 3 パーティの NVA VPN) を計画します。</t>
         </is>
       </c>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5407,7 +5372,7 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I94" s="15" t="n"/>
@@ -5415,7 +5380,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
+          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5426,22 +5391,22 @@
     <row r="95" ht="16.5" customHeight="1">
       <c r="A95" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>ホスト構成</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>AVD セッションホストからのユーザーのインターネットナビゲーションを制御/制限する必要がありますか?</t>
+          <t>各 AVD ホスト プールの Azure 仮想ネットワーク (VNet) の配置を決定する</t>
         </is>
       </c>
       <c r="D95" s="21" t="inlineStr">
         <is>
-          <t>Azure Defender エンドポイントを使用してユーザーの Web ナビゲーションを制御することを検討してください。</t>
+          <t>AVD ホスト プールは、Azure Virtual WAN または従来の「ハブ&amp;スポーク」ネットワーク トポロジのいずれかにデプロイできます。各ホスト プールを個別の "スポーク" VNet にデプロイすることをお勧めしますが、"hub" を使用することはお勧めしません。</t>
         </is>
       </c>
       <c r="E95" s="21" t="inlineStr">
@@ -5457,7 +5422,7 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/wvd/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I95" s="15" t="n"/>
@@ -5465,7 +5430,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
+          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5476,22 +5441,22 @@
     <row r="96" ht="16.5" customHeight="1">
       <c r="A96" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>AVD セッションホストに対する Azure セキュリティ センター(ASC)の使用状況を評価する</t>
+          <t>AVD ホストプールから必要なオンプレミスリソースを評価する</t>
         </is>
       </c>
       <c r="D96" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション、仮想マシン、キー コンテナー、ストレージ アカウントに対して Azure セキュリティ センター Standard を有効にすることをお勧めします。Azure Security Center Standard を使用すると、脆弱性の評価と管理、PCI などの一般的なフレームワークへの準拠の評価、AVD 環境の全体的なセキュリティの強化が可能になります。</t>
+          <t>帯域幅要件を評価し、VPN/ER帯域幅が十分であることを確認し、適切なルーティングとファイアウォールルールが設定されていることを確認し、エンドツーエンドの遅延をテストします。</t>
         </is>
       </c>
       <c r="E96" s="21" t="inlineStr">
@@ -5507,7 +5472,7 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I96" s="15" t="n"/>
@@ -5515,7 +5480,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
+          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5526,22 +5491,22 @@
     <row r="97" ht="16.5" customHeight="1">
       <c r="A97" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>アクティブ ディレクトリ GPO を確認して RDP セッションをセキュリティで保護する</t>
+          <t>AVD ホストのインターネットアウトバウンドトラフィックを制御/制限する必要がありますか?</t>
         </is>
       </c>
       <c r="D97" s="21" t="inlineStr">
         <is>
-          <t>たとえば、デスクトップのロックアウトやアイドル状態のセッション終了を課すために使用する必要があります。オンプレミス環境に適用されている既存の GPO を確認し、最終的には AVD ホストもセキュリティで保護するために適用する必要があります。</t>
+          <t>いくつかのオプションを使用できます。Azure Firewall または同等のサードパーティの NVA、ネットワーク セキュリティ グループ (NSG)、プロキシ サーバーを使用できます。NSG では、URL による有効化/無効化はできず、ポートとプロトコルのみが可能です。プロキシは、ユーザーブラウザの明示的な設定としてのみ使用する必要があります。AVD での Azure Firewall Premium の使用の詳細については、関連記事の「詳細情報」列で報告されています。必要な AVD URL への適切なアクセスを許可してください。オンプレミスへの強制トンネリングは推奨されません。</t>
         </is>
       </c>
       <c r="E97" s="21" t="inlineStr">
@@ -5557,7 +5522,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t xml:space="preserve"> https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I97" s="15" t="n"/>
@@ -5565,7 +5530,7 @@
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
+          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5576,27 +5541,27 @@
     <row r="98" ht="16.5" customHeight="1">
       <c r="A98" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>AVD ユーザーの MFA の使用を評価する</t>
+          <t>AVD コントロールプレーンエンドポイントにアクセスできることを確認する</t>
         </is>
       </c>
       <c r="D98" s="21" t="inlineStr">
         <is>
-          <t>詳細と分析情報については、次の記事を参照してください。 https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
+          <t>セッションホストによる AVD コントロールプレーンアクセスに必要な URL については、次の https://docs.microsoft.com/azure/virtual-desktop/safe-url-list を参照してください。セッション ホストからの接続を確認するためのチェック ツールを使用できます。 https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool。オンプレミスへの強制トンネリングは推奨されません。</t>
         </is>
       </c>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5607,7 +5572,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
         </is>
       </c>
       <c r="I98" s="15" t="n"/>
@@ -5615,7 +5580,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
+          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5626,27 +5591,27 @@
     <row r="99" ht="16.5" customHeight="1">
       <c r="A99" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>ユーザーの条件付きアクセスの使用状況を評価する</t>
+          <t>AVD ホスト上のユーザに対してのみインターネットアウトバウンドトラフィックを制御/制限する必要がありますか?</t>
         </is>
       </c>
       <c r="D99" s="21" t="inlineStr">
         <is>
-          <t>条件付きアクセスを有効にすると、Windows 仮想デスクトップ環境へのアクセス権をユーザーに付与する前にリスクを管理できます。アクセスを許可するユーザーを決定するときは、ユーザーが誰であるか、サインインする方法、使用しているデバイスも考慮することをお勧めします。</t>
+          <t>Azure Defender エンドポイントまたは同様の第三者エージェントを使用してユーザーの Web ナビゲーションを制御することを検討してください。詳細については、「セキュリティ」セクションを参照してください。</t>
         </is>
       </c>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5657,7 +5622,7 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/onboard-windows-multi-session-device?view=o365-worldwide</t>
         </is>
       </c>
       <c r="I99" s="15" t="n"/>
@@ -5665,7 +5630,7 @@
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
+          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5676,27 +5641,27 @@
     <row r="100" ht="16.5" customHeight="1">
       <c r="A100" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>中央の Log Analytics ワークスペースへの診断ログと監査ログを有効にする</t>
+          <t>AVD ホストプールサブネットのカスタム UDR および NSG を確認する</t>
         </is>
       </c>
       <c r="D100" s="21" t="inlineStr">
         <is>
-          <t>監査ログの収集を有効にすると、Windows 仮想デスクトップに関連するユーザーと管理者のアクティビティを表示できます。これは、AVD 監視ツールを取得して使用するための要件でもあります。有効にすることを強くお勧めします。</t>
+          <t>カスタム UDR と NSG は、Azure ファイアウォールや NVA へのリダイレクトや、ネットワーク トラフィックのフィルター処理/ブロックなど、AVD ホスト プール サブネットに適用できます。この場合、AVD コントロールプレーンへのアウトバウンドトラフィックの最適なパスが使用されていることを慎重に確認することをお勧めします。サービスタグをUDRおよびNSGで使用できるようになり、AVD管理プレーントラフィックを簡単に許可できるようになりました https://learn.microsoft.com/en-us/azure/virtual-desktop/safe-url-list。</t>
         </is>
       </c>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5707,7 +5672,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I100" s="15" t="n"/>
@@ -5715,7 +5680,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
+          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5726,27 +5691,27 @@
     <row r="101" ht="16.5" customHeight="1">
       <c r="A101" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>AVD 管理にカスタム RBAC ロールを使用する要件を評価する</t>
+          <t>AVD コントロールプレーントラフィックにプロキシサーバ、SSL ターミネーション、ディープパケットインスペクションを使用しないでください</t>
         </is>
       </c>
       <c r="D101" s="21" t="inlineStr">
         <is>
-          <t>AVD は、Azure ロールベースのアクセス制御(RBAC)を使用して、ユーザーと管理者にロールを割り当てます。これらのロールは、管理者に特定のタスクを実行する権限を付与します。職務の分離が必要な場合、Windows Virtual Desktop には、ホスト プール、アプリ グループ、およびワークスペースの管理役割を分離できる追加の役割があります。この分離により、管理タスクをよりきめ細かく制御できます。これらのロールには、Azure の標準ロールと最小特権の方法論に準拠した名前が付けられています。</t>
+          <t>AVD セッションホスト VM から AVD コントロールプレーンへのネットワークトラフィックは、可能な限り直接的にする必要があります。ディープパケットインスペクションやSSLターミネーションを使用してプロキシまたはファイアウォールを介してこのトラフィックをリダイレクトすると、深刻な問題やカスタマーエクスペリエンスの低下を引き起こす可能性があります。AVD コントロールプレーンのためだけにプロキシとファイアウォールをバイパスすることを推奨します。代わりに、Webサーフィンを行うユーザー生成トラフィックは、ファイアウォールによってフィルタリングされるか、プロキシにリダイレクトされる必要があります。詳細とガイドラインについては、[詳細情報] 列の関連記事をご覧ください。</t>
         </is>
       </c>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5757,7 +5722,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/proxy-server-support</t>
         </is>
       </c>
       <c r="I101" s="15" t="n"/>
@@ -5765,7 +5730,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
+          <t>cc6edca0-aeca-4566-9e92-cf246f1465af</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5776,27 +5741,27 @@
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>AVD 環境に関するすべてのセキュリティのベストプラクティスを確認する</t>
+          <t>VM SKU の各ユーザーおよび合計に必要なネットワーク帯域幅を確認する</t>
         </is>
       </c>
       <c r="D102" s="21" t="inlineStr">
         <is>
-          <t>セキュリティのベストプラクティスと推奨事項の包括的なセットは、参照記事に含まれているため、確認することをお勧めします。</t>
+          <t>特定のワークロードの種類に基づいて、ユーザーのネットワーク帯域幅要件を評価および確認することをお勧めします。参照されている記事は一般的な見積もりと推奨事項を提供しますが、適切なサイズ設定には特定の手段が必要です。</t>
         </is>
       </c>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5807,7 +5772,7 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/rdp-bandwidth</t>
         </is>
       </c>
       <c r="I102" s="15" t="n"/>
@@ -5815,7 +5780,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
+          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5826,27 +5791,27 @@
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="21" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>FSLogix プロファイルおよびオフィス コンテナーに使用するストレージ バックエンド ソリューションを決定する</t>
+          <t>Azure ファイル共有のプライベート エンドポイントの使用状況を評価する</t>
         </is>
       </c>
       <c r="D103" s="21" t="inlineStr">
         <is>
-          <t>Azure NetApp Files、Azure Files、VM ベースのファイル サーバー。ファイルサーバーは推奨されません。通常、Azure Files Premium は出発点として適しています。ネットアップは通常、大規模で高パフォーマンスの環境にのみ必要です。</t>
+          <t>Azure Files SMB 共有を使用して FSLogix 経由でユーザー プロファイルを格納する場合は、ストレージへのプライベート アクセスにプライベート エンドポイント (PE) を使用することをお勧めします。AVD セッションホストは、同じ VNet 内のプライベート IP を使用してストレージにアクセスするため、別のサブネットをお勧めします。この機能には、評価が必要な追加コストがあります。PE を使用しない場合は、少なくともサービス エンドポイントをお勧めします (コストは関連付けられません)。</t>
         </is>
       </c>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5857,7 +5822,7 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://learn.microsoft.com/azure/storage/files/storage-files-networking-endpoints</t>
         </is>
       </c>
       <c r="I103" s="15" t="n"/>
@@ -5865,7 +5830,7 @@
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
+          <t>ec27d589-9178-426d-8df2-ff60020f30a6</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5876,27 +5841,27 @@
     <row r="104" ht="16.5" customHeight="1">
       <c r="A104" s="21" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>プロファイルコンテナをオフィスコンテナから分離する可能性を評価する</t>
+          <t>管理された内部ネットワークから接続するクライアントに対する RDP ShortPath の使用を評価する</t>
         </is>
       </c>
       <c r="D104" s="21" t="inlineStr">
         <is>
-          <t>Windows Virtual Desktop では、以下の「ディザスター リカバリー」セクションで説明するように、特定のビジネス継続性とディザスター リカバリー (BCDR) シナリオを計画していない限り、Office コンテナーなしでプロファイル コンテナーを使用することをお勧めします。https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
+          <t>Azure 仮想デスクトップへの接続では、TCP または UDP を使用できます。RDP ショートパスは、サポートされている Windows リモートデスクトップクライアントとセッションホスト間の直接 UDP ベースのトランスポートを確立する AVD の機能です。クライアントが内部ネットワークから AVD セッションホストへの通信経路を持っている場合(VPN の使用は推奨されません)、https://learn.microsoft.com/en-us/azure/virtual-desktop/rdp-shortpath?tabs=managed-networks#key-benefits で説明されているように、この機能はより低い遅延と最高のパフォーマンスを提供できます。</t>
         </is>
       </c>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5907,7 +5872,7 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/shortpath</t>
         </is>
       </c>
       <c r="I104" s="15" t="n"/>
@@ -5915,7 +5880,7 @@
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
+          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5926,27 +5891,27 @@
     <row r="105" ht="16.5" customHeight="1">
       <c r="A105" s="21" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>アクティブディレクトリ</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>ホスト プールの要件をサポートするための記憶域のスケーラビリティの制限を確認する</t>
+          <t>RDP セッションをセキュリティで保護するためのアクティブ ディレクトリ GPO の確認</t>
         </is>
       </c>
       <c r="D105" s="21" t="inlineStr">
         <is>
-          <t>プロファイル コンテナーのストレージ要件を見積もるための開始点として、定常状態ではユーザーあたり 10 IOPS、サインイン/サインアウト時にはユーザーあたり 50 IOPS を想定することをお勧めします。</t>
+          <t>GPO によって提供されるセキュリティ メカニズムがある場合は、使用する必要があります。たとえば、デスクトップ画面ロックとアイドルセッション切断時間を課すことができます。オンプレミス環境に適用された既存の GPO を確認し、最終的にはドメインに参加したときに AVD ホストもセキュリティで保護するためにも適用する必要があります。</t>
         </is>
       </c>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5957,7 +5922,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide#establish-maximum-inactive-time-and-disconnection-policies</t>
         </is>
       </c>
       <c r="I105" s="15" t="n"/>
@@ -5965,7 +5930,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
+          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5976,27 +5941,27 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>ホスト構成</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>NetApp Files ストレージを使用している場合は、特定のリージョンのストレージサービスの可用性を確認してください。</t>
+          <t>ウイルス対策およびマルウェア対策ソリューションが使用されていることを確認する</t>
         </is>
       </c>
       <c r="D106" s="21" t="inlineStr">
         <is>
-          <t>DRの目的で2番目のリージョンが必要な場合は、そこでネットアップの可用性も確認します。</t>
+          <t>Microsoft Defender for Endpoint は、Windows 10/11 Enterprise マルチセッション用の Azure Virtual Desktop をサポートしています。非永続的な仮想デスクトップ インフラストラクチャ (VDI) デバイスのオンボードに関する記事を確認してください: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
         </is>
       </c>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -6007,7 +5972,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/deployment-vdi-microsoft-defender-antivirus</t>
         </is>
       </c>
       <c r="I106" s="15" t="n"/>
@@ -6015,7 +5980,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
+          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -6026,27 +5991,27 @@
     <row r="107" ht="16.5" customHeight="1">
       <c r="A107" s="21" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>ホスト構成</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>最適なパフォーマンスを得るには、ストレージ ソリューションと FSLogix プロファイル コンテナーを同じデータ センターの場所に配置する必要があります。</t>
+          <t>AVD セッションホストのディスク暗号化要件を評価する</t>
         </is>
       </c>
       <c r="D107" s="21" t="inlineStr">
         <is>
-          <t>可能な限り、リージョン間のネットワーク トラフィックに関連する追加の待機時間とコストを発生させないようにします。</t>
+          <t>Azure のディスクは、既定では Microsoft マネージド キーを使用して保存時に既に暗号化されています。ホスト VM OS ディスク暗号化は、Azure ディスク暗号化 (ADE - BitLocker) とディスク暗号化セット (DES - サーバー側暗号化) を使用して可能であり、サポートされていますが、後者をお勧めします。Azure Files を使用した FSLogix ストレージの暗号化は、Azure Storage 上の SSE を使用して実行できます。OneDrive の暗号化については、次の記事を参照してください https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services。</t>
         </is>
       </c>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -6057,7 +6022,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/disk-encryption-overview</t>
         </is>
       </c>
       <c r="I107" s="15" t="n"/>
@@ -6065,7 +6030,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
+          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -6076,22 +6041,22 @@
     <row r="108" ht="16.5" customHeight="1">
       <c r="A108" s="21" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>ホスト構成</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>FSLogix の推奨されるウイルス対策除外を構成します (接続時に VHD(x) ファイルをスキャンしないことを含む)。</t>
+          <t>Azure Gen2 VM セッション ホストでの信頼された起動を有効にする</t>
         </is>
       </c>
       <c r="D108" s="21" t="inlineStr">
         <is>
-          <t>参照記事に記載されているように、FSLogix プロファイル コンテナーの仮想ハード ドライブに対して次のウイルス対策の除外を構成してください。</t>
+          <t>トラステッド起動は、ルートキット、ブート キット、カーネル レベルのマルウェアなどの攻撃ベクトルによる "スタックの最下位" の脅威から保護することを目的とした、強化されたセキュリティ機能を備えた Gen2 Azure VM です。セキュアブート、仮想TPM(vTPM)、および変更監視を有効にして活用することをお勧めします。</t>
         </is>
       </c>
       <c r="E108" s="21" t="inlineStr">
@@ -6107,7 +6072,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide#azure-virtual-desktop-support-for-trusted-launch</t>
         </is>
       </c>
       <c r="I108" s="15" t="n"/>
@@ -6115,7 +6080,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
+          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -6126,22 +6091,22 @@
     <row r="109" ht="16.5" customHeight="1">
       <c r="A109" s="21" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>ホスト構成</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>FSLogix レジストリ キーを確認し、適用するレジストリ キーを決定する</t>
+          <t>トラステッド起動を有効にしてGen2イメージを使用するのは、Windows11のシステム要件です</t>
         </is>
       </c>
       <c r="D109" s="21" t="inlineStr">
         <is>
-          <t>デフォルトの基本設定と推奨設定は次のとおりです。 https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises 基本セットについてはこちらをご覧ください。 完全な参照については、ここ https://docs.microsoft.com/fslogix/configure-profile-container-tutorialSee:https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
+          <t>トラステッド起動と Gen2 VM は、セキュリティとパフォーマンスを向上させる機能であるだけでなく、Windows 11 のシステム要件でもあります。Windows 11に基づいてAVD環境を構築する場合は、これらの機能を有効にすることが不可欠です。</t>
         </is>
       </c>
       <c r="E109" s="21" t="inlineStr">
@@ -6157,7 +6122,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/windows/whats-new/windows-11-requirements</t>
         </is>
       </c>
       <c r="I109" s="15" t="n"/>
@@ -6165,7 +6130,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
+          <t>135d3899-4b31-44d3-bc8f-028871a359d8</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6176,27 +6141,27 @@
     <row r="110" ht="16.5" customHeight="1">
       <c r="A110" s="21" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>ホスト構成</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>同じプロファイルへの同時接続または複数の接続の使用状況を確認する</t>
+          <t>機密情報がキャプチャされないように、画面キャプチャ保護を有効にすることを検討してください</t>
         </is>
       </c>
       <c r="D110" s="21" t="inlineStr">
         <is>
-          <t>同時接続または複数接続は、Windows 仮想デスクトップでは推奨されません。ベスト プラクティスは、セッションごとに異なるプロファイルの場所を (ホスト プールとして) 作成することです。</t>
+          <t>表示されたコンテンツは、スクリーンショットで自動的にブロックまたは非表示になります。画面共有を使用するTeamsやその他のコラボレーションソフトウェアを使用する場合も、画面共有がブロックされることに注意してください。</t>
         </is>
       </c>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6207,7 +6172,7 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/screen-capture-protection</t>
         </is>
       </c>
       <c r="I110" s="15" t="n"/>
@@ -6215,7 +6180,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
+          <t>a49dc137-7896-4343-b2bc-1a31bf1d30b6</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6226,27 +6191,27 @@
     <row r="111" ht="16.5" customHeight="1">
       <c r="A111" s="21" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>ホスト構成</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>ストレージのサイズ設定に関するベスト プラクティスと主な考慮事項を確認する</t>
+          <t>デバイスのリダイレクトとドライブマッピングを制限する</t>
         </is>
       </c>
       <c r="D111" s="21" t="inlineStr">
         <is>
-          <t>一般的な見積もりとして、テスト環境で検証するには、ワークロードに応じて、ユーザーごとに 5 から 15 IOPS を最初に検討する必要があります。Azure ファイル: プレミアム シェアあたり最大 100k IOPS (最大 100 TB)、および 3 ミリ秒の待機時間で最大 5 Gbps。Azure Files のプロビジョニング方法、つまり IOPS は厳密にプロビジョニングされた SIZE に関連付けられていることに注意してください。場合によってはバーストサイジング機能。十分な IOPS を確保するために、必要以上の領域を事前にプロビジョニングしてください。注: Azure Premium は、トランザクションを支払わないため、標準よりも安くなる可能性がありますが、覚えておくべき重要な詳細。Azure NetApp Files: 最大 1000 個の IP が接続され、その場で IOPS を調整でき、最小 4 TB のプロビジョニング容量を記憶してください。</t>
+          <t>絶対に必要でない場合は、リモート デスクトップ セッションでドライブ、プリンター、および USB デバイスをユーザーのローカル デバイスにリダイレクトすることを無効にするか、厳しく制限する必要があります。ローカルおよびリモートのドライブマッピングを非表示にしてWindowsエクスプローラーへのアクセスを制限することも、ユーザーがシステム構成とユーザーに関する不要な情報を発見するのを防ぐための安全な手段です。</t>
         </is>
       </c>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6257,14 +6222,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide#other-security-tips-for-session-hosts</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
+          <t>7ce2cd20-85b4-4f82-828e-6558736ede6a</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6275,22 +6240,22 @@
     <row r="112" ht="16.5" customHeight="1">
       <c r="A112" s="21" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Azure ファイルのベスト プラクティスを確認する (使用する場合)</t>
+          <t>可能な場合は、フルデスクトップ (DAG) よりもリモート アプリを優先する</t>
         </is>
       </c>
       <c r="D112" s="21" t="inlineStr">
         <is>
-          <t>参照記事で説明されているベストプラクティスと推奨事項のリストを必ず確認してください。</t>
+          <t>導入モデルを選択するときは、リモートユーザーに仮想デスクトップ全体へのアクセスを提供するか、選択したアプリケーションのみを提供できます。リモート アプリケーション (RemoteApps) は、ユーザーが仮想デスクトップ上のアプリを操作するときにシームレスなエクスペリエンスを提供します。RemoteApp は、アプリケーションによって公開されているリモート コンピューターのサブセットのみをユーザーが操作できるようにすることで、リスクを軽減します。</t>
         </is>
       </c>
       <c r="E112" s="21" t="inlineStr">
@@ -6306,7 +6271,7 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/web-protection-overview</t>
         </is>
       </c>
       <c r="I112" s="15" t="n"/>
@@ -6314,7 +6279,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
+          <t>4e25d70e-3924-44f4-b66f-d6cdd4f4a973</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6325,22 +6290,22 @@
     <row r="113" ht="16.5" customHeight="1">
       <c r="A113" s="21" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>ネットアップファイルのベストプラクティスを確認する(使用している場合)</t>
+          <t>AVD セッションホストからのユーザーのインターネットナビゲーションを制御/制限する必要がありますか?</t>
         </is>
       </c>
       <c r="D113" s="21" t="inlineStr">
         <is>
-          <t>参照記事で説明されているベストプラクティスと推奨事項のリストを必ず確認してください。</t>
+          <t>エンドポイントの Microsoft Defender の Web 保護機能によって提供される Web コンテンツ フィルター機能を使用して、ユーザーの Web ナビゲーションを制御できます。このツールを使用する場合は、ユーザーのインターネット閲覧用にWebフィルタリングを設定することをお勧めします。ゲスト OS システムによる必要な AVD コントロールプレーン URL へのアクセスを保証する必要があります。</t>
         </is>
       </c>
       <c r="E113" s="21" t="inlineStr">
@@ -6356,7 +6321,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/web-protection-overview</t>
         </is>
       </c>
       <c r="I113" s="15" t="n"/>
@@ -6364,7 +6329,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
+          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6375,22 +6340,22 @@
     <row r="114" ht="16.5" customHeight="1">
       <c r="A114" s="21" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>FSLogix で構成された最大プロファイル サイズを確認して確認する</t>
+          <t>AVD ユーザーが AVD ホストのローカル管理者権限を持たないことを確認します</t>
         </is>
       </c>
       <c r="D114" s="21" t="inlineStr">
         <is>
-          <t>プロファイルコンテナのデフォルトの最大サイズは30GBです。大きなプロファイル コンテナーが予想され、お客様がそれらを小さく保とうとする場合は、OneDrive を使用して FSLogix プロファイルの外部で Office 365 ファイルをホストすることを検討してください。</t>
+          <t>仮想デスクトップへの管理者アクセス権をユーザーに付与しないことをお勧めします。ソフトウェアパッケージが必要な場合は、構成管理ユーティリティを使用して使用できるようにすることをお勧めします。</t>
         </is>
       </c>
       <c r="E114" s="21" t="inlineStr">
@@ -6406,7 +6371,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6414,7 +6379,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
+          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6425,22 +6390,22 @@
     <row r="115" ht="16.5" customHeight="1">
       <c r="A115" s="21" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>FSLogix クラウド キャッシュを使用する場合は、キャッシュ ディレクトリを一時ドライブに移動します。</t>
+          <t>クラウド用 Microsoft Defender を有効にして AVD セッション ホストのセキュリティ体制を管理できるようにする</t>
         </is>
       </c>
       <c r="D115" s="21" t="inlineStr">
         <is>
-          <t>Cloud Cache はローカル ディスクをキャッシュとして使用するため、VM ディスクに大きな負荷がかかる可能性があります。可能であれば、VM SKU に基づいて、一時的な (およびローカルに接続された) VM ディスクの機能を活用することをお勧めします。</t>
+          <t>AVD で使用されるサブスクリプション、仮想マシン、キー コンテナー、ストレージ アカウントに対して Defender for Cloud を有効にすることをお勧めします。このツールを使用すると、脆弱性の評価と管理、PCIなどの一般的なフレームワークへのコンプライアンスの評価、AVD環境の全体的なセキュリティの強化、「セキュアスコア」を使用して経時的に測定することができます https://learn.microsoft.com/en-us/azure/virtual-desktop/security-guide#improve-your-secure-score。</t>
         </is>
       </c>
       <c r="E115" s="21" t="inlineStr">
@@ -6456,14 +6421,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide#enable-microsoft-defender-for-cloud</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
+          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6474,22 +6439,22 @@
     <row r="116" ht="16.5" customHeight="1">
       <c r="A116" s="21" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>FSLogix リダイレクトの使用法を確認します。</t>
+          <t>診断ログと監査ログを有効にする</t>
         </is>
       </c>
       <c r="D116" s="21" t="inlineStr">
         <is>
-          <t>リダイレクト.XMLファイルは、プロファイルコンテナからC:ドライブにリダイレクトされるフォルダを制御するために使用されます。除外は例外であるべきであり、除外を構成するユーザーが特定の除外を完全に理解しない限り、決して使用しないでください。除外は、実装が意図されている環境で常に完全にテストする必要があります。除外を構成すると、機能、安定性、パフォーマンスに影響を与える可能性があります。</t>
+          <t>監査ログの収集を有効にすると、Azure Virtual Desktop に関連するユーザーと管理者のアクティビティを表示し、Log Analytics ワークスペースなどの中央リポジトリに格納できます。</t>
         </is>
       </c>
       <c r="E116" s="21" t="inlineStr">
@@ -6505,14 +6470,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide#collect-audit-logs</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
+          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6523,27 +6488,27 @@
     <row r="117" ht="16.5" customHeight="1">
       <c r="A117" s="21" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Azure ネットアップ ファイル ストレージを使用する場合は、AD 接続の AD サイト名の設定を確認してください。</t>
+          <t>AVD 管理にカスタム RBAC ロールを使用する要件を評価する</t>
         </is>
       </c>
       <c r="D117" s="21" t="inlineStr">
         <is>
-          <t>ANF サブネットが作成される Azure 仮想ネットワーク環境用に Active Directory サイトを作成し、リファレンス記事で説明されているように、参加手順を実行するときにそのサイト名を ANF 接続プロパティで指定する必要があります。</t>
+          <t>管理、運用、エンジニアリングのロールを Azure RBAC ロールに定義することで、必要な最小限の特権を割り当てます。Azure 仮想デスクトップ ランディング ゾーン内の高い特権ロールへのアクセスを制限するには、Azure 特権 ID 管理 (PIM) との統合を検討してください。特定の管理領域ごとにどのチームが担当しているかを把握しておくと、Azure のロールベースのアクセス制御 (RBAC) のロールと構成を決定するのに役立ちます。</t>
         </is>
       </c>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6554,14 +6519,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-netapp-files/create-active-directory-connections</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
+          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6572,22 +6537,22 @@
     <row r="118" ht="16.5" customHeight="1">
       <c r="A118" s="21" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Premium ファイル共有を使用して FSLogix プロファイル コンテナーをホストする場合は、SMB マルチチャネルを有効にします。</t>
+          <t>承認されていないアプリケーションのインストールをユーザーに制限する</t>
         </is>
       </c>
       <c r="D118" s="21" t="inlineStr">
         <is>
-          <t>SMB マルチチャネルを使用すると、クライアントは複数のネットワーク接続を使用して、所有コストを削減しながらパフォーマンスを向上させることができます。パフォーマンスの向上は、複数の NIC に帯域幅を集約し、NIC の受信側スケーリング (RSS) サポートを利用して複数の CPU に IO 負荷を分散することで実現されます。</t>
+          <t>AVD ユーザには、アプリケーションをインストールする権限があってはなりません。必要に応じて、Windows Defender アプリケーション制御 (WDAC) を使用して、Windows クライアントでの実行を許可するドライバーとアプリケーションを制御できます。</t>
         </is>
       </c>
       <c r="E118" s="21" t="inlineStr">
@@ -6603,7 +6568,7 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/storage/files/storage-files-smb-multichannel-performance</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide#windows-defender-application-control</t>
         </is>
       </c>
       <c r="I118" s="15" t="n"/>
@@ -6611,7 +6576,7 @@
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>5784b6ca-5e9e-4bcf-8b54-c95459ea7369</t>
+          <t>b9ea80c8-0628-49fc-ae63-125aa4c0a284</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6622,22 +6587,22 @@
     <row r="119" ht="16.5" customHeight="1">
       <c r="A119" s="21" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>セッション ホスト</t>
+          <t>マイクロソフト エントラ ID</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>セッション・ホストに使用する管理対象ディスクのタイプを決定する</t>
+          <t>AVD ユーザーの多要素認証(MFA)と条件付きアクセス(CA)の使用を評価する</t>
         </is>
       </c>
       <c r="D119" s="21" t="inlineStr">
         <is>
-          <t>標準HDD、標準SSD、またはプレミアムSSD、エフェメラルディスクはサポートされておらず、ウルトラディスクは推奨されません。ユーザー密度が低くない場合、およびクラウドキャッシュを使用する場合は、OSディスクのプレミアムを評価することをお勧めします。</t>
+          <t>MFA と CA を有効にすると、ユーザーに AVD 環境へのアクセスを許可する前にリスクを管理できます。アクセスを許可するユーザーを決定するときは、ユーザーが誰であるか、サインインする方法、使用しているデバイスも考慮することをお勧めします。追加の詳細と構成手順については、関連記事を参照してください。Microsoft Entra ID は、Azure Active Directory (Azure AD) の新しい名前です。</t>
         </is>
       </c>
       <c r="E119" s="21" t="inlineStr">
@@ -6653,14 +6618,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
+          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6669,294 +6634,888 @@
       <c r="P119" s="25" t="n"/>
     </row>
     <row r="120" ht="16.5" customHeight="1">
-      <c r="A120" s="21" t="n"/>
-      <c r="B120" s="21" t="n"/>
-      <c r="C120" s="21" t="n"/>
-      <c r="D120" s="21" t="n"/>
-      <c r="E120" s="21" t="n"/>
+      <c r="A120" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="B120" s="21" t="inlineStr">
+        <is>
+          <t>ゼロトラスト</t>
+        </is>
+      </c>
+      <c r="C120" s="21" t="inlineStr">
+        <is>
+          <t>ゼロ トラストの原則とガイダンスを確認して適用する</t>
+        </is>
+      </c>
+      <c r="D120" s="21" t="inlineStr">
+        <is>
+          <t>ゼロ トラストが要件の場合は、[詳細情報] 列の関連記事を確認してください。ゼロ トラストの原則を Azure 仮想デスクトップのデプロイに適用する手順について説明します。</t>
+        </is>
+      </c>
+      <c r="E120" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G120" s="21" t="n"/>
-      <c r="H120" s="15" t="n"/>
+      <c r="H120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/zero-trust/azure-infrastructure-avd</t>
+        </is>
+      </c>
       <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
-      <c r="L120" s="25" t="n"/>
+      <c r="L120" s="25" t="inlineStr">
+        <is>
+          <t>221102d0-90af-49fc-b2b7-8d3fe397e43</t>
+        </is>
+      </c>
       <c r="M120" s="25" t="n"/>
       <c r="N120" s="25" t="n"/>
       <c r="O120" s="25" t="n"/>
       <c r="P120" s="25" t="n"/>
     </row>
     <row r="121" ht="16.5" customHeight="1">
-      <c r="A121" s="21" t="n"/>
-      <c r="B121" s="21" t="n"/>
-      <c r="C121" s="21" t="n"/>
-      <c r="D121" s="21" t="n"/>
-      <c r="E121" s="21" t="n"/>
+      <c r="A121" s="21" t="inlineStr">
+        <is>
+          <t>貯蔵</t>
+        </is>
+      </c>
+      <c r="B121" s="21" t="inlineStr">
+        <is>
+          <t>アズールファイル</t>
+        </is>
+      </c>
+      <c r="C121" s="21" t="inlineStr">
+        <is>
+          <t>Azure ファイルのベスト プラクティスを確認する</t>
+        </is>
+      </c>
+      <c r="D121" s="21" t="inlineStr">
+        <is>
+          <t>使用する場合は、参照記事で説明されているベスト プラクティスと推奨事項の一覧を確認してください。</t>
+        </is>
+      </c>
+      <c r="E121" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G121" s="21" t="n"/>
-      <c r="H121" s="15" t="n"/>
+      <c r="H121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files#best-practices-for-azure-virtual-desktop</t>
+        </is>
+      </c>
       <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
-      <c r="L121" s="25" t="n"/>
+      <c r="L121" s="25" t="inlineStr">
+        <is>
+          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
+        </is>
+      </c>
       <c r="M121" s="25" t="n"/>
       <c r="N121" s="25" t="n"/>
       <c r="O121" s="25" t="n"/>
       <c r="P121" s="25" t="n"/>
     </row>
     <row r="122" ht="16.5" customHeight="1">
-      <c r="A122" s="21" t="n"/>
-      <c r="B122" s="21" t="n"/>
-      <c r="C122" s="21" t="n"/>
-      <c r="D122" s="21" t="n"/>
-      <c r="E122" s="21" t="n"/>
+      <c r="A122" s="21" t="inlineStr">
+        <is>
+          <t>貯蔵</t>
+        </is>
+      </c>
+      <c r="B122" s="21" t="inlineStr">
+        <is>
+          <t>アズールファイル</t>
+        </is>
+      </c>
+      <c r="C122" s="21" t="inlineStr">
+        <is>
+          <t>Premium ファイル共有を使用して FSLogix プロファイル コンテナーをホストする場合は、SMB マルチチャネルを有効にします。</t>
+        </is>
+      </c>
+      <c r="D122" s="21" t="inlineStr">
+        <is>
+          <t>SMB マルチチャネルを使用すると、クライアントは複数のネットワーク接続を使用して、所有コストを削減しながらパフォーマンスを向上させることができます。パフォーマンスの向上は、複数の NIC に帯域幅を集約し、NIC の受信側スケーリング (RSS) サポートを利用して複数の CPU に IO 負荷を分散することで実現されます。</t>
+        </is>
+      </c>
+      <c r="E122" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="15" t="n"/>
+      <c r="H122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/files/storage-files-smb-multichannel-performance</t>
+        </is>
+      </c>
       <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
-      <c r="L122" s="25" t="n"/>
+      <c r="L122" s="25" t="inlineStr">
+        <is>
+          <t>5784b6ca-5e9e-4bcf-8b54-c95459ea7369</t>
+        </is>
+      </c>
       <c r="M122" s="25" t="n"/>
       <c r="N122" s="25" t="n"/>
       <c r="O122" s="25" t="n"/>
       <c r="P122" s="25" t="n"/>
     </row>
     <row r="123" ht="16.5" customHeight="1">
-      <c r="A123" s="21" t="n"/>
-      <c r="B123" s="21" t="n"/>
-      <c r="C123" s="21" t="n"/>
-      <c r="D123" s="21" t="n"/>
-      <c r="E123" s="21" t="n"/>
+      <c r="A123" s="21" t="inlineStr">
+        <is>
+          <t>貯蔵</t>
+        </is>
+      </c>
+      <c r="B123" s="21" t="inlineStr">
+        <is>
+          <t>Azure NetApp Files</t>
+        </is>
+      </c>
+      <c r="C123" s="21" t="inlineStr">
+        <is>
+          <t>NetApp Files ストレージが必要な場合は、特定のリージョンのストレージサービスの可用性を確認してください。</t>
+        </is>
+      </c>
+      <c r="D123" s="21" t="inlineStr">
+        <is>
+          <t>DRの目的で2番目のリージョンが必要な場合は、そこでもネットアップの可用性を確認します。</t>
+        </is>
+      </c>
+      <c r="E123" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G123" s="21" t="n"/>
-      <c r="H123" s="15" t="n"/>
+      <c r="H123" s="15" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+        </is>
+      </c>
       <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
-      <c r="L123" s="25" t="n"/>
+      <c r="L123" s="25" t="inlineStr">
+        <is>
+          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
+        </is>
+      </c>
       <c r="M123" s="25" t="n"/>
       <c r="N123" s="25" t="n"/>
       <c r="O123" s="25" t="n"/>
       <c r="P123" s="25" t="n"/>
     </row>
     <row r="124" ht="16.5" customHeight="1">
-      <c r="A124" s="21" t="n"/>
-      <c r="B124" s="21" t="n"/>
-      <c r="C124" s="21" t="n"/>
-      <c r="D124" s="21" t="n"/>
-      <c r="E124" s="21" t="n"/>
+      <c r="A124" s="21" t="inlineStr">
+        <is>
+          <t>貯蔵</t>
+        </is>
+      </c>
+      <c r="B124" s="21" t="inlineStr">
+        <is>
+          <t>Azure NetApp Files</t>
+        </is>
+      </c>
+      <c r="C124" s="21" t="inlineStr">
+        <is>
+          <t>NetApp Files ストレージを使用している場合は、 CA (継続的可用性)オプションを有効にして復元力を高めます</t>
+        </is>
+      </c>
+      <c r="D124" s="21" t="inlineStr">
+        <is>
+          <t>CA オプションは、セッションホストとネットアップファイル間のより回復力のある SMB セッションを可能にするため、FSLogix シナリオで推奨される設定です。</t>
+        </is>
+      </c>
+      <c r="E124" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G124" s="21" t="n"/>
-      <c r="H124" s="15" t="n"/>
+      <c r="H124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-fslogix-profile-container</t>
+        </is>
+      </c>
       <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
-      <c r="L124" s="25" t="n"/>
+      <c r="L124" s="25" t="inlineStr">
+        <is>
+          <t>a2661898-866a-4c8d-9d1f-8cfc86e88024</t>
+        </is>
+      </c>
       <c r="M124" s="25" t="n"/>
       <c r="N124" s="25" t="n"/>
       <c r="O124" s="25" t="n"/>
       <c r="P124" s="25" t="n"/>
     </row>
     <row r="125" ht="16.5" customHeight="1">
-      <c r="A125" s="21" t="n"/>
-      <c r="B125" s="21" t="n"/>
-      <c r="C125" s="21" t="n"/>
-      <c r="D125" s="21" t="n"/>
-      <c r="E125" s="21" t="n"/>
+      <c r="A125" s="21" t="inlineStr">
+        <is>
+          <t>貯蔵</t>
+        </is>
+      </c>
+      <c r="B125" s="21" t="inlineStr">
+        <is>
+          <t>Azure NetApp Files</t>
+        </is>
+      </c>
+      <c r="C125" s="21" t="inlineStr">
+        <is>
+          <t>Azure NetApp Files ストレージを使用している場合は、アクティブディレクトリ接続構成の Active Directory サイト名の設定を確認してください</t>
+        </is>
+      </c>
+      <c r="D125" s="21" t="inlineStr">
+        <is>
+          <t>Azure NetApp Files (ANF) サブネットが作成される Azure 仮想ネットワーク環境用に Active Directory サイトを作成し、リファレンス記事で説明されているように、参加手順を実行するときにそのサイト名を ANF 接続プロパティで指定する必要があります。</t>
+        </is>
+      </c>
+      <c r="E125" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G125" s="21" t="n"/>
-      <c r="H125" s="15" t="n"/>
+      <c r="H125" s="15" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-netapp-files/create-active-directory-connections</t>
+        </is>
+      </c>
       <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
-      <c r="L125" s="25" t="n"/>
+      <c r="L125" s="25" t="inlineStr">
+        <is>
+          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
+        </is>
+      </c>
       <c r="M125" s="25" t="n"/>
       <c r="N125" s="25" t="n"/>
       <c r="O125" s="25" t="n"/>
       <c r="P125" s="25" t="n"/>
     </row>
     <row r="126" ht="16.5" customHeight="1">
-      <c r="A126" s="21" t="n"/>
-      <c r="B126" s="21" t="n"/>
-      <c r="C126" s="21" t="n"/>
-      <c r="D126" s="21" t="n"/>
-      <c r="E126" s="21" t="n"/>
+      <c r="A126" s="21" t="inlineStr">
+        <is>
+          <t>貯蔵</t>
+        </is>
+      </c>
+      <c r="B126" s="21" t="inlineStr">
+        <is>
+          <t>キャパシティ プランニング</t>
+        </is>
+      </c>
+      <c r="C126" s="21" t="inlineStr">
+        <is>
+          <t>セッション・ホストに使用する管理対象ディスクのタイプを決定する</t>
+        </is>
+      </c>
+      <c r="D126" s="21" t="inlineStr">
+        <is>
+          <t>可能なオプション:標準HDD、標準SSD、またはプレミアムSSD。エフェメラルディスクはサポートされておらず、ウルトラディスクは推奨されません。ユーザー密度が低くない場合、およびクラウド キャッシュを使用する場合は、OS ディスクの Premium を評価することをお勧めします。</t>
+        </is>
+      </c>
+      <c r="E126" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G126" s="21" t="n"/>
-      <c r="H126" s="15" t="n"/>
+      <c r="H126" s="15" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+        </is>
+      </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
-      <c r="L126" s="25" t="n"/>
+      <c r="L126" s="25" t="inlineStr">
+        <is>
+          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
+        </is>
+      </c>
       <c r="M126" s="25" t="n"/>
       <c r="N126" s="25" t="n"/>
       <c r="O126" s="25" t="n"/>
       <c r="P126" s="25" t="n"/>
     </row>
     <row r="127" ht="16.5" customHeight="1">
-      <c r="A127" s="21" t="n"/>
-      <c r="B127" s="21" t="n"/>
-      <c r="C127" s="21" t="n"/>
-      <c r="D127" s="21" t="n"/>
-      <c r="E127" s="21" t="n"/>
+      <c r="A127" s="21" t="inlineStr">
+        <is>
+          <t>貯蔵</t>
+        </is>
+      </c>
+      <c r="B127" s="21" t="inlineStr">
+        <is>
+          <t>キャパシティ プランニング</t>
+        </is>
+      </c>
+      <c r="C127" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix プロファイルに使用するストレージ バックエンド ソリューションを決定する</t>
+        </is>
+      </c>
+      <c r="D127" s="21" t="inlineStr">
+        <is>
+          <t>可能なオプションは、Azure NetApp Files、Azure Files、VM ベースのファイル サーバーです。ファイルサーバー推奨されません。通常、Azure Files Premium は出発点として適しています。ネットアップは通常、大規模で高パフォーマンスの環境に必要です。詳細な比較については、「詳細情報」列の記事を参照してください。</t>
+        </is>
+      </c>
+      <c r="E127" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="n"/>
+      <c r="H127" s="15" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+        </is>
+      </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
-      <c r="L127" s="25" t="n"/>
+      <c r="L127" s="25" t="inlineStr">
+        <is>
+          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
+        </is>
+      </c>
       <c r="M127" s="25" t="n"/>
       <c r="N127" s="25" t="n"/>
       <c r="O127" s="25" t="n"/>
       <c r="P127" s="25" t="n"/>
     </row>
     <row r="128" ht="16.5" customHeight="1">
-      <c r="A128" s="21" t="n"/>
-      <c r="B128" s="21" t="n"/>
-      <c r="C128" s="21" t="n"/>
-      <c r="D128" s="21" t="n"/>
-      <c r="E128" s="21" t="n"/>
+      <c r="A128" s="21" t="inlineStr">
+        <is>
+          <t>貯蔵</t>
+        </is>
+      </c>
+      <c r="B128" s="21" t="inlineStr">
+        <is>
+          <t>キャパシティ プランニング</t>
+        </is>
+      </c>
+      <c r="C128" s="21" t="inlineStr">
+        <is>
+          <t>異なるホスト プール間でストレージとプロファイルを共有しない</t>
+        </is>
+      </c>
+      <c r="D128" s="21" t="inlineStr">
+        <is>
+          <t>すべてのホスト プールでは、ストレージ アカウント/ボリューム (少なくとも 1 つ) と共有の個別のセットを使用する必要があります。設定と構成は各ホスト プールに固有であるため、ユーザーはホスト プールごとに異なるプロファイルを持つ必要があります。さらに、異なるホスト プールに同時にアクセスすると、共有ユーザー プロファイル VHD/X でエラーが発生する可能性があります。 複数の共有に対して異なるストレージ アカウント/ボリュームを使用して、個別にスケーリングすることもお勧めします。</t>
+        </is>
+      </c>
+      <c r="E128" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="n"/>
+      <c r="H128" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+        </is>
+      </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
-      <c r="L128" s="25" t="n"/>
+      <c r="L128" s="25" t="inlineStr">
+        <is>
+          <t>2fad62bd-5004-453c-ace4-64d862e7f5a4</t>
+        </is>
+      </c>
       <c r="M128" s="25" t="n"/>
       <c r="N128" s="25" t="n"/>
       <c r="O128" s="25" t="n"/>
       <c r="P128" s="25" t="n"/>
     </row>
     <row r="129" ht="16.5" customHeight="1">
-      <c r="A129" s="21" t="n"/>
-      <c r="B129" s="21" t="n"/>
-      <c r="C129" s="21" t="n"/>
-      <c r="D129" s="21" t="n"/>
-      <c r="E129" s="21" t="n"/>
+      <c r="A129" s="21" t="inlineStr">
+        <is>
+          <t>貯蔵</t>
+        </is>
+      </c>
+      <c r="B129" s="21" t="inlineStr">
+        <is>
+          <t>キャパシティ プランニング</t>
+        </is>
+      </c>
+      <c r="C129" s="21" t="inlineStr">
+        <is>
+          <t>ストレージのスケーラビリティの制限とホスト・プールの要件を確認する</t>
+        </is>
+      </c>
+      <c r="D129" s="21" t="inlineStr">
+        <is>
+          <t>プロファイル コンテナーのストレージ要件を見積もるための開始点として、定常状態ではユーザーあたり 10 IOPS、サインイン/サインアウト時にはユーザーあたり 50 IOPS を想定することをお勧めします。領域要件は、各ホスト プールのユーザーの合計数あたりの FSLogix の最大プロファイル サイズに基づいて取得されます。必要に応じて、同じホスト プールに複数のストレージ アカウントを使用できます。</t>
+        </is>
+      </c>
+      <c r="E129" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G129" s="21" t="n"/>
-      <c r="H129" s="15" t="n"/>
+      <c r="H129" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/faq#what-s-the-largest-profile-size-fslogix-can-handle-</t>
+        </is>
+      </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
-      <c r="L129" s="25" t="n"/>
+      <c r="L129" s="25" t="inlineStr">
+        <is>
+          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
+        </is>
+      </c>
       <c r="M129" s="25" t="n"/>
       <c r="N129" s="25" t="n"/>
       <c r="O129" s="25" t="n"/>
       <c r="P129" s="25" t="n"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
-      <c r="A130" s="21" t="n"/>
-      <c r="B130" s="21" t="n"/>
-      <c r="C130" s="21" t="n"/>
-      <c r="D130" s="21" t="n"/>
-      <c r="E130" s="21" t="n"/>
+      <c r="A130" s="21" t="inlineStr">
+        <is>
+          <t>貯蔵</t>
+        </is>
+      </c>
+      <c r="B130" s="21" t="inlineStr">
+        <is>
+          <t>キャパシティ プランニング</t>
+        </is>
+      </c>
+      <c r="C130" s="21" t="inlineStr">
+        <is>
+          <t>最適なパフォーマンスを得るには、ストレージ ソリューションと FSLogix プロファイル コンテナーを同じ Azure リージョンに配置する必要があります。</t>
+        </is>
+      </c>
+      <c r="D130" s="21" t="inlineStr">
+        <is>
+          <t>可能な限り、リージョン間のネットワーク トラフィックに関連する追加の待機時間とコストを発生させないようにします。</t>
+        </is>
+      </c>
+      <c r="E130" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="n"/>
+      <c r="H130" s="15" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
+        </is>
+      </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
-      <c r="L130" s="25" t="n"/>
+      <c r="L130" s="25" t="inlineStr">
+        <is>
+          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
+        </is>
+      </c>
       <c r="M130" s="25" t="n"/>
       <c r="N130" s="25" t="n"/>
       <c r="O130" s="25" t="n"/>
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="n"/>
-      <c r="B131" s="21" t="n"/>
-      <c r="C131" s="21" t="n"/>
-      <c r="D131" s="21" t="n"/>
-      <c r="E131" s="21" t="n"/>
+      <c r="A131" s="21" t="inlineStr">
+        <is>
+          <t>貯蔵</t>
+        </is>
+      </c>
+      <c r="B131" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix</t>
+        </is>
+      </c>
+      <c r="C131" s="21" t="inlineStr">
+        <is>
+          <t>オフィスコンテナ(ODFC)は、厳密に必要かつ正当化されない場合は使用しないでください</t>
+        </is>
+      </c>
+      <c r="D131" s="21" t="inlineStr">
+        <is>
+          <t>Azure Virtual Desktop での推奨事項は、以下の「ディザスター リカバリー」セクションで説明されている特定のビジネス継続性とディザスター リカバリー (BCDR) シナリオを計画していない限り、Office コンテナー (ODFC) 分割なしでプロファイル コンテナーを使用することです。https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
+        </is>
+      </c>
+      <c r="E131" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="n"/>
+      <c r="H131" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fslogix/concepts-container-types#when-to-use-profile-and-odfc-containers</t>
+        </is>
+      </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="n"/>
+      <c r="L131" s="25" t="inlineStr">
+        <is>
+          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
+        </is>
+      </c>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
       <c r="P131" s="25" t="n"/>
     </row>
     <row r="132" ht="16.5" customHeight="1">
-      <c r="A132" s="21" t="n"/>
-      <c r="B132" s="21" t="n"/>
-      <c r="C132" s="21" t="n"/>
-      <c r="D132" s="21" t="n"/>
-      <c r="E132" s="21" t="n"/>
+      <c r="A132" s="21" t="inlineStr">
+        <is>
+          <t>貯蔵</t>
+        </is>
+      </c>
+      <c r="B132" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix</t>
+        </is>
+      </c>
+      <c r="C132" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix の推奨されるウイルス対策除外を構成します (接続時に VHD(x) ファイルをスキャンしないことを含む)。</t>
+        </is>
+      </c>
+      <c r="D132" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix プロファイル コンテナーの仮想ハード ドライブに対して、参照されている記事の [詳細情報] 列に記載されているように、次のウイルス対策の除外を構成してください。</t>
+        </is>
+      </c>
+      <c r="E132" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="n"/>
+      <c r="H132" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fslogix/overview-prerequisites#configure-antivirus-file-and-folder-exclusions</t>
+        </is>
+      </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
-      <c r="L132" s="25" t="n"/>
+      <c r="L132" s="25" t="inlineStr">
+        <is>
+          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
+        </is>
+      </c>
       <c r="M132" s="25" t="n"/>
       <c r="N132" s="25" t="n"/>
       <c r="O132" s="25" t="n"/>
       <c r="P132" s="25" t="n"/>
     </row>
     <row r="133" ht="16.5" customHeight="1">
-      <c r="A133" s="21" t="n"/>
-      <c r="B133" s="21" t="n"/>
-      <c r="C133" s="21" t="n"/>
-      <c r="D133" s="21" t="n"/>
-      <c r="E133" s="21" t="n"/>
+      <c r="A133" s="21" t="inlineStr">
+        <is>
+          <t>貯蔵</t>
+        </is>
+      </c>
+      <c r="B133" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix</t>
+        </is>
+      </c>
+      <c r="C133" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix で構成された最大プロファイル サイズを確認して確認する</t>
+        </is>
+      </c>
+      <c r="D133" s="21" t="inlineStr">
+        <is>
+          <t>プロファイルコンテナのデフォルトの最大サイズは30GBです。大きなプロファイル コンテナーが予想され、お客様がそれらを小さく保とうとする場合は、OneDrive を使用して FSLogix プロファイルの外部で Office 365 ファイルをホストすることを検討してください。</t>
+        </is>
+      </c>
+      <c r="E133" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G133" s="21" t="n"/>
-      <c r="H133" s="15" t="n"/>
+      <c r="H133" s="15" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
+        </is>
+      </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
-      <c r="L133" s="25" t="n"/>
+      <c r="L133" s="25" t="inlineStr">
+        <is>
+          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
+        </is>
+      </c>
       <c r="M133" s="25" t="n"/>
       <c r="N133" s="25" t="n"/>
       <c r="O133" s="25" t="n"/>
       <c r="P133" s="25" t="n"/>
     </row>
     <row r="134" ht="16.5" customHeight="1">
-      <c r="A134" s="21" t="n"/>
-      <c r="B134" s="21" t="n"/>
-      <c r="C134" s="21" t="n"/>
-      <c r="D134" s="21" t="n"/>
-      <c r="E134" s="21" t="n"/>
+      <c r="A134" s="21" t="inlineStr">
+        <is>
+          <t>貯蔵</t>
+        </is>
+      </c>
+      <c r="B134" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix</t>
+        </is>
+      </c>
+      <c r="C134" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix レジストリ キーを確認し、適用するレジストリ キーを決定する</t>
+        </is>
+      </c>
+      <c r="D134" s="21" t="inlineStr">
+        <is>
+          <t>既定値と推奨設定は、関連記事の [詳細情報] 列で報告されます。推奨されていないキーや値を使用する必要がある場合は、Microsoft AVD の専門家に確認し、選択内容を明確に文書化してください。</t>
+        </is>
+      </c>
+      <c r="E134" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G134" s="21" t="n"/>
-      <c r="H134" s="15" t="n"/>
+      <c r="H134" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fslogix/concepts-configuration-examples</t>
+        </is>
+      </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
-      <c r="L134" s="25" t="n"/>
+      <c r="L134" s="25" t="inlineStr">
+        <is>
+          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
+        </is>
+      </c>
       <c r="M134" s="25" t="n"/>
       <c r="N134" s="25" t="n"/>
       <c r="O134" s="25" t="n"/>
       <c r="P134" s="25" t="n"/>
     </row>
     <row r="135" ht="16.5" customHeight="1">
-      <c r="A135" s="21" t="n"/>
-      <c r="B135" s="21" t="n"/>
-      <c r="C135" s="21" t="n"/>
-      <c r="D135" s="21" t="n"/>
-      <c r="E135" s="21" t="n"/>
+      <c r="A135" s="21" t="inlineStr">
+        <is>
+          <t>貯蔵</t>
+        </is>
+      </c>
+      <c r="B135" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix</t>
+        </is>
+      </c>
+      <c r="C135" s="21" t="inlineStr">
+        <is>
+          <t>同時接続または複数の接続の使用を避ける</t>
+        </is>
+      </c>
+      <c r="D135" s="21" t="inlineStr">
+        <is>
+          <t>同時接続または複数接続は、Azure 仮想デスクトップでは推奨されません。同時接続は、Azure 仮想デスクトップ ホスト プールで実行されているセッション ホストでもサポートされません。OneDrive を使用する場合、どのような状況でも、同じコンテナーを使用する同時接続または複数の接続はサポートされません。複数の接続の場合、同じプロファイル ディスクの使用はお勧めしません。</t>
+        </is>
+      </c>
+      <c r="E135" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G135" s="21" t="n"/>
-      <c r="H135" s="15" t="n"/>
+      <c r="H135" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fslogix/concepts-multi-concurrent-connections</t>
+        </is>
+      </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
-      <c r="L135" s="25" t="n"/>
+      <c r="L135" s="25" t="inlineStr">
+        <is>
+          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
+        </is>
+      </c>
       <c r="M135" s="25" t="n"/>
       <c r="N135" s="25" t="n"/>
       <c r="O135" s="25" t="n"/>
       <c r="P135" s="25" t="n"/>
     </row>
     <row r="136" ht="16.5" customHeight="1">
-      <c r="A136" s="21" t="n"/>
-      <c r="B136" s="21" t="n"/>
-      <c r="C136" s="21" t="n"/>
-      <c r="D136" s="21" t="n"/>
-      <c r="E136" s="21" t="n"/>
+      <c r="A136" s="21" t="inlineStr">
+        <is>
+          <t>貯蔵</t>
+        </is>
+      </c>
+      <c r="B136" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix</t>
+        </is>
+      </c>
+      <c r="C136" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix クラウド キャッシュを使用する場合は、キャッシュ ディレクトリを VM の一時ドライブに移動することを検討してください。</t>
+        </is>
+      </c>
+      <c r="D136" s="21" t="inlineStr">
+        <is>
+          <t>クラウドキャッシュはOSドライブをローカルキャッシュストレージとして使用し、VMディスクに大きな負荷をかける可能性があります。使用する VM SKU とサイズによっては、VM 一時ドライブが、Cloud Cache のキャッシュされたコンテンツを再配置する実行可能でパフォーマンスの高いソリューションになる可能性があります。このソリューションを採用する前に、テストを実行してパフォーマンスと安定性を確認する必要があります。クラウドキャッシュの詳細については、こちらをご覧ください:https://learn.microsoft.com/en-us/fslogix/concepts-fslogix-cloud-cache。</t>
+        </is>
+      </c>
+      <c r="E136" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G136" s="21" t="n"/>
-      <c r="H136" s="15" t="n"/>
+      <c r="H136" s="15" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
+        </is>
+      </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
-      <c r="L136" s="25" t="n"/>
+      <c r="L136" s="25" t="inlineStr">
+        <is>
+          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
+        </is>
+      </c>
       <c r="M136" s="25" t="n"/>
       <c r="N136" s="25" t="n"/>
       <c r="O136" s="25" t="n"/>
       <c r="P136" s="25" t="n"/>
     </row>
     <row r="137" ht="16.5" customHeight="1">
-      <c r="A137" s="21" t="n"/>
-      <c r="B137" s="21" t="n"/>
-      <c r="C137" s="21" t="n"/>
-      <c r="D137" s="21" t="n"/>
-      <c r="E137" s="21" t="n"/>
+      <c r="A137" s="21" t="inlineStr">
+        <is>
+          <t>貯蔵</t>
+        </is>
+      </c>
+      <c r="B137" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix</t>
+        </is>
+      </c>
+      <c r="C137" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix リダイレクトの使用法を確認します。</t>
+        </is>
+      </c>
+      <c r="D137" s="21" t="inlineStr">
+        <is>
+          <t>REDIRECTION.XMLファイルは、プロファイルコンテナから「C:」ドライブにリダイレクトされるフォルダを制御するために使用されます。除外は例外であるべきであり、除外を構成するユーザーが特定の除外を完全に理解しない限り、決して使用しないでください。除外は、実装が意図されている環境で常に完全にテストする必要があります。除外を構成すると、機能、安定性、パフォーマンスに影響を与える可能性があります。</t>
+        </is>
+      </c>
+      <c r="E137" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G137" s="21" t="n"/>
-      <c r="H137" s="15" t="n"/>
+      <c r="H137" s="15" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
+        </is>
+      </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
-      <c r="L137" s="25" t="n"/>
+      <c r="L137" s="25" t="inlineStr">
+        <is>
+          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
+        </is>
+      </c>
       <c r="M137" s="25" t="n"/>
       <c r="N137" s="25" t="n"/>
       <c r="O137" s="25" t="n"/>
@@ -9415,20 +9974,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -9440,123 +10097,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F120" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F138" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -9711,7 +10253,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -9733,7 +10275,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -9772,21 +10314,21 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>監視と管理</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>監視と管理</t>
+          <t>安全</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/macrofree/avd_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/avd_checklist.ja.xlsx
@@ -1069,12 +1069,12 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>AVD を通じて公開されたアプリケーション/デスクトップの予想される高可用性 SLA を決定する</t>
+          <t>AVD を介して公開されるアプリケーション/デスクトップに期待される高可用性 SLA を決定する</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>AVD コントロールプレーンは、返金制度のあるサービスレベル契約を提供していません。マイクロソフトは、Azure 仮想デスクトップ サービス URL の可用性を 99.9% 以上確保するよう努めています。サブスクリプション内のセッション ホスト仮想マシンの可用性は、仮想マシン SLA の対象となります。グローバルな高可用性要件を適切に満たすには、依存するリソース/サービスとインフラストラクチャの可用性も考慮する必要があります。</t>
+          <t>AVD コントロール プレーンは、金銭的な裏付けのあるサービス レベル アグリーメントを提供しません。Microsoft は、Azure Virtual Desktop サービス URL の可用性を 99.9% 以上達成するよう努めています。サブスクリプション内のセッション ホスト仮想マシンの可用性は、Virtual Machines SLA の対象となります。依存するリソース/サービスとインフラストラクチャの可用性も、グローバルな高可用性要件を適切に満たすために考慮する必要があります。</t>
         </is>
       </c>
       <c r="E8" s="21" t="inlineStr">
@@ -1119,12 +1119,12 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>AVD ホストプールの geo ディザスタリカバリ要件の評価</t>
+          <t>AVD ホスト プールの Geo ディザスター リカバリー要件を評価する</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>「アクティブ/アクティブ」モデルは、異なるリージョンの複数のホストプールで実現できます。異なるリージョンの VM を含む単一のホスト プールは推奨されません。同じユーザーに対して複数のプールを使用する場合は、ユーザー プロファイルを同期/レプリケートする方法の問題を解決する必要があります。FSLogix Cloud Cache を使用することもできますが、慎重に確認して計画する必要があります。または、同期/レプリケートをまったく行わないことをお客様が決定できます。"アクティブ/パッシブ" は、Azure Site Recovery (ASR) または自動化されたメカニズムを使用したオンデマンド プール デプロイを使用して実現できます。マルチリージョンBCDRの詳細については、「詳細情報」列とこのFSLogix関連ページの関連記事をお読みください https://learn.microsoft.com/en-us/fslogix/concepts-container-recovery-business-continuity。</t>
+          <t>"アクティブ/アクティブ" モデルは、異なるリージョンの複数のホスト プールで実現できます。異なるリージョンの VM を含む 1 つのホスト プールはお勧めしません。同じユーザーに対して複数のプールを使用する場合は、ユーザープロファイルの同期/複製方法の問題を解決する必要があります。FSLogix Cloud Cache を使用できますが、慎重に確認して計画するか、同期/レプリケートをまったく行わないことをお客様が決定できます。"アクティブ/パッシブ" は、Azure Site Recovery (ASR) または自動化されたメカニズムによるオンデマンド プール デプロイを使用して実現できます。複数リージョンの BCDR の詳細については、「詳細情報」列の関連記事と FSLogix 関連ページ (https://learn.microsoft.com/fslogix/concepts-container-recovery-business-continuity) を参照してください。</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Azure 仮想デスクトップ BCDR の計画と設計に取り組む前に、AVD を通じて使用されるアプリケーションが重要であることを最初に検討することが重要です。重要でないアプリから分離し、異なるディザスター リカバリーのアプローチと機能を備えた別のホスト プールを使用することをお勧めします。</t>
+          <t>Azure Virtual Desktop BCDR の計画と設計に取り組む前に、AVD を介して使用されるどのアプリケーションが重要であるかを最初に検討することが重要です。重要でないアプリから分離し、異なるディザスター リカバリーのアプローチと機能を持つ別のホスト プールを使用することもできます。</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>AVD ホストプール展開に最適な復元力オプションを計画する</t>
+          <t>AVD ホスト プールのデプロイに最適な耐障害性オプションを計画する</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>各ホスト プールは、可用性ゾーン (AZ) または可用性セット (AS) を使用してデプロイできます。回復性を最大化するには、AZ の使用をお勧めします。 ホストプールの作成時に、ホストプールセッションホストを使用可能なすべての AZ に分散することを決定できます。 AS を使用しても単一のデータセンターの障害から保護されないため、AZ が使用できないリージョンでのみ使用する必要があります。AZ と AVD の詳細については、関連記事を参照してください。AZとASの比較については、ここで読むことができます:https://learn.microsoft.com/en-us/azure/virtual-machines/availability。</t>
+          <t>各ホスト プールは、Availability Zones (AZ) または可用性セット (AS) を使用してデプロイできます。回復性を最大化するには、AZ の使用をお勧めします。 ホスト プールの作成時に、ホスト プール セッション ホストを使用可能なすべての AZ に分散することを決定できます。 AS を使用しても、1 つのデータセンターの障害から保護されないため、AZ を使用できないリージョンでのみ使用する必要があります。AZ と AVD の詳細については、関連記事を参照してください。AZ と AS の比較については、https://learn.microsoft.com/azure/virtual-machines/availability を参照してください。</t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
@@ -1269,12 +1269,12 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>AVD セッションホスト VM をバックアップする要件を評価する</t>
+          <t>AVD セッション ホスト VM をバックアップするための要件を評価する</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup を使用して、ホスト プール VM を保護できます。プールされたプールの場合、ステートレスである必要があるため、これは必要ありません。代わりに、このオプションは個人用ホスト プールに対して検討できます。</t>
+          <t>Azure Backup を使用して、ホスト プールの VM を保護できます。プールされたプールの場合、ステートレスである必要があるため、これは必要ありません。代わりに、このオプションは個人用ホスト プールで検討できます。</t>
         </is>
       </c>
       <c r="E12" s="21" t="inlineStr">
@@ -1319,12 +1319,12 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>パーソナルホストプールセッションホストのローカルDR戦略を準備する</t>
+          <t>個人用ホスト プール セッション ホストのローカル DR 戦略を準備する</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>個人用プールの場合でも、利用可能な場合はアベイラビリティーゾーンを使用することをお勧めします。リージョン内 DR 戦略には 3 つの戦略が考えられますが、コスト、RTO/RPO、および VM OS ディスク全体を保存することが本当に必要な場合は、(1) 特定のゾーン (AZ) に各セッション ホストを作成し、Azure Site Recovery (ASR) を使用して別のゾーンにレプリケートします。(2) Azure Backup を使用して、別の AZ にある特定のセッション ホストをバックアップおよび復元します。 (3) 別の AZ に新しいセッション ホストを作成し、FSLogix や OneDrive を使用してデータと設定を新しいコンピューターで使用できるようにします。すべてのオプションでは、DR に対する管理者の介入と、ホスト プール レベルでの直接のユーザー割り当てが必要であり、事前に計画および構成する必要があります。</t>
+          <t>パーソナルプールの場合でも、アベイラビリティーゾーン(利用可能な場合)の使用をお勧めします。リージョン内 DR 戦略には 3 つあり、コスト、RTO/RPO、および VM OS ディスク全体を保存することが本当に必要な場合は、(1) 特定のゾーン (AZ) に各セッション ホストを作成し、Azure Site Recovery (ASR) を使用して別のゾーンにレプリケートするなど、最適な戦略を選択することをお勧めします。(2) Azure Backup を使用して、別の AZ で特定のセッション ホストをバックアップおよび復元します。 (3) 別の AZ に新しいセッション ホストを作成し、FSLogix や OneDrive を使用して、新しいマシンでデータと設定を使用できるようにします。すべてのオプションでは、DR とホスト プール レベルでの直接ユーザー割り当てのために管理者の介入が必要であり、事前に計画して構成する必要があります。</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>カスタムイメージを使用して AVD ホストプール VM を展開する場合は、AVD が展開されているすべてのリージョンでそれらのアーティファクトを使用できることを確認することが重要です。Azure コンピューティング ギャラリー サービスを使用すると、ホスト プールがデプロイされているすべてのリージョンで、冗長ストレージと複数のコピーでイメージをレプリケートできます。Azure コンピューティング ギャラリー サービスはグローバル リソースではないことに注意してください。障害復旧シナリオでは、異なるリージョンに少なくとも 2 つのギャラリーを配置することをお勧めします。</t>
+          <t>カスタム イメージを使用して AVD ホスト プール VM をデプロイする場合は、AVD がデプロイされているすべてのリージョンでそれらのアーティファクトを使用できるようにすることが重要です。Azure Compute Gallery サービスを使用すると、ホスト プールがデプロイされているすべてのリージョンに、冗長ストレージと複数のコピーでイメージをレプリケートできます。Azure Compute Gallery サービスはグローバル リソースではないことに注意してください。ディザスター リカバリーのシナリオでは、ベスト プラクティスは、異なるリージョンに少なくとも 2 つのギャラリーを持つことです。</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
@@ -1419,12 +1419,12 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>インフラストラクチャとアプリケーションの依存関係を評価する</t>
+          <t>インフラストラクチャとアプリケーションの依存関係の評価</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>AVD インフラストラクチャのユーザがオンプレミスのリソースアクセスを必要とする場合、接続に必要なネットワークインフラストラクチャの高可用性も重要であり、考慮する必要があります。認証インフラストラクチャの回復性を評価および評価する必要があります。依存アプリケーションやその他のリソースの BCDR の側面は、セカンダリ DR の場所の可用性を確保するために考慮する必要があります。</t>
+          <t>AVD インフラストラクチャのユーザーがオンプレミスのリソース アクセスを必要とする場合、接続に必要なネットワーク インフラストラクチャの高可用性も重要であり、考慮する必要があります。認証インフラストラクチャの回復性を評価し、評価する必要があります。依存するアプリケーションやその他のリソースの BCDR の側面を考慮して、セカンダリ DR の場所の可用性を確保する必要があります。</t>
         </is>
       </c>
       <c r="E15" s="21" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>プロファイルコンテナとオフィスコンテナで保護する必要があるデータを評価します</t>
+          <t>プロファイル コンテナーと Office コンテナーで保護する必要があるデータを評価する</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>FSLogix ユーザー プロファイル内のすべてのデータが、障害から保護する必要があるわけではありません。さらに、OneDrive やファイル サーバー/共有などの外部ストレージが使用されている場合、FSLogix プロファイルに残っているものは最小限であり、極端な状況では失われる可能性があります。また、プロファイル内のデータを他のストレージ (キャッシュ モードの Outlook 受信トレイなど) から再構築できる場合もあります。</t>
+          <t>FSLogix ユーザー プロファイル内のすべてのデータが障害からの保護に値するとは限りません。さらに、OneDrive やファイル サーバー/共有などの外部ストレージが使用されている場合、FSLogix プロファイルに残るものは最小限であり、極端な状況で失われる可能性があります。また、プロファイル内のデータを他のストレージ (キャッシュ モードの Outlook 受信トレイなど) から再構築できる場合もあります。</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>プロファイルコンテナとオフィスコンテナのバックアップ保護戦略を構築する</t>
+          <t>プロファイル コンテナーと Office コンテナーのバックアップ保護戦略を構築する</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>重要なユーザーデータのデータ損失を防ぐことは重要であり、最初のステップは、どのデータを保存して保護する必要があるかを評価することです。OneDriveまたはその他の外部ストレージを使用している場合は、ユーザープロファイルやOfficeコンテナのデータを保存する必要がない場合があります。重要なユーザー データを保護するには、適切なメカニズムを検討する必要があります。Azure Backup サービスは、Azure Files Standard レベルと Premium レベルに格納されているときに、プロファイルとオフィス コンテナーのデータを保護するために使用できます。Azure NetApp Files Snapshots と Policies は、Azure NetApp Files (すべての層) に使用できます。</t>
+          <t>重要なユーザーデータのデータ損失を防ぐことは重要であり、最初のステップは、どのデータを保存して保護する必要があるかを評価することです。OneDrive またはその他の外部ストレージを使用している場合、ユーザー プロファイルや Office コンテナー データの保存は必要ない場合があります。重要なユーザーデータを保護するために、適切なメカニズムを検討する必要があります。Azure Backup サービスを使用すると、Azure Files の Standard レベルと Premium レベルに格納されているプロファイルと Office コンテナーのデータを保護できます。Azure NetApp Files のスナップショットとポリシーは、Azure NetApp Files (すべてのレベル) に使用できます。</t>
         </is>
       </c>
       <c r="E17" s="21" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>BCDRを目的としたプロファイルコンテナストレージレプリケーションの要件と回復性を評価する</t>
+          <t>BCDR の目的でのプロファイル コンテナー ストレージのレプリケーション要件と回復性を評価する</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>AVD では、FSLogix コンテナーに存在するユーザー データに複数のレプリケーション メカニズムと戦略を使用できます。 [プロファイル パターン #1]: ネイティブの Azure ストレージ レプリケーション メカニズム (Azure Files Standard GRS レプリケーション、Azure NetApp Files クロスリージョン レプリケーションなど)。Azure Files には、ゾーン レプリケート ストレージ (ZRS) または geo レプリケート ストレージ (GRS) を使用することをお勧めします。ローカルのみの回復性を備えた LRS は、ゾーン/リージョンの保護が必要ない場合に使用できます。注: Azure ファイル共有標準は LRS/ZRS/GRS ですが、100 TB の大容量サポートが有効になっている場合は LRS/ZRS のみがサポートされます。[プロファイル パターン #2]: FSLogix Cloud Cache は、異なる (最大 4 つの) ストレージ アカウント間でコンテナーをレプリケートする自動メカニズムで構築されています。Cloud Cache は、(1) ユーザー プロファイルまたは Office コンテナーのデータ可用性が必要 高可用性 SLA が重要であり、リージョンの障害に対する回復力が必要な場合にのみ使用してください。(2) 選択したストレージ オプションは、BCDR 要件を満たすことができません。たとえば、Azure ファイル共有プレミアム レベル、または大きなファイルのサポートが有効になっている Azure ファイル共有標準では、GRS は使用できません。(3) 異種ストレージ間でのレプリケーションが必要な場合。[プロファイル パターン #3]: ユーザー データ/プロファイル コンテナーではなく、アプリケーション データに対してのみ geo ディザスター リカバリーを設定する: 重要なアプリケーション データを、OneDrive や独自の組み込み DR メカニズムを備えたその他の外部ストレージなどの個別のストレージに格納します。</t>
+          <t>AVD では、FSLogix コンテナーに存在するユーザー データに対して、複数のレプリケーション メカニズムと戦略を使用できます。 [プロファイル パターン #1]: ネイティブの Azure Storage レプリケーション メカニズム (Azure Files Standard GRS レプリケーション、Azure NetApp Files リージョン間レプリケーションなど)。Azure Files には、ゾーン レプリケート ストレージ (ZRS) または Geo レプリケート ストレージ (GRS) を使用することをお勧めします。ローカルのみの回復性を持つ LRS は、ゾーン/リージョン保護が不要な場合に使用できます。注: Azure Files Share Standard は LRS/ZRS/GRS ですが、100 TB の大規模サポートを有効にすると、LRS/ZRS のみがサポートされます。[プロファイル パターン #2]: FSLogix Cloud Cache には、異なる (最大 4 つ) ストレージ アカウント間でコンテナーをレプリケートする自動メカニズムが組み込まれています。Cloud Cache は、(1) ユーザー プロファイルまたは Office コンテナーのデータ可用性が必要で、高可用性 SLA が重要であり、リージョンの障害に対する回復性がある必要がある場合にのみ使用する必要があります。(2) 選択したストレージ オプションが BCDR 要件を満たすことができません。たとえば、Azure File Share Premium レベル、または大きなファイルのサポートが有効になっている Azure File Share Standard では、GRS は使用できません。(3) 異種ストレージ間でのレプリケーションが必要な場合[プロファイル パターン #3]: geo ディザスター リカバリーはアプリケーション データに対してのみ設定し、ユーザー データ/プロファイル コンテナーには設定しない: 重要なアプリケーション データを、OneDrive や独自の組み込み DR メカニズムを備えた他の外部ストレージなどの個別のストレージに格納します。</t>
         </is>
       </c>
       <c r="E18" s="21" t="inlineStr">
@@ -1619,12 +1619,12 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Azure ファイルのディザスター リカバリー戦略を確認する</t>
+          <t>Azure Files のディザスター リカバリー戦略を確認する</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>ローカルのディザスター リカバリーには、Azure ファイルの Azure Backup を使用できます。リージョン間の geo ディザスター リカバリーの場合: GRS for Azure Files は、Standard SKU でのみ使用でき、大規模な共有のサポートはないため、ほとんどのお客様のシナリオには適していません。Azure ファイル共有プレミアムで geo レプリケーションが必要な場合は、FSLogix クラウド キャッシュを使用したレプリケーションを評価するか、"リージョン内" 可用性ゾーン (AZ) のみの回復性を検討する必要があります。</t>
+          <t>ローカルのディザスター リカバリーには、Azure Backup for Azure Files を使用できます。リージョン間の geo ディザスター リカバリーの場合: Azure Files の GRS は Standard SKU でのみ使用でき、大規模な共有のサポートは提供されないため、ほとんどの顧客シナリオには適していません。Azure File Share Premium で geo レプリケーションが必要な場合は、FSLogix Cloud Cache を使用したレプリケーションを評価するか、"リージョン内" 可用性ゾーン (AZ) のみの回復性を考慮する必要があります。</t>
         </is>
       </c>
       <c r="E19" s="21" t="inlineStr">
@@ -1669,12 +1669,12 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Azure Files にゾーン冗長ストレージ (ZRS) を使用して回復性を最大化する</t>
+          <t>Azure Files のゾーン冗長ストレージ (ZRS) を使用して回復性を最大化する</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>ゾーン冗長ストレージは、ユーザー プロファイル データのリージョン内の回復性を最大化します。ZRS は、"FileStorage" ストレージ アカウントの種類を通じてプレミアム ファイル共有でサポートされます。ZRS は、標準の汎用 v2 ストレージ アカウントでサポートされています。ゾーン冗長ストレージの使用は、各ホスト プール内のセッション ホストのゾーン冗長展開と組み合わせる必要があります。</t>
+          <t>ゾーン冗長ストレージは、ユーザー プロファイル データのリージョン内の回復性を最大化します。ZRS は、"FileStorage" ストレージ アカウントの種類を通じて Premium ファイル共有でサポートされています。ZRS は、標準の汎用 v2 ストレージ アカウントでサポートされています。ゾーン冗長ストレージの使用は、各ホスト プールでのセッション ホストのゾーン冗長デプロイと組み合わせる必要があります。</t>
         </is>
       </c>
       <c r="E20" s="21" t="inlineStr">
@@ -1719,12 +1719,12 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Azure ネットアップ ファイルのディザスター リカバリー戦略を確認する</t>
+          <t>Azure NetApp Files のディザスター リカバリー戦略を確認する</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>ローカルのディザスター リカバリーには、Azure ネットアップ ファイル (ANF) ネイティブ バックアップを使用できます。ANF は基本的にローカル冗長であるため、リージョン間の geo ディザスター リカバリーでは、クロスリージョン レプリケーション (CRR) https://learn.microsoft.com/en-us/azure/azure-netapp-files/cross-region-replication-create-peering という追加のメカニズムを使用する必要があります。現在、ANF は異なるアベイラビリティーゾーン (AZ) 間でのレプリケーションも冗長性も提供せず、ANF ボリュームを配置する単一の AZ を選択する可能性のみを提供します。 https://learn.microsoft.com/en-us/azure/azure-netapp-files/manage-availability-zone-volume-placement。</t>
+          <t>ローカルのディザスター リカバリーには、Azure NetApp Files (ANF) のネイティブ バックアップを使用できます。ANF は基本的にローカル冗長であるため、リージョン間の geo ディザスター リカバリーでは、リージョン間レプリケーション (CRR) https://learn.microsoft.com/azure/azure-netapp-files/cross-region-replication-create-peering である追加のメカニズムを使用する必要があります。現在、ANF は異なるアベイラビリティーゾーン (AZ) 間でのレプリケーションや冗長性を提供しておらず、ANF ボリュームを配置する単一の AZ を選択する可能性のみを提供します: https://learn.microsoft.com/azure/azure-netapp-files/manage-availability-zone-volume-placement。</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
@@ -1764,17 +1764,17 @@
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>ゴールデン画像</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションを AVD ホストプールに展開する方法を決定する</t>
+          <t>アプリケーションを AVD ホストプールにデプロイする方法を決定する</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションは、ゴールデン イメージにプレインストールすることも、MSIX &amp; AppAttach 機能を使用してアタッチすることも、ホスト プールの展開後に従来のソフトウェア配布方法を使用してセッション ホストに配布することもできます。</t>
+          <t>アプリケーションは、ゴールド イメージにプレインストールしたり、MSIX &amp; AppAttach 機能を使用してアタッチしたり、ホスト プールのデプロイ後に従来のソフトウェア配布方法を使用してセッション ホストに配布したりできます。</t>
         </is>
       </c>
       <c r="E22" s="21" t="inlineStr">
@@ -1814,17 +1814,17 @@
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>ゴールデン画像</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>必要なゴールデン画像の数を見積もる</t>
+          <t>必要なゴールド イメージの数を見積もる</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>異なる OS バージョンや設定、分離する必要があり、1 つのイメージに含めることができないアプリケーションの異なるグループをサポートするには、複数のゴールデン イメージが必要になる場合があります。</t>
+          <t>異なる OS バージョンや設定、分離する必要があり、1 つのイメージに含めることができない異なるアプリケーション グループをサポートするには、複数のゴールド イメージが必要になる場合があります。</t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>ゴールデン画像</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>ホスト プールの展開に使用する OS イメージを決定する</t>
+          <t>ホスト プールのデプロイに使用する OS イメージを決定する</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>各ホスト プールの展開に使用するゲスト OS を決定します: Windows 10 と Windows Server、マーケットプレースとカスタム イメージ</t>
+          <t>各ホスト プールのデプロイに使用するゲスト OS を決定する: Windows 10 と Windows Server、Marketplace とカスタム イメージ</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>ゴールデン画像</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>Azure VM カスタム イメージは、Azure コンピューティング ギャラリー、マネージド イメージ オブジェクト、ストレージ内のマネージド ディスクなど、さまざまな方法で作成および保存できます。推奨される方法は、Azure コンピューティング ギャラリーを使用することです。</t>
+          <t>Azure VM カスタム イメージは、Azure Compute Gallery、マネージド イメージ オブジェクト、ストレージ内のマネージド ディスクなど、さまざまな方法で作成および格納できます。推奨される方法は、Azure Compute Gallery を使用することです。</t>
         </is>
       </c>
       <c r="E25" s="21" t="inlineStr">
@@ -1964,12 +1964,12 @@
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>ゴールデン画像</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>カスタム イメージのビルド プロセスを設計する</t>
+          <t>カスタムイメージのビルドプロセスを設計する</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
@@ -2014,17 +2014,17 @@
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>ゴールデン画像</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>カスタムイメージを使用する場合は、カスタムイメージの構築方法に関する AVD の推奨ベストプラクティスを確認してください</t>
+          <t>カスタムイメージを使用する場合は、カスタムイメージの構築方法について、AVD の推奨ベスト プラクティスを確認してください</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>ゴールデンイメージのカスタマイズに関するいくつかの既知のベストプラクティスと推奨事項がありますので、参照されている記事を確認してください。</t>
+          <t>ゴールドイメージのカスタマイズに関する既知のベストプラクティスと推奨事項がいくつかありますので、参照されている記事を確認してください。</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
@@ -2063,17 +2063,17 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>ゴールデン画像</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>ゴールデン イメージ更新プロセスに最新バージョンの FSLogix を含める</t>
+          <t>最新バージョンの FSLogix をゴールド イメージの更新プロセスに含める</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>AVD セッションホストにインストールされている FSLogix スタックは、自動更新機能を提供しません。このため、最新バージョンのFSLogixをダウンロードし、ゴールデンイメージの更新プロセスに含めることをお勧めします。</t>
+          <t>AVD セッション ホストにインストールされた FSLogix スタックでは、自動更新機能は提供されません。このため、最新バージョンの FSLogix をダウンロードし、ゴールド イメージの更新プロセスに含めることをお勧めします。</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -2112,17 +2112,17 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>ゴールデン画像</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>仮想デスクトップ最適化ツールの使用状況を評価する</t>
+          <t>Virtual-Desktop-Optimization-Tool の使用状況を評価する</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>このツール セットは、ホワイト ペーパー「仮想デスクトップ インフラストラクチャ (VDI) の役割に対する Windows 10 バージョン 2004 の最適化」で参照されている設定を自動的に適用するために作成されました https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004。ホワイトペーパーに記載されているツールの使用および/または最適化を検討する必要があります。</t>
+          <t>このツール セットは、ホワイト ペーパー「仮想デスクトップ インフラストラクチャ (VDI) の役割に対する Windows 10 バージョン 2004 の最適化」: https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004 で参照されている設定を自動的に適用するために作成されました。ホワイトペーパーに記載されているツールの使用や最適化を検討する必要があります。</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -2161,17 +2161,17 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>ゴールデン画像</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Microsoft OneDrive が AVD 展開の一部になるかどうかを判断する</t>
+          <t>Microsoft OneDrive を AVD デプロイの一部にするかどうかを決定する</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>OneDriveが使用され、ゴールデンイメージに含まれている場合は、「詳細情報」セクションの関連記事に記載されている構成手順に従ってください。この AVD チェックリストの範囲外ですが、FSLogix プロファイルで使用される領域を削減し、ユーザー エクスペリエンスを向上させるために、"既知のフォルダー リダイレクト" や "ファイル オンデマンド" などの OneDrive の最適化を評価する必要があります。現在の OneDrive は、リモート アプリではサポートされていません。</t>
+          <t>OneDrive が使用され、ゴールド イメージに含まれている場合は、関連記事の「詳細」セクションで報告されている構成手順に必ず従ってください。この AVD チェックリストの範囲外ですが、FSLogix プロファイルで使用される領域を減らし、ユーザー エクスペリエンスを向上させるために、"既知のフォルダー リダイレクト" や "ファイル オンデマンド" などの OneDrive の最適化を使用して評価する必要があります。現在、OneDrive は Remote Apps ではサポートされていません。</t>
         </is>
       </c>
       <c r="E30" s="21" t="inlineStr">
@@ -2210,17 +2210,17 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>ゴールデン画像</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Teams が AVD 展開の一部になるかどうかを判断する</t>
+          <t>Microsoft Teams が AVD デプロイの一部になるかどうかを判断する</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>「詳細情報」列の関連記事に含まれている要件と構成手順を必ず確認してください。Teams の自動更新は無効になるため、Teams の最新バージョンを確認してゴールデン イメージ更新プロセスに含めることをお勧めします。</t>
+          <t>関連記事の「詳細情報」列に記載されている要件と構成手順を必ず確認してください。Teams の自動更新は無効になるため、ゴールデン イメージの更新プロセスに Teams の最新バージョンを確認して含めることをお勧めします。</t>
         </is>
       </c>
       <c r="E31" s="21" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>ゴールデン画像</t>
+          <t>ゴールデンイメージ</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>AVD は、同じホストプール内で異なる言語とローカリゼーション要件を持つユーザをサポートできます。これは、ゴールデンイメージをカスタマイズして、ユーザーが必要な言語を選択できるようにすることができます。Windows 11で追加の言語パックを構成する手順は、リファレンス記事に記載されています。</t>
+          <t>AVD は、同じホストプールで異なる言語とローカリゼーションの要件を持つユーザーをサポートできます。これは、ユーザーが必要な言語を選択できるように、ゴールデンイメージをカスタマイズして行うことができます。Windows 11 で追加の言語パックを構成する手順は、リファレンス記事に記載されています。</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>MSIX と AppAttach</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>MSIX パッケージを格納するには、個別のストレージ アカウント/共有を使用することを強くお勧めします。必要に応じて、ストレージは個別にスケールアウトでき、プロファイル I/O アクティビティの影響を受けません。Azure には、MISX アプリのアタッチに使用できる複数のストレージ オプションが用意されています。Azure Files または Azure NetApp Files は、コストと管理オーバーヘッドの間で最適な価値を提供するため、これらのオプションを使用することをお勧めします。</t>
+          <t>個別のストレージ アカウント/共有を使用して MSIX パッケージを格納することを強くお勧めします。必要に応じて、ストレージは個別にスケールアウトでき、プロファイル I/O アクティビティの影響を受けません。Azure には、MISX アプリのアタッチに使用できる複数のストレージ オプションが用意されています。Azure Files または Azure NetApp Files を使用すると、コストと管理オーバーヘッドの間で最適な価値が得られるため、これらのオプションを使用することをお勧めします。</t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>MSIX と AppAttach</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>参照記事では、AVD コンテキストでの MSIX の使用に関するパフォーマンスに関する考慮事項はほとんどありませんが、慎重に確認してください。</t>
+          <t>参照されている記事では、AVD コンテキストでの MSIX の使用に関する重要なパフォーマンスに関する考慮事項をいくつか報告しましたが、慎重に確認してください。</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>MSIX と AppAttach</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>MSIX アプリのアタッチには、ファイル共有にアクセスするための読み取り専用アクセス許可が必要です。MSIX アプリケーションを Azure Files に格納する場合は、セッション ホストに対して、すべてのセッション ホスト VM に、共有に対するストレージ アカウント ロールベースのアクセス制御 (RBAC) とファイル共有の新技術ファイル システム (NTFS) アクセス許可の両方を割り当てる必要があります。</t>
+          <t>MSIX アプリのアタッチには、ファイル共有にアクセスするための読み取り専用アクセス許可が必要です。MSIX アプリケーションを Azure Files に格納する場合は、セッション ホストに対して、すべてのセッション ホスト VM に、共有に対するストレージ アカウントのロールベースのアクセス制御 (RBAC) とファイル共有の New Technology File System (NTFS) アクセス許可の両方を割り当てる必要があります。</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
@@ -2459,17 +2459,17 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>MSIX と AppAttach</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>3番目のパーティ製アプリケーション用の MSIX パッケージ</t>
+          <t>サード パーティ アプリケーション用の MSIX パッケージ</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>3番目のパーティのソフトウェアベンダーは、MIXパッケージを提供する必要があります、それは顧客アプリケーションの所有者からの適切なサポートなしで変換手順を試みることはお勧めしません。</t>
+          <t>サード パーティのソフトウェア ベンダーは MSIX パッケージを提供する必要があり、アプリケーション所有者からの適切なサポートなしに変換手順を試行することはお勧めしません。</t>
         </is>
       </c>
       <c r="E36" s="21" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>MSIX と AppAttach</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>MSIX アプリのアタッチでは MSIX アプリケーションの自動更新がサポートされていないため、無効にする必要があります。</t>
+          <t>MSIX アプリのアタッチでは、MSIX アプリケーションの自動更新がサポートされていないため、無効にする必要があります。</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>MSIX と AppAttach</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>MSIX &amp; App Attach を利用するには、AVD ホスト プールのゲスト OS イメージが Windows 10/11 Enterprise または Windows 10/11 Enterprise Multi-session バージョン 2004 以降である必要があります。</t>
+          <t>MSIX &amp; App Attach を利用するには、AVD ホスト プールのゲスト OS イメージが Windows 10/11 Enterprise または Windows 10/11 Enterprise マルチセッション バージョン 2004 以降である必要があります。</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2614,12 +2614,12 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>ホスト プールの展開のための Gen2 VM の使用状況を評価する</t>
+          <t>ホスト プールのデプロイのための Gen2 VM の使用状況を評価する</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>ホスト プールのデプロイに使用する VM SKU を選択したら、セキュリティを強化し、機能を向上させるために、Gen2 タイプの SKU を使用することをお勧めします。</t>
+          <t>ホスト プールのデプロイに使用する VM SKU を選択したら、セキュリティと機能を強化するために、Gen2 タイプの SKU を使用することをお勧めします。</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>MMR(マルチメディアリダイレクト)を使用して、ブラウザでのビデオパフォーマンスを向上させることを検討してください</t>
+          <t>MMR(マルチメディアリダイレクト)を使用して、ブラウザーでのビデオパフォーマンスを向上させることを検討してください</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>MMR は、メディア コンテンツをセッション ホストからローカル コンピューターにリダイレクトして、処理とレンダリングを高速化します。Microsoft EdgeまたはGoogle Chromeでメディアコンテンツを再生する場合にのみ機能します。詳細については、リンク先の URL を参照してください。</t>
+          <t>MMR は、処理とレンダリングを高速化するために、メディア コンテンツをセッション ホストからローカル コンピューターにリダイレクトします。Microsoft Edge または Google Chrome でメディア コンテンツを再生する場合にのみ機能します。詳細については、リンク先のURLを参照してください。</t>
         </is>
       </c>
       <c r="E40" s="21" t="inlineStr">
@@ -2709,17 +2709,17 @@
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>キャパシティ プランニング</t>
+          <t>キャパシティプランニング</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>使用するホスト・プール・タイプの決定</t>
+          <t>使用するホスト プールの種類を決定する</t>
         </is>
       </c>
       <c r="D41" s="21" t="inlineStr">
         <is>
-          <t>ホスト プールは、セッション ホストとして Azure 仮想デスクトップに登録される Azure 仮想マシンのコレクションです。ホスト プールは、個人用とプール型の 2 種類のいずれかになります。使用する型とその数は、文書化および検証する必要がある重要な設計上の決定事項です。詳細については、「詳細情報」列の関連記事を参照してください。</t>
+          <t>ホスト プールは、セッション ホストとして Azure Virtual Desktop に登録される Azure 仮想マシンのコレクションです。ホスト プールは、個人用とプールの 2 種類のいずれかになります。どの型をいくつ使用するかは、文書化して検証する必要がある重要な設計上の決定事項です。詳細については、「詳細情報」列の関連記事を参照してください。</t>
         </is>
       </c>
       <c r="E41" s="21" t="inlineStr">
@@ -2759,17 +2759,17 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>キャパシティ プランニング</t>
+          <t>キャパシティプランニング</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>展開するさまざまなホスト プールの数を見積もる</t>
+          <t>デプロイする異なるホスト プールの数を見積もる</t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>設計基準を使用して、展開するホスト プールの数を決定します。これは、さまざまな OS イメージ、マルチリージョンのサポート、ゲスト VM ハードウェアの違い (GPU のサポートの有無など)、さまざまなユーザーの期待と稼働時間の要件 ("エグゼクティブ"、"オフィス ワーカー"、"開発者" など)、ホスト プールの RDP 設定 (ドライブ リダイレクトのサポートなど) などの要因に基づきます。これらにより、ホスト プールの数と、各プールに含まれるホストの数が決まります。</t>
+          <t>設計基準を使用して、デプロイするホスト プールの数を決定します。これは、異なる OS イメージ、マルチリージョン サポート、ゲスト VM ハードウェアの違い (GPU サポートの有無など)、ユーザーの期待とアップタイム要件の違い (例: 'Executives'、'Office Workers'、'Developers' など)、ホスト プールの RDP 設定 (ドライブ リダイレクトのサポートなど) などの要因に基づきます。これにより、ホスト プールの数と、各プールに含まれるホストの数が決まります。</t>
         </is>
       </c>
       <c r="E42" s="21" t="inlineStr">
@@ -2809,17 +2809,17 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>キャパシティ プランニング</t>
+          <t>キャパシティプランニング</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>[パーソナル ホスト プールの種類] で、適切な割り当ての種類を選択します。</t>
+          <t>[個人用ホスト プールの種類] で、適切な割り当ての種類を選択します</t>
         </is>
       </c>
       <c r="D43" s="21" t="inlineStr">
         <is>
-          <t>自動割り当てと直接割り当ての違いがよく理解されており、選択したオプションが問題のシナリオに適していることを確認します。[自動] が既定の設定です。</t>
+          <t>自動割り当てと直接割り当ての違いが十分に理解されており、選択したオプションが問題のシナリオに適していることを確認します。「自動」がデフォルト設定です。</t>
         </is>
       </c>
       <c r="E43" s="21" t="inlineStr">
@@ -2859,17 +2859,17 @@
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>キャパシティ プランニング</t>
+          <t>キャパシティプランニング</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>[プールされたホスト プールの種類] で、最適な負荷分散方法を選択します。</t>
+          <t>[プールされたホスト プールの種類] で、最適な負荷分散方法を選択します</t>
         </is>
       </c>
       <c r="D44" s="21" t="inlineStr">
         <is>
-          <t>使用するものと使用可能なオプションを確認すると、自動スケーリングでは既存の負荷分散アルゴリズムは無視されます。</t>
+          <t>使用するアルゴリズムと使用可能なオプションを確認すると、自動スケーリングでは既存の負荷分散アルゴリズムが無視されます。</t>
         </is>
       </c>
       <c r="E44" s="21" t="inlineStr">
@@ -2909,17 +2909,17 @@
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>キャパシティ プランニング</t>
+          <t>キャパシティプランニング</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>プールされたホスト プールの種類の場合、VM のコア数は 32 を超えないようにしてください</t>
+          <t>プールされたホスト プールの種類の場合、VM のコア数は 32 を超えないようにする必要があります</t>
         </is>
       </c>
       <c r="D45" s="21" t="inlineStr">
         <is>
-          <t>コアの数が増えると、システムの同期オーバーヘッドも増加します。特に、複数のユーザーが同時にサインインする場合。セッション ホストに対して大きすぎる VM を使用しないようにする</t>
+          <t>コア数が増えると、システムの同期オーバーヘッドも増加します。特に、複数のユーザーが同時にサインインする場合。セッション ホストに対して大きすぎる VM を使用しないようにしてください</t>
         </is>
       </c>
       <c r="E45" s="21" t="inlineStr">
@@ -2958,17 +2958,17 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>キャパシティ プランニング</t>
+          <t>キャパシティプランニング</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>同じホスト プールを使用して、フル デスクトップ (DAG) とリモート アプリの両方を同じユーザー セットに提供しないでください。</t>
+          <t>同じホスト プールを使用して、フル デスクトップ (DAG) と Remote Apps の両方を同じユーザー セットに提供しないでください</t>
         </is>
       </c>
       <c r="D46" s="21" t="inlineStr">
         <is>
-          <t>AVD は、1 つのホスト プール内の RemoteApp とデスクトップ アプリケーション グループ(DAG)の両方を同じユーザー セットに割り当てることをサポートしていません。これにより、1 人のユーザーが 1 つのホスト プールに 2 つのユーザー セッションを持つことになります。ユーザーは、同じプロファイルを使用して、同じホスト プール内で同時に 2 つのアクティブなセッションを持つことはできません。</t>
+          <t>AVD では、1 つのホスト プール内の RemoteApp とデスクトップ アプリケーション グループ (DAG) の両方を同じユーザー セットに割り当てることはできません。これを行うと、1 人のユーザーが 1 つのホスト プールに 2 つのユーザー セッションを持つことになります。ユーザーは、同じプロファイルを使用して、同じホスト プールで同時に 2 つのアクティブなセッションを持つことは想定されていません。</t>
         </is>
       </c>
       <c r="E46" s="21" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>キャパシティ プランニング</t>
+          <t>キャパシティプランニング</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="D47" s="21" t="inlineStr">
         <is>
-          <t>AVD で作成できるアプリケーション グループは、Microsoft Entra ID(以前の Azure AD) テナントごとに 500 個に制限されています。制限を増やすことはできますが(詳細については、コンパニオンリンクを参照してください)、推奨されません。</t>
+          <t>Microsoft Entra ID (旧称 Azure AD) テナントごとに AVD で作成できるアプリケーション グループ数は 500 個に制限されています。制限を増やすことはできますが(詳細については、コンパニオンリンクを参照してください)、お勧めしません。</t>
         </is>
       </c>
       <c r="E47" s="21" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>キャパシティ プランニング</t>
+          <t>キャパシティプランニング</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="D48" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションは、アクセス許可を発行および割り当てるためのコンテナーとして [アプリケーション グループ] の下にグループ化されます: アプリケーション グループごとに 50 を超えるアプリケーションを発行しないことをお勧めします。</t>
+          <t>アプリケーションは、アクセス許可を発行および割り当てるためのコンテナーとして [アプリケーション グループ] にグループ化されます: アプリケーション グループごとに 50 を超えるアプリケーションを公開しないことをお勧めします。</t>
         </is>
       </c>
       <c r="E48" s="21" t="inlineStr">
@@ -3107,17 +3107,17 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>キャパシティ プランニング</t>
+          <t>キャパシティプランニング</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>パーソナル ホスト プールの FSLogix の使用を評価する</t>
+          <t>個人用ホスト プールでの FSLogix の使用状況を評価する</t>
         </is>
       </c>
       <c r="D49" s="21" t="inlineStr">
         <is>
-          <t>個人用ホスト プールでは、各 VM が 1 人のユーザーに静的に割り当てられるため、移動プロファイル ソリューションがすぐに必要ないため、FSLogix は必要ありません。一部の使用シナリオでは、FSLogix が役立ちます。たとえば、VM を再割り当てしたり、ユーザーを別のデスクトップに移動したり、移動プロファイルを使用して DR 目的でユーザー プロファイルを別の場所に保存したりできます。</t>
+          <t>FSLogix は、各 VM が 1 人のユーザーに静的に割り当てられるため、個人用ホスト プールには必要ありません。一部の使用シナリオでは、FSLogix が役立ちます。たとえば、仮想マシンを再割り当てしたり、ユーザーを別のデスクトップに移動したり、移動プロファイルを使用してユーザープロファイルをDRの目的で別の場所に保存したりできます。</t>
         </is>
       </c>
       <c r="E49" s="21" t="inlineStr">
@@ -3133,7 +3133,7 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type?tabs=azure#reassign-a-personal-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type?tabs=azure#reassign-a-personal-desktop</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
@@ -3156,17 +3156,17 @@
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>キャパシティ プランニング</t>
+          <t>キャパシティプランニング</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>ワークロード パフォーマンス テストを実行して、使用する最適な Azure VM SKU とサイズを決定する</t>
+          <t>ワークロードのパフォーマンス テストを実行して、使用する最適な Azure VM SKU とサイズを決定する</t>
         </is>
       </c>
       <c r="D50" s="21" t="inlineStr">
         <is>
-          <t>提供されているリンクを使用して SKU 決定の開始点を設定し、パフォーマンス テストを使用して検証します。本番用に少なくとも4つのコアがセッション・ホストごとに選択されていることを確認します(マルチセッション)</t>
+          <t>提供されているリンクを使用して SKU 決定の開始点を設定し、パフォーマンス テストを使用して検証します。セッション ホストごとに運用用に少なくとも 4 つのコアが選択されていることを確認します (マルチセッション)</t>
         </is>
       </c>
       <c r="E50" s="21" t="inlineStr">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>キャパシティ プランニング</t>
+          <t>キャパシティプランニング</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="D51" s="21" t="inlineStr">
         <is>
-          <t>参照記事で報告されている AVD の容量と制限を確認することが重要です。追加の制限としきい値は、ネットワーク、コンピューティング、ストレージ、およびサービスの管理に適用されます。</t>
+          <t>参照記事で報告されている AVD の容量と制限を確認することが重要です。ネットワーク、コンピューティング、ストレージ、サービス管理には、追加の制限としきい値が適用されます。</t>
         </is>
       </c>
       <c r="E51" s="21" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>キャパシティ プランニング</t>
+          <t>キャパシティプランニング</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="D52" s="21" t="inlineStr">
         <is>
-          <t>GPU を搭載したホスト プールには特別な構成が必要ですので、参照先の記事を必ず確認してください。</t>
+          <t>GPU を使用するホスト プールには特別な構成が必要ですので、参照されている記事を必ず確認してください。</t>
         </is>
       </c>
       <c r="E52" s="21" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>キャパシティ プランニング</t>
+          <t>キャパシティプランニング</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="D53" s="21" t="inlineStr">
         <is>
-          <t>可能な限り、高速ネットワーク機能を備えた VM SKU を活用することをお勧めします。この機能には、特定の VM SKU/サイズと OS バージョンが必要です。関連記事の一覧と要件を参照してください。</t>
+          <t>可能な限り、高速ネットワーク機能を備えた VM SKU を活用することをお勧めします。この機能には、特定の VM SKU/サイズと OS バージョンが必要ですが、関連記事の一覧と要件を参照してください。</t>
         </is>
       </c>
       <c r="E53" s="21" t="inlineStr">
@@ -3360,12 +3360,12 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>AVD に接続するユーザーの数と、どのリージョンから接続するかを評価する</t>
+          <t>AVD に接続するユーザー数とリージョンを評価する</t>
         </is>
       </c>
       <c r="D54" s="21" t="inlineStr">
         <is>
-          <t>適切な計画と展開を行うには、各ホスト プールの同時ユーザーの最大数と合計ユーザー数を評価することが重要です。さらに、異なるリージョンのユーザーは、最適なユーザー エクスペリエンスを確保するために異なるホスト プールを必要とする場合があります。</t>
+          <t>適切な計画とデプロイのためには、各ホスト プールの同時ユーザーの最大数と合計ユーザー数を評価することが重要です。さらに、異なるリージョンのユーザーは、最適なユーザー エクスペリエンスを確保するために、異なるホスト プールを必要とする場合があります。</t>
         </is>
       </c>
       <c r="E54" s="21" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="D55" s="21" t="inlineStr">
         <is>
-          <t>AVD プールの外部のリソース(Active Directory、外部ファイル共有またはその他のストレージ、オンプレミスのサービスとリソース、VPN や ExpressRoute などのネットワーク インフラストラクチャ コンポーネント、外部サービス、サードパーティ コンポーネントなど)への依存関係を評価および確認する必要があります。これらすべてのリソースについて、AVD ホストプールからの遅延を評価し、接続を考慮する必要があります。さらに、BCDR に関する考慮事項をこれらの依存関係にも適用する必要があります。</t>
+          <t>Active Directory、外部ファイル共有やその他のストレージ、オンプレミスのサービスやリソース、VPN や ExpressRoute などのネットワーク インフラストラクチャ コンポーネント、外部サービス、サードパーティ コンポーネントなど、AVD プールの外部にあるリソースへの依存関係を評価および確認する必要があります。これらすべてのリソースについて、AVD ホスト プールからの待機時間を評価し、接続性を考慮する必要があります。さらに、BCDR に関する考慮事項もこれらの依存関係に適用する必要があります。</t>
         </is>
       </c>
       <c r="E55" s="21" t="inlineStr">
@@ -3459,12 +3459,12 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>使用されているユーザクライアント OS と AVD クライアントタイプを確認する</t>
+          <t>使用するユーザー クライアント OS と AVD クライアント タイプを確認する</t>
         </is>
       </c>
       <c r="D56" s="21" t="inlineStr">
         <is>
-          <t>AVDは、さまざまなプラットフォーム(ウィンドウズ、MacOS、iOS、アンドロイド)を介して接続するためのさまざまなクライアントタイプ(ファット、シン、ウェブ)を提供します。各クライアントの制限事項を確認し、可能な場合は複数のオプションを比較します。</t>
+          <t>AVD には、さまざまなプラットフォーム(Windows、MacOS、iOS、Android)で接続するためのさまざまなクライアント タイプ(ファット、シン、ウェブ)が用意されています。各クライアントの制限事項を確認し、可能な場合は複数のオプションを比較します。</t>
         </is>
       </c>
       <c r="E56" s="21" t="inlineStr">
@@ -3480,7 +3480,7 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-desktop/users/connect-windows</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/users/connect-windows</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
@@ -3508,12 +3508,12 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>PoC を実行して、エンドツーエンドのユーザー エクスペリエンスとネットワーク遅延の影響を検証します</t>
+          <t>PoCを実行して、エンドツーエンドのユーザーエクスペリエンスとネットワーク遅延の影響を検証</t>
         </is>
       </c>
       <c r="D57" s="21" t="inlineStr">
         <is>
-          <t>ユーザーの場所と AVD リージョンの展開によっては、ユーザーのエクスペリエンスが最適でない場合があるため、小規模な PoC 環境でできるだけ早くテストすることが重要です。"Azure 仮想デスクトップ エクスペリエンス推定ツール" ツールを実行して、ホスト プールをデプロイするのに最適な Azure リージョンを選択します。150 ミリ秒を超える待機時間を超えると、ユーザー エクスペリエンスが最適でなくなる可能性があります。</t>
+          <t>ユーザーの場所や AVD リージョンのデプロイによっては、ユーザーのエクスペリエンスが最適でない可能性があるため、小規模な PoC 環境でできるだけ早くテストすることが重要です。"Azure Virtual Desktop エクスペリエンス見積もりツール" ツールを実行して、ホスト プールをデプロイするのに最適な Azure リージョンを選択します。レイテンシーが 150 ミリ秒を超えると、ユーザー エクスペリエンスが最適でなくなる可能性があります。</t>
         </is>
       </c>
       <c r="E57" s="21" t="inlineStr">
@@ -3557,12 +3557,12 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>すべてのユーザー グループの RDP 設定を評価して文書化する</t>
+          <t>すべてのユーザーグループのRDP設定を評価して文書化する</t>
         </is>
       </c>
       <c r="D58" s="21" t="inlineStr">
         <is>
-          <t>RDP 設定は、現在、ユーザー/グループごとではなく、ホスト プール レベルでのみ構成できます。ユーザー セットごとに異なる設定が必要な場合は、複数のホスト プールを作成することをお勧めします。</t>
+          <t>現在、RDP 設定は、ユーザー/グループごとではなく、ホスト プール レベルでのみ構成できます。ユーザーのセットごとに異なる設定が必要な場合は、複数のホスト プールを作成することをお勧めします。</t>
         </is>
       </c>
       <c r="E58" s="21" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="D59" s="21" t="inlineStr">
         <is>
-          <t>AVDは非地域サービスであり、ホストプールは任意のリージョンで作成でき、最も近いフロントエンドからの自動リダイレクトが自動的に行われます。</t>
+          <t>AVD は非リージョン サービスであり、ホスト プールは任意のリージョンに作成でき、最も近いフロントエンドからの自動リダイレクトが自動的に行われます。</t>
         </is>
       </c>
       <c r="E59" s="21" t="inlineStr">
@@ -3704,12 +3704,12 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>選択したリージョンの特定の VM サイズと種類の Azure クォータと可用性を確認する</t>
+          <t>選択したリージョンの特定の VM のサイズと種類の Azure のクォータと可用性を確認する</t>
         </is>
       </c>
       <c r="D61" s="21" t="inlineStr">
         <is>
-          <t>特定の VM SKU を確認し (特に GPU またはハイスペックの SKU が必要な場合は)、最終的には Azure NetApp Files を使用します。</t>
+          <t>特定の VM SKU (特に GPU またはハイスペックの SKU が必要な場合は) を確認し、最終的には Azure NetApp Files (使用されている場合) を確認します。</t>
         </is>
       </c>
       <c r="E61" s="21" t="inlineStr">
@@ -3748,17 +3748,17 @@
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>AVD ホスト プールに近い Azure VNet 環境に少なくとも 2 つのアクティブ ディレクトリ ドメイン コントローラー (DC) を作成する</t>
+          <t>AVD ホスト プールに近い Azure VNet 環境に少なくとも 2 つの Active Directory ドメイン コントローラー (DC) を作成します</t>
         </is>
       </c>
       <c r="D62" s="21" t="inlineStr">
         <is>
-          <t>AVD セッションホストにログインするユーザーのレイテンシーを短縮し、最終的には Azure NetApp Files と AD 統合のために、Azure の AD DC (異なる AZ に少なくとも 2 つ)することをお勧めします。DC は、すべての子ドメインの DC と通信できる必要があります。別の方法として、オンプレミス接続を使用して AD DC に到達する必要があります。</t>
+          <t>Azure の AD DC は、AVD セッション ホストにログインするユーザーの待機時間を短縮し、最終的には Azure NetApp Files と AD 統合のために推奨されます (異なる AZ に少なくとも 2 つ)。DC は、すべての子ドメインの DC と通信できる必要があります。別の方法として、オンプレミス接続を使用して AD DC に到達する必要があります。</t>
         </is>
       </c>
       <c r="E62" s="21" t="inlineStr">
@@ -3797,17 +3797,17 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>ホスト プールごとにアクティブ ディレクトリに特定の OU を作成する</t>
+          <t>ホスト プールごとに Active Directory に特定の OU を作成するCreate a specific OU in Active Directory for each Host Pool</t>
         </is>
       </c>
       <c r="D63" s="21" t="inlineStr">
         <is>
-          <t>別の OU 階層の下にホスト プールごとに個別の OU を作成することをお勧めします。これらの OU には、AVD セッションホストのマシンアカウントが含まれます。</t>
+          <t>ホスト プールごとに個別の OU を個別の OU 階層の下に作成することをお勧めします。これらの OU には、AVD セッションホストのマシン アカウントが含まれます。</t>
         </is>
       </c>
       <c r="E63" s="21" t="inlineStr">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="D64" s="21" t="inlineStr">
         <is>
-          <t>慎重に確認し、AVD ホストプールを含む OU への GPO の継承をブロック/フィルタリングする可能性があります。</t>
+          <t>AVD ホスト プールを含む OU への GPO の継承を慎重に確認し、場合によってはブロックまたはフィルター処理します。</t>
         </is>
       </c>
       <c r="E64" s="21" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="D65" s="21" t="inlineStr">
         <is>
-          <t>Active Directory ドメイン GPO を使用する場合は、「詳細情報」列の関連記事で参照されている組み込みの GPO ADMX テンプレートを使用して FSLogix を構成することをお勧めします。</t>
+          <t>Active Directory ドメインの GPO を使用する場合は、関連記事の「詳細」列で参照されている組み込みの GPO ADMX テンプレートを使用して FSLogix を構成することをお勧めします</t>
         </is>
       </c>
       <c r="E65" s="21" t="inlineStr">
@@ -3947,17 +3947,17 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>VM をドメインに参加させるためのアクセス許可のみを持つ専用ユーザー アカウントを作成する</t>
+          <t>VM をドメインに参加させるためのアクセス許可のみを持つ専用ユーザー アカウントを作成します</t>
         </is>
       </c>
       <c r="D66" s="21" t="inlineStr">
         <is>
-          <t>最小限の権限を持ち、デフォルトの10回の参加制限のない特定の専用アカウントを使用することをお勧めします。詳細については、関連記事を参照してください。</t>
+          <t>最小限のアクセス許可を持ち、既定の 10 回の参加制限のない特定の専用アカウントを持つことをお勧めします。詳細については、関連記事を参照してください。</t>
         </is>
       </c>
       <c r="E66" s="21" t="inlineStr">
@@ -3996,17 +3996,17 @@
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>各ホスト プール アプリケーション グループ (DAG または RAG) へのアクセスが許可されるユーザーのセットごとにドメイン ユーザー グループを作成します。</t>
+          <t>各ホスト プール アプリケーション グループ (DAG または RAG) へのアクセス権を付与するユーザーのセットごとにドメイン ユーザー グループを作成します</t>
         </is>
       </c>
       <c r="D67" s="21" t="inlineStr">
         <is>
-          <t>ユーザーごとにアクセスを許可するのではなく、AD グループを使用し、Microsoft Entra ID (以前の Azure AD) の Active Directory コネクタ (ADC) を使用してレプリケートします。</t>
+          <t>ユーザーごとにアクセス権を付与するのではなく、AD グループを使用し、Microsoft Entra ID (旧称 Azure AD) の Active Directory コネクタ (ADC) を使用してレプリケートします。</t>
         </is>
       </c>
       <c r="E67" s="21" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="D68" s="21" t="inlineStr">
         <is>
-          <t>Azure Files Active Directory (AD) 統合を使用する場合は、構成手順の一部として、ストレージ アカウント (ファイル共有) を表す AD アカウントが作成されます。コンピューター アカウントまたはサービス ログオン アカウントとして登録することを選択できます (詳細については、FAQ を参照してください)。コンピューター アカウントの場合、AD には既定のパスワードの有効期限が 30 日に設定されています。同様に、サービス ログオン アカウントには、AD ドメインまたは組織単位 (OU) に既定のパスワード有効期限が設定されている場合があります。どちらのアカウントの種類でも、AD 環境で構成されているパスワードの有効期限を確認し、パスワードの最大有効期間の前に AD アカウントのストレージ アカウント ID のパスワードを更新することを計画することをお勧めします。AD に新しい AD 組織単位 (OU) を作成し、それに応じてコンピューター アカウントまたはサービス ログオン アカウントのパスワード有効期限ポリシーを無効にすることを検討できます。</t>
+          <t>Azure Files Active Directory (AD) 統合を使用する場合は、構成手順の一部として、ストレージ アカウント (ファイル共有) を表す AD アカウントが作成されます。コンピューター アカウントまたはサービス ログオン アカウントとして登録することを選択できます (詳細については、「FAQ」を参照してください)。コンピューター アカウントの場合、AD には既定のパスワードの有効期限が 30 日に設定されています。同様に、サービス ログオン アカウントには、AD ドメインまたは組織単位 (OU) に既定のパスワードの有効期限が設定されている場合があります。どちらの種類のアカウントでも、AD 環境で構成されているパスワードの有効期限を確認し、パスワードの最大有効期間の前に AD アカウントのストレージ アカウント ID のパスワードを更新することをお勧めします。AD で新しい AD 組織単位 (OU) を作成し、それに応じてコンピューター アカウントまたはサービス ログオン アカウントのパスワード有効期限ポリシーを無効にすることを検討できます。</t>
         </is>
       </c>
       <c r="E68" s="21" t="inlineStr">
@@ -4096,17 +4096,17 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Windows Server Active Directory フォレスト/ドメインは、Microsoft Entra ID と同期している必要があります。</t>
+          <t>Windows Server Active Directory フォレスト/ドメインは、Microsoft Entra ID と同期している必要があります</t>
         </is>
       </c>
       <c r="D69" s="21" t="inlineStr">
         <is>
-          <t>これは、Active Directory Connect (ADC) または Azure AD ドメイン サービス (ハイブリッド組織またはクラウド組織の場合) を使用して構成できます。Microsoft Entra ID は、Azure Active Directory (Azure AD) の新しい名前です。</t>
+          <t>これは、Active Directory Connect (ADC) または Azure AD Domain Services (ハイブリッド組織またはクラウド組織の場合) を使用して構成できます。Microsoft Entra ID は、Azure Active Directory (Azure AD) の新しい名前です。</t>
         </is>
       </c>
       <c r="E69" s="21" t="inlineStr">
@@ -4146,17 +4146,17 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>マイクロソフト エントラ ID</t>
+          <t>Microsoft Entra ID</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID (以前の Azure AD) Kerberos 認証の Azure Files Share を Microsoft Entra ID Join シナリオ用に構成する</t>
+          <t>Microsoft Entra ID Joined シナリオで Microsoft Entra ID (旧称 Azure AD) Kerberos 認証用に Azure Files 共有を構成する</t>
         </is>
       </c>
       <c r="D70" s="21" t="inlineStr">
         <is>
-          <t>Azure Files が使用され、前提条件が満たされている場合は、(Microsoft Entra ID) Kerberos 認証を構成することをお勧めします。この構成により、ドメイン コントローラーへのネットワーク通信を必要とせずに、Azure AD 参加済みセッション ホストからハイブリッド ユーザー ID でアクセスできる FSLogix プロファイルを格納できます。</t>
+          <t>Azure Files を使用していて、前提条件を満たすことができる場合は、(Microsoft Entra ID) Kerberos 認証を構成することをお勧めします。この構成により、ドメイン コントローラーへのネットワーク通信経路を必要とせずに、Azure AD に参加しているセッション ホストからハイブリッド ユーザー ID からアクセスできる FSLogix プロファイルを格納できます。</t>
         </is>
       </c>
       <c r="E70" s="21" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="D71" s="21" t="inlineStr">
         <is>
-          <t>Azure サブスクリプションは、Windows Server Active Directory ドメイン サービスまたは Microsoft Entra ID ドメイン サービス インスタンスを含む、または接続されている仮想ネットワークを含む、同じ Microsoft Entra ID (以前の Azure AD) テナントの親である必要があります。</t>
+          <t>Azure サブスクリプションは、Windows Server Active Directory Domain Services または Microsoft Entra ID Domain Services インスタンスを含む、または接続されている仮想ネットワークを含む、同じ Microsoft Entra ID (旧称 Azure AD) テナントを親にする必要があります。</t>
         </is>
       </c>
       <c r="E71" s="21" t="inlineStr">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="D72" s="21" t="inlineStr">
         <is>
-          <t>Azure 仮想デスクトップでは、選択した構成に応じてさまざまな種類の ID がサポートされています。「詳細情報」の記事に記載されているサポートされているシナリオを確認し、それに応じて「コメント」列に設計上の決定を文書化してください。重要なことに、外部 ID (B2B または B2C) はサポートされていません。https://learn.microsoft.com/en-us/azure/virtual-desktop/prerequisites?tabs=portal#supported-identity-scenarios でサポートされているシナリオの一覧も必ず確認してください。</t>
+          <t>Azure Virtual Desktop では、選択した構成に応じて、さまざまな種類の ID がサポートされます。「詳細情報」の記事に記載されているサポートされているシナリオを確認し、それに応じて設計上の決定を「コメント」列に文書化してください。重要なのは、外部 ID (B2B または B2C) がサポートされていないことです。https://learn.microsoft.com/azure/virtual-desktop/prerequisites?tabs=portal#supported-identity-scenarios でサポートされているシナリオの一覧も必ず確認してください。</t>
         </is>
       </c>
       <c r="E72" s="21" t="inlineStr">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="D73" s="21" t="inlineStr">
         <is>
-          <t>ユーザーには、Microsoft Entra ID (以前の Azure AD) にあるアカウントが必要です。Azure Virtual Desktop のデプロイで AD DS または Azure AD ドメイン サービスも使用している場合、これらのアカウントはハイブリッド ID である必要があり、ユーザー アカウントが同期されていることを意味します。AD DS で Microsoft Entra ID を使用している場合は、AD DS と Microsoft Entra ID の間でユーザー ID データを同期するように Azure AD Connect を構成する必要があります。Azure AD Domain Services で Microsoft Entra ID を使用している場合、ユーザー アカウントは Microsoft Entra ID から Azure AD Domain Services に一方向で同期されます。この同期プロセスは自動的に行われます。AVD は、Microsoft Entra ID ネイティブ アカウントもサポートしていますが、いくつかの制限があります。外部 ID (B2B または B2C) はサポートされていません。</t>
+          <t>ユーザーには、Microsoft Entra ID (旧称 Azure AD) のアカウントが必要です。Azure Virtual Desktop のデプロイで AD DS または Azure AD Domain Services も使用している場合、これらのアカウントはハイブリッド ID である必要があり、これはユーザー アカウントが同期されていることを意味します。AD DS で Microsoft Entra ID を使用している場合は、AD DS と Microsoft Entra ID の間でユーザー ID データを同期するように Azure AD Connect を構成する必要があります。Azure AD Domain Services で Microsoft Entra ID を使用している場合、ユーザー アカウントは Microsoft Entra ID から Azure AD Domain Services への一方向で同期されます。この同期プロセスは自動的に行われます。AVD は、いくつかの制限付きで Microsoft Entra ID ネイティブ アカウントもサポートしています。外部 ID (B2B または B2C) はサポートされていません。</t>
         </is>
       </c>
       <c r="E73" s="21" t="inlineStr">
@@ -4351,12 +4351,12 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>シングル サインオン (SSO) が必要な場合は、サポートされているシナリオと前提条件を確認してください</t>
+          <t>シングル サインオン (SSO) が要件である場合は、サポートされているシナリオと前提条件を確認してください</t>
         </is>
       </c>
       <c r="D74" s="21" t="inlineStr">
         <is>
-          <t>AVD は、Active Directory Federation Services (AD FS) または Microsoft Entra ID(以前の Azure AD) 認証のいずれかを使用した SSO をサポートしています。後者をお勧めしますので、「詳細情報」の記事で要件と制限を確認してください。AD FS の使用は、お客様の環境にすでに存在する場合は実行可能な選択肢となる可能性があるため、AVD SSO 実装のためだけに新しい ADFS インフラストラクチャを展開することはお勧めしません。</t>
+          <t>AVD は、Active Directory フェデレーション サービス (AD FS) または Microsoft Entra ID (旧称 Azure AD) 認証を使用した SSO をサポートします。後者をお勧めしますので、「詳細情報」の記事で要件と制限を確認してください。AD FS の使用は、お客様の環境に既に存在する場合は実行可能な選択肢となる可能性がありますが、AVD SSO 実装のためだけにまったく新しい ADFS インフラストラクチャを展開することはお勧めしません。</t>
         </is>
       </c>
       <c r="E74" s="21" t="inlineStr">
@@ -4401,12 +4401,12 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>適切な AVD セッションホストドメイン参加タイプの選択</t>
+          <t>適切な AVD セッション ホストのドメイン参加タイプを選択します</t>
         </is>
       </c>
       <c r="D75" s="21" t="inlineStr">
         <is>
-          <t>VM は、Windows Active Directory (AD) ドメイン参加済み、ハイブリッド AD 参加済み、Microsoft Entra ID (以前の Azure AD) 参加済み、または Azure AD ドメイン サービスに参加している場合があります。サポートされているシナリオ、制限事項、および要件については、参照されている記事から確認してください。</t>
+          <t>VM は、Windows Active Directory (AD) ドメイン参加済み、ハイブリッド AD 参加済み、Microsoft Entra ID (旧称 Azure AD) 参加済み、または Azure AD Domain Services 参加済みにすることができます。参照されている記事のサポートされているシナリオ、制限事項、要件を必ず確認してください。</t>
         </is>
       </c>
       <c r="E75" s="21" t="inlineStr">
@@ -4451,12 +4451,12 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>AVD に Azure AD ドメイン サービス (AAD-DS) を使用する前に、制限事項を確認してください。</t>
+          <t>AVD に Azure AD Domain Services (AAD-DS) を使用する前に、必ず制限事項を確認してください。</t>
         </is>
       </c>
       <c r="D76" s="21" t="inlineStr">
         <is>
-          <t>セルフマネージド型の Windows Active Directory Domain Services、Microsoft Entra ID (旧 Azure AD)、マネージド型の Azure AD Domain Services (AAD-DS) を比較する</t>
+          <t>自己管理型 Windows Active Directory Domain Services、Microsoft Entra ID (旧称 Azure AD)、マネージド Azure AD Domain Services (AAD-DS) の比較</t>
         </is>
       </c>
       <c r="E76" s="21" t="inlineStr">
@@ -4501,12 +4501,12 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>AVD 設定の構成に組み込みの管理用テンプレートを使用する</t>
+          <t>付属の組み込み管理用テンプレートを使用して AVD 設定の構成を行う</t>
         </is>
       </c>
       <c r="D77" s="21" t="inlineStr">
         <is>
-          <t>AVD は、Intune および Active Directory GPO 用の管理用テンプレートを提供します。これらのテンプレートを使用すると、グラフィックス関連のデータロギング、画面キャプチャ保護、管理対象ネットワークのRDPショートパス、透かしなど、いくつかのAVD構成設定を集中的に制御できます。詳細については、「詳細情報」コラムの関連記事を参照してください。注: FSLogix には独自のテンプレートがあります。</t>
+          <t>AVD には、Intune と Active Directory GPO 用の管理用テンプレートが用意されています。これらのテンプレートを使用すると、グラフィックス関連のデータ ログ、画面キャプチャ保護、マネージド ネットワークの RDP Shortpath、ウォーターマークなど、複数の AVD 構成設定を一元的に制御できます。詳細については、「詳細情報」列の関連記事を参照してください。注: FSLogix には、独自の個別のテンプレートがあります。</t>
         </is>
       </c>
       <c r="E77" s="21" t="inlineStr">
@@ -4551,12 +4551,12 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>AVD セッションホストの構成管理戦略の計画</t>
+          <t>AVD セッションホストの構成管理戦略を計画する</t>
         </is>
       </c>
       <c r="D78" s="21" t="inlineStr">
         <is>
-          <t>初期展開後にホスト プール VM の構成を管理するための構成管理ツールが既に配置されているかどうかを確認します (SCCM/SCOM、Intune/ConfigurationManager、第 3 パーティのソリューションなど)。</t>
+          <t>初期デプロイ後にホスト プール VM 構成を管理するための構成管理ツール (SCCM/SCOM、Intune/ConfigurationManager、サード パーティ ソリューションなど) が既に配置されているかどうかを確認します。</t>
         </is>
       </c>
       <c r="E78" s="21" t="inlineStr">
@@ -4601,12 +4601,12 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>AVD セッション ホスト管理のための Intune の評価</t>
+          <t>Intune for AVD セッション ホストの管理を評価する</t>
         </is>
       </c>
       <c r="D79" s="21" t="inlineStr">
         <is>
-          <t>要件を満たすことができる場合は、Microsoft Intune を使用して Azure 仮想デスクトップ環境を管理することをお勧めします。AVD セッション ホスト管理用に Intune を有効にするためのサポートされているシナリオと要件については、「詳細情報」列の参照記事を参照してください。[コメント] 列に選択内容を記入します。この記事では、シングルセッション https://learn.microsoft.com/en-us/mem/intune/fundamentals/windows-virtual-desktop とマルチセッション https://learn.microsoft.com/en-us/mem/intune/fundamentals/windows-virtual-desktop-multi-session AVD のさまざまな要件と機能を確認します。</t>
+          <t>要件を満たすことができる場合は、Microsoft Intune を使用して Azure Virtual Desktop 環境を管理することをお勧めします。AVD セッション ホスト管理のために Intune を有効にするためにサポートされているシナリオと要件については、参照されている記事の [詳細情報] 列を参照してください。選択内容を「コメント」列に記入します。その記事では、シングルセッション https://learn.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop とマルチセッション https://learn.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session AVD のさまざまな要件と機能を確認してください。</t>
         </is>
       </c>
       <c r="E79" s="21" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="D80" s="21" t="inlineStr">
         <is>
-          <t>スケーリング ツールは、セッション ホスト VM のコストを最適化したいお客様向けに、低コストの自動化オプションを提供します。スケーリング ツールを使用して、ピーク時とオフピーク時の営業時間に基づいて VM を起動および停止するようにスケジュールしたり、CPU コアあたりのセッション数に基づいて VM をスケールアウトしたり、オフピーク時に VM をスケールインしたりして、セッション ホスト VM の最小数を実行したままにすることができます。パーソナルホストプールタイプではまだ使用できません。</t>
+          <t>スケーリング ツールは、セッション ホスト VM のコストを最適化したいお客様に低コストの自動化オプションを提供します。スケーリング ツールを使用して、ピーク時とオフピーク時の営業時間に基づいて VM の開始と停止をスケジュールしたり、CPU コアあたりのセッション数に基づいて VM をスケールアウトしたり、オフピーク時に VM をスケールインしたりして、セッション ホスト VM の最小数を実行したままにすることができます。個人用ホスト プールの種類ではまだ使用できません。</t>
         </is>
       </c>
       <c r="E80" s="21" t="inlineStr">
@@ -4701,12 +4701,12 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>個人用ホスト プールの接続時に VM を起動する の使用を検討する</t>
+          <t>個人用ホストプールの Connect での VM の起動の使用を検討する</t>
         </is>
       </c>
       <c r="D81" s="21" t="inlineStr">
         <is>
-          <t>VM On Connect を起動すると、エンド ユーザーが必要なときにのみセッション ホスト仮想マシン (VM) をオンにできるようにすることで、コストを削減できます。その後、不要なときに VM をオフにすることができます。Azure ポータルまたは PowerShell を使用して、個人用またはプールされたホスト プールに対して接続時に VM を起動するように構成できます。[接続時に VM を起動する] は、ホスト プール全体の設定です。</t>
+          <t>Start VM On Connect を使用すると、エンド ユーザーが必要なときにのみセッション ホスト仮想マシン (VM) をオンにできるようにすることで、コストを削減できます。その後、不要な VM をオフにすることができます。個人用またはプールされたホスト プールの Start VM on Connect は、Azure portal または PowerShell を使用して構成できます。[Start VM on Connect](接続時に VM を起動する) は、ホスト プール全体の設定です。</t>
         </is>
       </c>
       <c r="E81" s="21" t="inlineStr">
@@ -4751,12 +4751,12 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>パーソナル AVD セッションホストをシャットダウンするアドホックメカニズムの実装を評価する</t>
+          <t>アドホック メカニズムの実装を評価して、パーソナル AVD セッション ホストをシャットダウンします</t>
         </is>
       </c>
       <c r="D82" s="21" t="inlineStr">
         <is>
-          <t>「接続時にVMを起動する」は、以前に停止したセッションホストを自動的に起動するスマートな方法を提供しますが、使用されていないときにシャットダウンするメカニズムは提供しません。管理者は、追加のポリシーを構成してユーザーをセッションからサインアウトし、Azure 自動化スクリプトを実行して VM の割り当てを解除することをお勧めします。 Azure VM の割り当てを解除できないため、ユーザーは個人用ホストをシャットダウンできないようにする必要があります。</t>
+          <t>「Start VM On Connect」は、以前に停止したセッションホストを自動的に起動するスマートな方法を提供しますが、使用されていないときにシャットダウンするメカニズムは提供しません。管理者は、追加のポリシーを構成して、ユーザーをセッションからサインアウトし、Azure Automation スクリプトを実行して VM の割り当てを解除することをお勧めします。 ユーザーは Azure VM の割り当てを解除できないため、個人用ホストをシャットダウンすることはできませんが、その場合、コスト削減なしで課金は引き続き有効になります。</t>
         </is>
       </c>
       <c r="E82" s="21" t="inlineStr">
@@ -4801,12 +4801,12 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Azure 仮想デスクトップ用に推奨される Azure タグを確認して採用する</t>
+          <t>Azure Virtual Desktop に推奨される Azure タグを確認して導入する</t>
         </is>
       </c>
       <c r="D83" s="21" t="inlineStr">
         <is>
-          <t>Azure Virtual Desktop の課金は、主にホスト プールによって消費されるコンピューティング、ネットワーク、およびストレージ リソースに関連するコストに基づきます。これに加えて、コストは、VPN や ExpressRoute や vWAN、Active Directory ドメイン コントローラー、DNS などの依存リソースによって生成される可能性があります。ワークスペース、ホストプール、アプリケーショングループなどの AVD オブジェクトに関連する直接コストはありません。AVD に関連するコストをより明確にし、ホスト プールごとにグループ化するには、「cm-resource-parent」タグを使用することをお勧めします。</t>
+          <t>Azure Virtual Desktop の課金は、主に、ホスト プールによって消費されるコンピューティング、ネットワーク、ストレージ リソースに関連するコストに基づいています。これに加えて、VPN、ExpressRoute、vWAN、Active Directory ドメイン コントローラー、DNS などの依存リソースによってコストが発生する可能性があります。ワークスペース、ホストプール、アプリケーション グループなどの AVD オブジェクトに関連する直接コストはありません。AVD 関連のコストをより明確にし、ホスト プールごとにグループ化するには、「cm-resource-parent」タグを使用することをお勧めします。</t>
         </is>
       </c>
       <c r="E83" s="21" t="inlineStr">
@@ -4851,12 +4851,12 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>AVD に関する Azure アドバイザーの推奨事項を定期的に確認する</t>
+          <t>AVD に関する Azure Advisor の推奨事項を定期的に確認する</t>
         </is>
       </c>
       <c r="D84" s="21" t="inlineStr">
         <is>
-          <t>Azure Advisor は、構成とテレメトリを分析して、一般的な問題を解決するためのパーソナライズされた推奨事項を提供します。これらの推奨事項を使用すると、信頼性、セキュリティ、オペレーショナル エクセレンス、パフォーマンス、コストに関して Azure リソースを最適化できます。</t>
+          <t>Azure Advisor は、構成とテレメトリを分析して、一般的な問題を解決するためのパーソナライズされた推奨事項を提供します。これらの推奨事項を使用すると、信頼性、セキュリティ、オペレーショナル エクセレンス、パフォーマンス、コストのために Azure リソースを最適化できます。</t>
         </is>
       </c>
       <c r="E84" s="21" t="inlineStr">
@@ -4901,12 +4901,12 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>セッションホストの緊急パッチ適用と更新戦略を計画する</t>
+          <t>セッション ホストの緊急パッチ適用と更新戦略を計画する</t>
         </is>
       </c>
       <c r="D85" s="21" t="inlineStr">
         <is>
-          <t>お客様にはいくつかのオプションがあります。 Microsoft 構成マネージャー、この記事では、Windows 10/11: https://learn.microsoft.com/en-us/azure/virtual-desktop/configure-automatic-updates、Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session、Azure Update Management、および Windows Server OS のみの WSUS を実行している Azure 仮想デスクトップ セッション ホストに更新プログラムを自動的に適用する方法について説明します (クライアント OS はサポートされていません)。 https://learn.microsoft.com/en-us/azure/automation/update-management/operating-system-requirements)、第三者のツール。緊急のセキュリティパッチ適用状況以外では、「インプレース」更新戦略パッチ適用戦略から離れ、再イメージングアプローチを採用することをお勧めします。</t>
+          <t>お客様にはいくつかのオプションがあります。 Microsoft Configuration Manager、この記事では、Windows 10/11 を実行している Azure Virtual Desktop セッション ホストに更新プログラムを自動的に適用する方法について説明します: https://learn.microsoft.com/azure/virtual-desktop/configure-automatic-updates、Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session、Azure Update Management、WSUS for Windows Server OS のみ (クライアント OS はサポートされていません。 https://learn.microsoft.com/azure/automation/update-management/operating-system-requirements)、3rdパーティツール。緊急のセキュリティ修正プログラムの適用状況以外では、"インプレース" 更新戦略の修正プログラムの適用戦略から離れ、再イメージ化アプローチを採用することをお勧めします。</t>
         </is>
       </c>
       <c r="E85" s="21" t="inlineStr">
@@ -4951,12 +4951,12 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>スケジュールされたエージェント更新機能の構成</t>
+          <t>スケジュールされたエージェント更新機能を構成する</t>
         </is>
       </c>
       <c r="D86" s="21" t="inlineStr">
         <is>
-          <t>スケジュールされたエージェントアップデート機能を使用すると、ホストプールごとに最大 2 つのメンテナンスウィンドウを作成して、都合の良いときに AVD コンポーネントを更新できます。メンテナンスウィンドウを指定すると、セッションホストのアップグレードは営業時間のピーク時に行われません。スケジュールされたエージェントのアップデートは、デフォルトでは無効になっています。つまり、この設定を有効にしない限り、エージェント更新フライティングサービスによってエージェントをいつでも更新できます。</t>
+          <t>スケジュールされたエージェントの更新機能を使用すると、ホスト プールごとに最大 2 つのメンテナンス ウィンドウを作成して、都合の良いときに AVD コンポーネントを更新できます。メンテナンス期間を指定して、セッション ホストのアップグレードが営業時間のピーク時に行われないようにすることをお勧めします。スケジュールされたエージェントの更新は、デフォルトでは無効になっています。つまり、この設定を有効にしない限り、エージェントはエージェント更新フライティング サービスによっていつでも更新できます。</t>
         </is>
       </c>
       <c r="E86" s="21" t="inlineStr">
@@ -5001,12 +5001,12 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>検証 (カナリア) ホスト プールを作成する</t>
+          <t>検証 (カナリア) ホスト プールを作成するCreate a validation (Canary) Host Pool</t>
         </is>
       </c>
       <c r="D87" s="21" t="inlineStr">
         <is>
-          <t>ホスト プールは、Azure 仮想デスクトップ環境内の 1 つ以上の同一の仮想マシンのコレクションです。サービス更新プログラムが最初に適用される検証ホスト プールを作成することを強くお勧めします。これにより、サービスの更新を標準環境または非検証環境に適用する前に監視できます。</t>
+          <t>ホスト プールは、Azure Virtual Desktop 環境内の 1 つ以上の同一の仮想マシンのコレクションです。サービスの更新が最初に適用される検証ホスト プールを作成することを強くお勧めします。これにより、サービスが標準環境または非検証環境に適用する前に、サービスの更新を監視できます。</t>
         </is>
       </c>
       <c r="E87" s="21" t="inlineStr">
@@ -5051,12 +5051,12 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>ホスト プールの展開戦略を決定する</t>
+          <t>ホスト プールのデプロイ戦略を決定する</t>
         </is>
       </c>
       <c r="D88" s="21" t="inlineStr">
         <is>
-          <t>AVD ホスト プールは、Azure ポータル、ARM テンプレート、Azure CLI ツール、Powershell、登録トークンを使用した手動 VM 作成、Terraform、3 番目のパーティ製ツールなど、いくつかの方法で展開できます。自動化および CI/CD ツールによる自動デプロイをサポートするために、適切な方法を採用することが重要です。</t>
+          <t>AVD ホスト プールは、Azure Portal、ARM テンプレート、Azure CLI ツール、Powershell、登録トークンを使用した手動 VM 作成、Terraform、サードパーティ ツールなど、いくつかの方法でデプロイできます。自動化ツールと CI/CD ツールによる自動デプロイをサポートするには、適切な方法を採用することが重要です。</t>
         </is>
       </c>
       <c r="E88" s="21" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>トークンの更新のために少なくとも 90 日ごとにセッション ホスト VM をオンにする</t>
+          <t>トークンの更新のために少なくとも 90 日ごとにセッション ホスト VM を有効にするTurn on Session Host VMs at least 90 days for token refresh</t>
         </is>
       </c>
       <c r="D89" s="21" t="inlineStr">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="D90" s="21" t="inlineStr">
         <is>
-          <t>Azure Virtual Desktop Insights は、Azure Monitor ブック上に構築されたダッシュボードであり、IT プロフェッショナルが Azure Virtual Desktop 環境を理解するのに役立ちます。AVD 環境を監視するように Azure 仮想デスクトップ用 Azure Monitor を設定する方法については、参照されている記事をお読みください。</t>
+          <t>Azure Virtual Desktop 分析情報は、IT プロフェッショナルが Azure Virtual Desktop 環境を理解するのに役立つ、Azure Monitor ブック上に構築されたダッシュボードです。AVD 環境を監視するために Azure Virtual Desktop 用に Azure Monitor を設定する方法については、参照されている記事をお読みください。</t>
         </is>
       </c>
       <c r="E90" s="21" t="inlineStr">
@@ -5201,12 +5201,12 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>ワークスペース、ホスト プール、アプリケーション グループ、および Log Analytics ワークスペースへのホスト VM の診断設定を有効にする</t>
+          <t>ワークスペース、ホスト プール、アプリケーション グループ、ホスト VM の診断設定を Log Analytics ワークスペースで有効にする</t>
         </is>
       </c>
       <c r="D91" s="21" t="inlineStr">
         <is>
-          <t>Azure Virtual Desktop では、他の多くの Azure サービスと同様に、監視とアラートに Azure Monitor と Log Analytics が使用されます。これにより、管理者は単一のインターフェイスから問題を特定できます。このサービスは、ユーザー操作と管理者操作の両方のアクティビティ ログを作成します。 各アクティビティ ログは、管理、フィード、接続、ホスト登録、エラー、チェックポイントのカテゴリに分類されます。</t>
+          <t>Azure Virtual Desktop では、他の多くの Azure サービスと同様に、監視とアラートに Azure Monitor と Log Analytics を使用します。これにより、管理者は 1 つのインターフェイスで問題を特定できます。このサービスは、ユーザー操作と管理操作の両方のアクティビティ ログを作成します。 各アクティビティ ログは、管理、フィード、接続、ホスト登録、エラー、チェックポイントのカテゴリに分類されます。</t>
         </is>
       </c>
       <c r="E91" s="21" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>プロファイルストレージにアラートを作成して、使用率とスロットリングが高い場合にアラートを受け取る</t>
+          <t>プロファイルストレージに関するアラートを作成して、使用率が高く、調整された場合にアラートを受け取る</t>
         </is>
       </c>
       <c r="D92" s="21" t="inlineStr">
         <is>
-          <t>参照されている記事と、ストレージの適切な監視とアラートを設定するには、次の追加の記事を参照してください。 https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance。</t>
+          <t>ストレージの適切な監視とアラートを設定するには、参照されている記事とこの追加の記事を参照してください: https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance。</t>
         </is>
       </c>
       <c r="E92" s="21" t="inlineStr">
@@ -5301,12 +5301,12 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>AVD アラートの Azure サービス正常性を構成する</t>
+          <t>AVD アラート用に Azure Service Health を構成する</t>
         </is>
       </c>
       <c r="D93" s="21" t="inlineStr">
         <is>
-          <t>Azure サービス正常性を使用して、Azure 仮想デスクトップのサービスの問題と正常性アドバイザリを監視できます。Azure Service Health では、さまざまな種類のアラート (電子メールや SMS など) で通知し、問題の影響を理解し、問題の解決時に最新情報を入手できます。</t>
+          <t>Azure Service Health を使用して、Azure Virtual Desktop のサービスの問題と正常性アドバイザリを監視できます。Azure Service Health では、さまざまな種類のアラート (電子メールや SMS など) で通知し、問題の影響を理解し、問題が解決したときに最新情報を入手できます。</t>
         </is>
       </c>
       <c r="E93" s="21" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="D94" s="21" t="inlineStr">
         <is>
-          <t>オンプレミス環境に接続する必要がある場合は、現在の接続オプションを評価するか、必要な接続 (ExpressRoute、Azure S2S、または第 3 パーティの NVA VPN) を計画します。</t>
+          <t>オンプレミス環境に接続する必要がある場合は、現在の接続オプションを評価するか、必要な接続 (ExpressRoute、Azure S2S、またはサード パーティの NVA VPN) を計画します。</t>
         </is>
       </c>
       <c r="E94" s="21" t="inlineStr">
@@ -5401,12 +5401,12 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>各 AVD ホスト プールの Azure 仮想ネットワーク (VNet) の配置を決定する</t>
+          <t>各 AVD ホスト プールの Azure Virtual Network (VNet) の配置を決定する</t>
         </is>
       </c>
       <c r="D95" s="21" t="inlineStr">
         <is>
-          <t>AVD ホスト プールは、Azure Virtual WAN または従来の「ハブ&amp;スポーク」ネットワーク トポロジのいずれかにデプロイできます。各ホスト プールを個別の "スポーク" VNet にデプロイすることをお勧めしますが、"hub" を使用することはお勧めしません。</t>
+          <t>AVD ホスト プールは、Azure Virtual WAN または従来の "ハブ &amp; スポーク" ネットワーク トポロジのいずれかにデプロイできます。各ホスト プールを個別の "スポーク" VNet にデプロイすることをお勧めしますが、"ハブ" を使用することはお勧めしません。</t>
         </is>
       </c>
       <c r="E95" s="21" t="inlineStr">
@@ -5451,12 +5451,12 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>AVD ホストプールから必要なオンプレミスリソースを評価する</t>
+          <t>AVD ホストプールから必要なオンプレミス リソースを評価する</t>
         </is>
       </c>
       <c r="D96" s="21" t="inlineStr">
         <is>
-          <t>帯域幅要件を評価し、VPN/ER帯域幅が十分であることを確認し、適切なルーティングとファイアウォールルールが設定されていることを確認し、エンドツーエンドの遅延をテストします。</t>
+          <t>帯域幅要件を評価し、VPN/ER 帯域幅が十分であることを確認し、適切なルーティングとファイアウォール ルールが設定されていることを確認し、エンドツーエンドの待機時間をテストします。</t>
         </is>
       </c>
       <c r="E96" s="21" t="inlineStr">
@@ -5501,12 +5501,12 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>AVD ホストのインターネットアウトバウンドトラフィックを制御/制限する必要がありますか?</t>
+          <t>AVD ホストのインターネット アウトバウンド トラフィックを制御/制限する必要がありますか?</t>
         </is>
       </c>
       <c r="D97" s="21" t="inlineStr">
         <is>
-          <t>いくつかのオプションを使用できます。Azure Firewall または同等のサードパーティの NVA、ネットワーク セキュリティ グループ (NSG)、プロキシ サーバーを使用できます。NSG では、URL による有効化/無効化はできず、ポートとプロトコルのみが可能です。プロキシは、ユーザーブラウザの明示的な設定としてのみ使用する必要があります。AVD での Azure Firewall Premium の使用の詳細については、関連記事の「詳細情報」列で報告されています。必要な AVD URL への適切なアクセスを許可してください。オンプレミスへの強制トンネリングは推奨されません。</t>
+          <t>いくつかのオプションを使用できます。Azure Firewall または同等のサード パーティの NVA、ネットワーク セキュリティ グループ (NSG)、プロキシ サーバーを使用できます。NSG では、URL による有効化/無効化はできず、ポートとプロトコルのみを有効化/無効化できます。プロキシは、ユーザーのブラウザーで明示的に設定するためにのみ使用する必要があります。AVD での Azure Firewall Premium の使用の詳細については、関連記事の「詳細情報」列を参照してください。必要な AVD URL への適切なアクセスを許可してください。オンプレミスへの強制トンネリングは推奨されません。</t>
         </is>
       </c>
       <c r="E97" s="21" t="inlineStr">
@@ -5522,7 +5522,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I97" s="15" t="n"/>
@@ -5551,12 +5551,12 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>AVD コントロールプレーンエンドポイントにアクセスできることを確認する</t>
+          <t>AVD コントロール プレーンのエンドポイントにアクセスできることを確認する</t>
         </is>
       </c>
       <c r="D98" s="21" t="inlineStr">
         <is>
-          <t>セッションホストによる AVD コントロールプレーンアクセスに必要な URL については、次の https://docs.microsoft.com/azure/virtual-desktop/safe-url-list を参照してください。セッション ホストからの接続を確認するためのチェック ツールを使用できます。 https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool。オンプレミスへの強制トンネリングは推奨されません。</t>
+          <t>セッションホストによる AVD コントロールプレーンアクセスに必要な URL については、https://docs.microsoft.com/azure/virtual-desktop/safe-url-list を参照してください。セッション ホストからの接続を確認するためのチェック ツールを使用できます: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool。オンプレミスへの強制トンネリングは推奨されません。</t>
         </is>
       </c>
       <c r="E98" s="21" t="inlineStr">
@@ -5601,12 +5601,12 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>AVD ホスト上のユーザに対してのみインターネットアウトバウンドトラフィックを制御/制限する必要がありますか?</t>
+          <t>AVD ホスト上のユーザーに対してのみ、インターネットの送信トラフィックを制御/制限する必要がありますか?</t>
         </is>
       </c>
       <c r="D99" s="21" t="inlineStr">
         <is>
-          <t>Azure Defender エンドポイントまたは同様の第三者エージェントを使用してユーザーの Web ナビゲーションを制御することを検討してください。詳細については、「セキュリティ」セクションを参照してください。</t>
+          <t>Azure Defender エンドポイントまたは同様のサード パーティ エージェントを使用してユーザーの Web ナビゲーションを制御することを検討してください (詳細については、「セキュリティ」セクションを参照してください)。</t>
         </is>
       </c>
       <c r="E99" s="21" t="inlineStr">
@@ -5651,12 +5651,12 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>AVD ホストプールサブネットのカスタム UDR および NSG を確認する</t>
+          <t>AVD ホスト プール サブネットのカスタム UDR と NSG を確認する</t>
         </is>
       </c>
       <c r="D100" s="21" t="inlineStr">
         <is>
-          <t>カスタム UDR と NSG は、Azure ファイアウォールや NVA へのリダイレクトや、ネットワーク トラフィックのフィルター処理/ブロックなど、AVD ホスト プール サブネットに適用できます。この場合、AVD コントロールプレーンへのアウトバウンドトラフィックの最適なパスが使用されていることを慎重に確認することをお勧めします。サービスタグをUDRおよびNSGで使用できるようになり、AVD管理プレーントラフィックを簡単に許可できるようになりました https://learn.microsoft.com/en-us/azure/virtual-desktop/safe-url-list。</t>
+          <t>カスタム UDR と NSG は、Azure Firewall や NVA へのリダイレクトや、ネットワーク トラフィックのフィルター処理やブロックなどのために、AVD ホスト プールのサブネットに適用できます。この場合、AVD コントロール プレーンへの送信トラフィックの最適なパスが使用されていることを確認するために、慎重に確認することをお勧めします。サービス タグを UDR と NSG で使用できるようになり、AVD 管理プレーンのトラフィックを簡単に許可できるようになりました https://learn.microsoft.com/azure/virtual-desktop/safe-url-list。</t>
         </is>
       </c>
       <c r="E100" s="21" t="inlineStr">
@@ -5701,12 +5701,12 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>AVD コントロールプレーントラフィックにプロキシサーバ、SSL ターミネーション、ディープパケットインスペクションを使用しないでください</t>
+          <t>AVD コントロール プレーン トラフィックにプロキシ サーバー、SSL ターミネーション、ディープ パケット インスペクションを使用しないでください</t>
         </is>
       </c>
       <c r="D101" s="21" t="inlineStr">
         <is>
-          <t>AVD セッションホスト VM から AVD コントロールプレーンへのネットワークトラフィックは、可能な限り直接的にする必要があります。ディープパケットインスペクションやSSLターミネーションを使用してプロキシまたはファイアウォールを介してこのトラフィックをリダイレクトすると、深刻な問題やカスタマーエクスペリエンスの低下を引き起こす可能性があります。AVD コントロールプレーンのためだけにプロキシとファイアウォールをバイパスすることを推奨します。代わりに、Webサーフィンを行うユーザー生成トラフィックは、ファイアウォールによってフィルタリングされるか、プロキシにリダイレクトされる必要があります。詳細とガイドラインについては、[詳細情報] 列の関連記事をご覧ください。</t>
+          <t>AVD セッション ホスト VM から AVD コントロール プレーンへのネットワーク トラフィックは、できるだけ直接的に行う必要があります。ディープ パケット インスペクションや SSL ターミネーションを使用してプロキシまたはファイアウォールを介してこのトラフィックをリダイレクトすると、深刻な問題が発生し、カスタマー エクスペリエンスが低下する可能性があります。プロキシとファイアウォールは、AVD コントロール プレーンのためだけにバイパスすることをお勧めします。代わりに、Webを閲覧するユーザー生成トラフィックは、ファイアウォールによってフィルタリングされるか、プロキシにリダイレクトされる必要があります。詳細とガイドラインについては、「詳細情報」列の関連記事を参照してください。</t>
         </is>
       </c>
       <c r="E101" s="21" t="inlineStr">
@@ -5751,12 +5751,12 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>VM SKU の各ユーザーおよび合計に必要なネットワーク帯域幅を確認する</t>
+          <t>各ユーザーに必要なネットワーク帯域幅と、VM SKU の合計を確認する</t>
         </is>
       </c>
       <c r="D102" s="21" t="inlineStr">
         <is>
-          <t>特定のワークロードの種類に基づいて、ユーザーのネットワーク帯域幅要件を評価および確認することをお勧めします。参照されている記事は一般的な見積もりと推奨事項を提供しますが、適切なサイズ設定には特定の手段が必要です。</t>
+          <t>特定のワークロードの種類に基づいて、ユーザーのネットワーク帯域幅要件を評価および確認することをお勧めします。参照されている記事には、一般的な見積もりと推奨事項が記載されていますが、適切なサイジングには特定の対策が必要です。</t>
         </is>
       </c>
       <c r="E102" s="21" t="inlineStr">
@@ -5801,12 +5801,12 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Azure ファイル共有のプライベート エンドポイントの使用状況を評価する</t>
+          <t>Azure Files 共有の使用状況プライベート エンドポイントを評価する</t>
         </is>
       </c>
       <c r="D103" s="21" t="inlineStr">
         <is>
-          <t>Azure Files SMB 共有を使用して FSLogix 経由でユーザー プロファイルを格納する場合は、ストレージへのプライベート アクセスにプライベート エンドポイント (PE) を使用することをお勧めします。AVD セッションホストは、同じ VNet 内のプライベート IP を使用してストレージにアクセスするため、別のサブネットをお勧めします。この機能には、評価が必要な追加コストがあります。PE を使用しない場合は、少なくともサービス エンドポイントをお勧めします (コストは関連付けられません)。</t>
+          <t>Azure Files SMB 共有を使用して FSLogix 経由でユーザー プロファイルを格納する場合は、ストレージへのプライベート アクセスにプライベート エンドポイント (PE) を使用することをお勧めします。AVD セッション ホストは、同じ VNet 内のプライベート IP を使用してストレージにアクセスするため、別のサブネットをお勧めします。この機能には、評価が必要な追加コストがあります。PE を使用しない場合は、少なくともサービス エンドポイントをお勧めします (コストはかかりません)。</t>
         </is>
       </c>
       <c r="E103" s="21" t="inlineStr">
@@ -5851,12 +5851,12 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>管理された内部ネットワークから接続するクライアントに対する RDP ShortPath の使用を評価する</t>
+          <t>管理された内部ネットワークから接続するクライアントの RDP ShortPath の使用状況を評価する</t>
         </is>
       </c>
       <c r="D104" s="21" t="inlineStr">
         <is>
-          <t>Azure 仮想デスクトップへの接続では、TCP または UDP を使用できます。RDP ショートパスは、サポートされている Windows リモートデスクトップクライアントとセッションホスト間の直接 UDP ベースのトランスポートを確立する AVD の機能です。クライアントが内部ネットワークから AVD セッションホストへの通信経路を持っている場合(VPN の使用は推奨されません)、https://learn.microsoft.com/en-us/azure/virtual-desktop/rdp-shortpath?tabs=managed-networks#key-benefits で説明されているように、この機能はより低い遅延と最高のパフォーマンスを提供できます。</t>
+          <t>Azure Virtual Desktop への接続には、TCP または UDP を使用できます。RDP Shortpath は、サポートされている Windows リモート デスクトップ クライアントとセッション ホストの間に直接 UDP ベースのトランスポートを確立する AVD の機能です。クライアントが内部ネットワークから AVD セッションホストを通信できる場合(VPN の使用は推奨されません)、この機能により、https://learn.microsoft.com/azure/virtual-desktop/rdp-shortpath?tabs=managed-networks#key-benefits で説明するように、レイテンシが低く、最高のパフォーマンスが得られます。</t>
         </is>
       </c>
       <c r="E104" s="21" t="inlineStr">
@@ -5896,17 +5896,17 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>アクティブディレクトリ</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>RDP セッションをセキュリティで保護するためのアクティブ ディレクトリ GPO の確認</t>
+          <t>Active Directory GPO を確認して RDP セッションをセキュリティで保護する</t>
         </is>
       </c>
       <c r="D105" s="21" t="inlineStr">
         <is>
-          <t>GPO によって提供されるセキュリティ メカニズムがある場合は、使用する必要があります。たとえば、デスクトップ画面ロックとアイドルセッション切断時間を課すことができます。オンプレミス環境に適用された既存の GPO を確認し、最終的にはドメインに参加したときに AVD ホストもセキュリティで保護するためにも適用する必要があります。</t>
+          <t>GPO によって提供されるセキュリティ メカニズムがある場合は、それを使用する必要があります。たとえば、デスクトップ画面のロックやアイドル状態のセッション切断時間を課すことができます。オンプレミス環境に適用されている既存の GPO を確認し、最終的にドメインに参加しているときに AVD ホストも保護するために適用する必要があります。</t>
         </is>
       </c>
       <c r="E105" s="21" t="inlineStr">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="D106" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Endpoint は、Windows 10/11 Enterprise マルチセッション用の Azure Virtual Desktop をサポートしています。非永続的な仮想デスクトップ インフラストラクチャ (VDI) デバイスのオンボードに関する記事を確認してください: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
+          <t>Microsoft Defender for Endpointでは、Windows 10/11 Enterprise マルチセッション用のAzure Virtual Desktopがサポートされています。非永続的な仮想デスクトップ インフラストラクチャ (VDI) デバイスのオンボードに関する記事を確認してください: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
         </is>
       </c>
       <c r="E106" s="21" t="inlineStr">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="D107" s="21" t="inlineStr">
         <is>
-          <t>Azure のディスクは、既定では Microsoft マネージド キーを使用して保存時に既に暗号化されています。ホスト VM OS ディスク暗号化は、Azure ディスク暗号化 (ADE - BitLocker) とディスク暗号化セット (DES - サーバー側暗号化) を使用して可能であり、サポートされていますが、後者をお勧めします。Azure Files を使用した FSLogix ストレージの暗号化は、Azure Storage 上の SSE を使用して実行できます。OneDrive の暗号化については、次の記事を参照してください https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services。</t>
+          <t>Azure のディスクは、既定で Microsoft マネージド キーを使用して保存時に既に暗号化されています。ホスト VM OS ディスクの暗号化は、Azure Disk Encryption (ADE - BitLocker) とディスク暗号化セット (DES - サーバー側暗号化) を使用して可能であり、サポートされていますが、後者をお勧めします。Azure Files を使用した FSLogix ストレージの暗号化は、Azure Storage で SSE を使用して行うことができます。OneDrive の暗号化については、こちらの記事を参照してください: https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services。</t>
         </is>
       </c>
       <c r="E107" s="21" t="inlineStr">
@@ -6051,12 +6051,12 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Azure Gen2 VM セッション ホストでの信頼された起動を有効にする</t>
+          <t>Azure Gen2 VM セッション ホストでのトラステッド起動の有効化</t>
         </is>
       </c>
       <c r="D108" s="21" t="inlineStr">
         <is>
-          <t>トラステッド起動は、ルートキット、ブート キット、カーネル レベルのマルウェアなどの攻撃ベクトルによる "スタックの最下位" の脅威から保護することを目的とした、強化されたセキュリティ機能を備えた Gen2 Azure VM です。セキュアブート、仮想TPM(vTPM)、および変更監視を有効にして活用することをお勧めします。</t>
+          <t>トラステッド起動は、ルートキット、ブート キット、カーネル レベルのマルウェアなどの攻撃ベクトルによるスタックの下部の脅威から保護することを目的とした、強化されたセキュリティ機能を備えた Gen2 Azure VM です。セキュアブート、仮想TPM (vTPM)、および変更監視を有効にして活用することをお勧めします。</t>
         </is>
       </c>
       <c r="E108" s="21" t="inlineStr">
@@ -6101,12 +6101,12 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>トラステッド起動を有効にしてGen2イメージを使用するのは、Windows11のシステム要件です</t>
+          <t>トラステッド起動を有効にし、Gen2 イメージを使用するのは、Windows 11 のシステム要件です</t>
         </is>
       </c>
       <c r="D109" s="21" t="inlineStr">
         <is>
-          <t>トラステッド起動と Gen2 VM は、セキュリティとパフォーマンスを向上させる機能であるだけでなく、Windows 11 のシステム要件でもあります。Windows 11に基づいてAVD環境を構築する場合は、これらの機能を有効にすることが不可欠です。</t>
+          <t>トラステッド起動と Gen2 VM は、セキュリティとパフォーマンスを強化する機能であるだけでなく、Windows 11 のシステム要件でもあります。Windows 11 に基づいて AVD 環境を構築する場合は、これらの機能を有効にすることが不可欠です。</t>
         </is>
       </c>
       <c r="E109" s="21" t="inlineStr">
@@ -6151,12 +6151,12 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>機密情報がキャプチャされないように、画面キャプチャ保護を有効にすることを検討してください</t>
+          <t>機密情報がキャプチャされるのを防ぐために、画面キャプチャ保護を有効にすることを検討してください</t>
         </is>
       </c>
       <c r="D110" s="21" t="inlineStr">
         <is>
-          <t>表示されたコンテンツは、スクリーンショットで自動的にブロックまたは非表示になります。画面共有を使用するTeamsやその他のコラボレーションソフトウェアを使用する場合も、画面共有がブロックされることに注意してください。</t>
+          <t>表示されるコンテンツは、スクリーンショットで自動的にブロックまたは非表示になります。画面共有を使用するTeamsまたはその他のコラボレーションソフトウェアを使用する場合も、画面共有がブロックされることに注意してください。</t>
         </is>
       </c>
       <c r="E110" s="21" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="D111" s="21" t="inlineStr">
         <is>
-          <t>絶対に必要でない場合は、リモート デスクトップ セッションでドライブ、プリンター、および USB デバイスをユーザーのローカル デバイスにリダイレクトすることを無効にするか、厳しく制限する必要があります。ローカルおよびリモートのドライブマッピングを非表示にしてWindowsエクスプローラーへのアクセスを制限することも、ユーザーがシステム構成とユーザーに関する不要な情報を発見するのを防ぐための安全な手段です。</t>
+          <t>どうしても必要でない場合は、リモートデスクトップセッションでドライブ、プリンター、およびUSBデバイスをユーザーのローカルデバイスにリダイレクトすることを無効にするか、厳しく制限する必要があります。ローカルとリモートのドライブマッピングを非表示にしてWindowsエクスプローラーへのアクセスを制限することも、ユーザーがシステム構成とユーザーに関する不要な情報を発見するのを防ぐための安全な手段です。</t>
         </is>
       </c>
       <c r="E111" s="21" t="inlineStr">
@@ -6250,12 +6250,12 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>可能な場合は、フルデスクトップ (DAG) よりもリモート アプリを優先する</t>
+          <t>可能な場合は、フル デスクトップ (DAG) よりもリモート アプリを優先します</t>
         </is>
       </c>
       <c r="D112" s="21" t="inlineStr">
         <is>
-          <t>導入モデルを選択するときは、リモートユーザーに仮想デスクトップ全体へのアクセスを提供するか、選択したアプリケーションのみを提供できます。リモート アプリケーション (RemoteApps) は、ユーザーが仮想デスクトップ上のアプリを操作するときにシームレスなエクスペリエンスを提供します。RemoteApp は、アプリケーションによって公開されているリモート コンピューターのサブセットのみをユーザーが操作できるようにすることで、リスクを軽減します。</t>
+          <t>展開モデルを選択するときは、仮想デスクトップ全体へのリモート ユーザーへのアクセスを提供するか、選択したアプリケーションのみを許可するかを選択できます。リモート アプリケーション (RemoteApp) は、ユーザーが仮想デスクトップ上のアプリを操作するときにシームレスなエクスペリエンスを提供します。RemoteApp は、アプリケーションによって公開されているリモート コンピューターのサブセットのみをユーザーが操作できるようにすることで、リスクを軽減します。</t>
         </is>
       </c>
       <c r="E112" s="21" t="inlineStr">
@@ -6300,12 +6300,12 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>AVD セッションホストからのユーザーのインターネットナビゲーションを制御/制限する必要がありますか?</t>
+          <t>AVD セッション ホストからのユーザーのインターネット ナビゲーションを制御/制限する必要がありますか?</t>
         </is>
       </c>
       <c r="D113" s="21" t="inlineStr">
         <is>
-          <t>エンドポイントの Microsoft Defender の Web 保護機能によって提供される Web コンテンツ フィルター機能を使用して、ユーザーの Web ナビゲーションを制御できます。このツールを使用する場合は、ユーザーのインターネット閲覧用にWebフィルタリングを設定することをお勧めします。ゲスト OS システムによる必要な AVD コントロールプレーン URL へのアクセスを保証する必要があります。</t>
+          <t>Microsoft Defender for Endpointの Web 保護機能によって提供される Web コンテンツ フィルター機能を使用して、ユーザーの Web ナビゲーションを制御できます。このツールを使用する場合は、ユーザーのインターネット閲覧用にWebフィルタリングを設定することをお勧めします。ゲスト OS システムから必要な AVD コントロール プレーン URL へのアクセスを保証する必要があります。</t>
         </is>
       </c>
       <c r="E113" s="21" t="inlineStr">
@@ -6350,12 +6350,12 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>AVD ユーザーが AVD ホストのローカル管理者権限を持たないことを確認します</t>
+          <t>AVD ユーザーが AVD ホストのローカル管理者権限を持たないようにします。</t>
         </is>
       </c>
       <c r="D114" s="21" t="inlineStr">
         <is>
-          <t>仮想デスクトップへの管理者アクセス権をユーザーに付与しないことをお勧めします。ソフトウェアパッケージが必要な場合は、構成管理ユーティリティを使用して使用できるようにすることをお勧めします。</t>
+          <t>仮想デスクトップへの管理者アクセス権をユーザーに付与しないことをお勧めします。ソフトウェアパッケージが必要な場合は、構成管理ユーティリティから利用できるようにすることをお勧めします。</t>
         </is>
       </c>
       <c r="E114" s="21" t="inlineStr">
@@ -6400,12 +6400,12 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>クラウド用 Microsoft Defender を有効にして AVD セッション ホストのセキュリティ体制を管理できるようにする</t>
+          <t>Microsoft Defender for Cloud で AVD セッション ホストのセキュリティ体制を管理できるようにする</t>
         </is>
       </c>
       <c r="D115" s="21" t="inlineStr">
         <is>
-          <t>AVD で使用されるサブスクリプション、仮想マシン、キー コンテナー、ストレージ アカウントに対して Defender for Cloud を有効にすることをお勧めします。このツールを使用すると、脆弱性の評価と管理、PCIなどの一般的なフレームワークへのコンプライアンスの評価、AVD環境の全体的なセキュリティの強化、「セキュアスコア」を使用して経時的に測定することができます https://learn.microsoft.com/en-us/azure/virtual-desktop/security-guide#improve-your-secure-score。</t>
+          <t>AVD で使用されるサブスクリプション、仮想マシン、キー コンテナー、ストレージ アカウントに対して Defender for Cloud を有効にすることをお勧めします。このツールを使用すると、脆弱性の評価と管理、PCIなどの一般的なフレームワークへの準拠の評価、AVD環境の全体的なセキュリティの強化、および「セキュリティスコア」を使用して経時的に測定することができます:https://learn.microsoft.com/azure/virtual-desktop/security-guide#improve-your-secure-score。</t>
         </is>
       </c>
       <c r="E115" s="21" t="inlineStr">
@@ -6498,12 +6498,12 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>AVD 管理にカスタム RBAC ロールを使用する要件を評価する</t>
+          <t>AVD 管理にカスタム RBAC ロールを使用するための要件を評価する</t>
         </is>
       </c>
       <c r="D117" s="21" t="inlineStr">
         <is>
-          <t>管理、運用、エンジニアリングのロールを Azure RBAC ロールに定義することで、必要な最小限の特権を割り当てます。Azure 仮想デスクトップ ランディング ゾーン内の高い特権ロールへのアクセスを制限するには、Azure 特権 ID 管理 (PIM) との統合を検討してください。特定の管理領域ごとにどのチームが担当しているかを把握しておくと、Azure のロールベースのアクセス制御 (RBAC) のロールと構成を決定するのに役立ちます。</t>
+          <t>管理、運用、エンジニアリングのロールを Azure RBAC ロールに定義することで、必要最小限の特権を割り当てます。Azure Virtual Desktop ランディング ゾーン内の高い特権ロールへのアクセスを制限するには、Azure Privileged Identity Management (PIM) との統合を検討してください。特定の各管理領域を担当するチームを把握することは、Azure ロールベースのアクセス制御 (RBAC) のロールと構成を決定するのに役立ちます。</t>
         </is>
       </c>
       <c r="E117" s="21" t="inlineStr">
@@ -6547,12 +6547,12 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>承認されていないアプリケーションのインストールをユーザーに制限する</t>
+          <t>ユーザーによる未承認のアプリケーションのインストールを制限する</t>
         </is>
       </c>
       <c r="D118" s="21" t="inlineStr">
         <is>
-          <t>AVD ユーザには、アプリケーションをインストールする権限があってはなりません。必要に応じて、Windows Defender アプリケーション制御 (WDAC) を使用して、Windows クライアントでの実行を許可するドライバーとアプリケーションを制御できます。</t>
+          <t>AVD ユーザーには、アプリケーションをインストールする権限を与えないでください。必要に応じて、Windows Defender アプリケーション制御 (WDAC) を使用して、Windows クライアントでの実行を許可するドライバーとアプリケーションを制御できます。</t>
         </is>
       </c>
       <c r="E118" s="21" t="inlineStr">
@@ -6592,17 +6592,17 @@
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>マイクロソフト エントラ ID</t>
+          <t>Microsoft Entra ID</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>AVD ユーザーの多要素認証(MFA)と条件付きアクセス(CA)の使用を評価する</t>
+          <t>AVD ユーザーの Multi-Factor Authentication(MFA)と条件付きアクセス(CA)の使用状況を評価する</t>
         </is>
       </c>
       <c r="D119" s="21" t="inlineStr">
         <is>
-          <t>MFA と CA を有効にすると、ユーザーに AVD 環境へのアクセスを許可する前にリスクを管理できます。アクセスを許可するユーザーを決定するときは、ユーザーが誰であるか、サインインする方法、使用しているデバイスも考慮することをお勧めします。追加の詳細と構成手順については、関連記事を参照してください。Microsoft Entra ID は、Azure Active Directory (Azure AD) の新しい名前です。</t>
+          <t>MFA と CA を有効にすると、ユーザーに AVD 環境へのアクセス権を付与する前にリスクを管理できます。アクセス権を付与するユーザーを決定する際には、ユーザーが誰であるか、どのようにサインインするか、どのデバイスを使用しているかも考慮することをお勧めします。詳細と構成手順については、関連記事を参照してください。Microsoft Entra ID は、Azure Active Directory (Azure AD) の新しい名前です。</t>
         </is>
       </c>
       <c r="E119" s="21" t="inlineStr">
@@ -6646,12 +6646,12 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>ゼロ トラストの原則とガイダンスを確認して適用する</t>
+          <t>ゼロトラストの原則とガイダンスを確認して適用する</t>
         </is>
       </c>
       <c r="D120" s="21" t="inlineStr">
         <is>
-          <t>ゼロ トラストが要件の場合は、[詳細情報] 列の関連記事を確認してください。ゼロ トラストの原則を Azure 仮想デスクトップのデプロイに適用する手順について説明します。</t>
+          <t>ゼロ トラストが要件である場合は、「詳細情報」列の関連記事を確認してください。ゼロ トラストの原則を Azure Virtual Desktop のデプロイに適用する手順について説明します。</t>
         </is>
       </c>
       <c r="E120" s="21" t="inlineStr">
@@ -6691,17 +6691,17 @@
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>アズールファイル</t>
+          <t>Azure ファイル</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Azure ファイルのベスト プラクティスを確認する</t>
+          <t>Azure Files のベスト プラクティスを確認する</t>
         </is>
       </c>
       <c r="D121" s="21" t="inlineStr">
         <is>
-          <t>使用する場合は、参照記事で説明されているベスト プラクティスと推奨事項の一覧を確認してください。</t>
+          <t>使用する場合は、参照されている記事で説明されているベスト プラクティスと推奨事項の一覧を必ず確認してください。</t>
         </is>
       </c>
       <c r="E121" s="21" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>アズールファイル</t>
+          <t>Azure ファイル</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
@@ -6751,7 +6751,7 @@
       </c>
       <c r="D122" s="21" t="inlineStr">
         <is>
-          <t>SMB マルチチャネルを使用すると、クライアントは複数のネットワーク接続を使用して、所有コストを削減しながらパフォーマンスを向上させることができます。パフォーマンスの向上は、複数の NIC に帯域幅を集約し、NIC の受信側スケーリング (RSS) サポートを利用して複数の CPU に IO 負荷を分散することで実現されます。</t>
+          <t>SMB マルチチャネルを使用すると、クライアントは複数のネットワーク接続を使用して、所有コストを削減しながらパフォーマンスを向上させることができます。パフォーマンスの向上は、複数の NIC で帯域幅を集約し、NIC の Receive Side Scaling (RSS) サポートを利用して IO 負荷を複数の CPU に分散することで実現されます。</t>
         </is>
       </c>
       <c r="E122" s="21" t="inlineStr">
@@ -6796,12 +6796,12 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>NetApp Files ストレージが必要な場合は、特定のリージョンのストレージサービスの可用性を確認してください。</t>
+          <t>NetApp Files ストレージが必要な場合は、特定のリージョンでストレージ サービスの可用性を確認してください。</t>
         </is>
       </c>
       <c r="D123" s="21" t="inlineStr">
         <is>
-          <t>DRの目的で2番目のリージョンが必要な場合は、そこでもネットアップの可用性を確認します。</t>
+          <t>DR の目的で 2 つ目のリージョンが必要な場合は、そこでもネットアップの可用性を確認します。</t>
         </is>
       </c>
       <c r="E123" s="21" t="inlineStr">
@@ -6846,12 +6846,12 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>NetApp Files ストレージを使用している場合は、 CA (継続的可用性)オプションを有効にして復元力を高めます</t>
+          <t>NetApp Files ストレージを使用する場合は、 CA (継続的可用性)オプションを有効にして耐障害性を高めます</t>
         </is>
       </c>
       <c r="D124" s="21" t="inlineStr">
         <is>
-          <t>CA オプションは、セッションホストとネットアップファイル間のより回復力のある SMB セッションを可能にするため、FSLogix シナリオで推奨される設定です。</t>
+          <t>CA オプションは、セッション ホストとネットアップ ファイル間の回復性を高める SMB セッションを可能にするため、FSLogix シナリオで推奨される設定です。</t>
         </is>
       </c>
       <c r="E124" s="21" t="inlineStr">
@@ -6896,12 +6896,12 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Azure NetApp Files ストレージを使用している場合は、アクティブディレクトリ接続構成の Active Directory サイト名の設定を確認してください</t>
+          <t>Azure NetApp Files ストレージを使用している場合は、Active Directory 接続構成の Active Directory サイト名の設定を確認します</t>
         </is>
       </c>
       <c r="D125" s="21" t="inlineStr">
         <is>
-          <t>Azure NetApp Files (ANF) サブネットが作成される Azure 仮想ネットワーク環境用に Active Directory サイトを作成し、リファレンス記事で説明されているように、参加手順を実行するときにそのサイト名を ANF 接続プロパティで指定する必要があります。</t>
+          <t>Azure NetApp Files (ANF) サブネットが作成される Azure 仮想ネットワーク環境に対して Active Directory サイトを作成し、リファレンス記事で説明されているように、参加手順を実行するときにそのサイト名を ANF 接続プロパティで指定する必要があります。</t>
         </is>
       </c>
       <c r="E125" s="21" t="inlineStr">
@@ -6941,7 +6941,7 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>キャパシティ プランニング</t>
+          <t>キャパシティプランニング</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="D126" s="21" t="inlineStr">
         <is>
-          <t>可能なオプション:標準HDD、標準SSD、またはプレミアムSSD。エフェメラルディスクはサポートされておらず、ウルトラディスクは推奨されません。ユーザー密度が低くない場合、およびクラウド キャッシュを使用する場合は、OS ディスクの Premium を評価することをお勧めします。</t>
+          <t>使用可能なオプション: Standard HDD、Standard SSD、または Premium SSD。エフェメラル ディスクはサポートされておらず、Ultra ディスクは推奨されません。ユーザー密度が低くなく、Cloud Cache を使用する場合は、Premium for OS ディスクを評価することをお勧めします。</t>
         </is>
       </c>
       <c r="E126" s="21" t="inlineStr">
@@ -6990,7 +6990,7 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>キャパシティ プランニング</t>
+          <t>キャパシティプランニング</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="D127" s="21" t="inlineStr">
         <is>
-          <t>可能なオプションは、Azure NetApp Files、Azure Files、VM ベースのファイル サーバーです。ファイルサーバー推奨されません。通常、Azure Files Premium は出発点として適しています。ネットアップは通常、大規模で高パフォーマンスの環境に必要です。詳細な比較については、「詳細情報」列の記事を参照してください。</t>
+          <t>使用可能なオプションは、Azure NetApp Files、Azure Files、VM ベースのファイル サーバーです。File-server は推奨されません。Azure Files Premium は、通常、出発点として適しています。NetAppは通常、大規模で高パフォーマンスの環境に必要です。詳細な比較については、「詳細情報」列の記事を参照してください。</t>
         </is>
       </c>
       <c r="E127" s="21" t="inlineStr">
@@ -7039,7 +7039,7 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>キャパシティ プランニング</t>
+          <t>キャパシティプランニング</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
@@ -7088,17 +7088,17 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>キャパシティ プランニング</t>
+          <t>キャパシティプランニング</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>ストレージのスケーラビリティの制限とホスト・プールの要件を確認する</t>
+          <t>ストレージのスケーラビリティの制限とホスト プールの要件を確認する</t>
         </is>
       </c>
       <c r="D129" s="21" t="inlineStr">
         <is>
-          <t>プロファイル コンテナーのストレージ要件を見積もるための開始点として、定常状態ではユーザーあたり 10 IOPS、サインイン/サインアウト時にはユーザーあたり 50 IOPS を想定することをお勧めします。領域要件は、各ホスト プールのユーザーの合計数あたりの FSLogix の最大プロファイル サイズに基づいて取得されます。必要に応じて、同じホスト プールに複数のストレージ アカウントを使用できます。</t>
+          <t>プロファイル コンテナー ストレージのパフォーマンス要件を見積もるための出発点として、定常状態ではユーザーあたり 10 IOPS、サインイン/サインアウト中はユーザーあたり 50 IOPS を想定することをお勧めします。領域要件は、各ホスト プールのユーザーの合計数あたりの FSLogix の最大プロファイル サイズに基づいて簡単に取得されます。必要に応じて、同じホスト プールに複数のストレージ アカウントを使用できます。</t>
         </is>
       </c>
       <c r="E129" s="21" t="inlineStr">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>キャパシティ プランニング</t>
+          <t>キャパシティプランニング</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
@@ -7147,7 +7147,7 @@
       </c>
       <c r="D130" s="21" t="inlineStr">
         <is>
-          <t>可能な限り、リージョン間のネットワーク トラフィックに関連する追加の待機時間とコストを発生させないようにします。</t>
+          <t>可能な限り、リージョン間のネットワーク トラフィックに関連する追加の待機時間とコストが発生しないようにします。</t>
         </is>
       </c>
       <c r="E130" s="21" t="inlineStr">
@@ -7186,17 +7186,17 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>FSLogix (英語)</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>オフィスコンテナ(ODFC)は、厳密に必要かつ正当化されない場合は使用しないでください</t>
+          <t>Office コンテナー (ODFC) は、厳密に必要で正当化されない場合は使用しないでください</t>
         </is>
       </c>
       <c r="D131" s="21" t="inlineStr">
         <is>
-          <t>Azure Virtual Desktop での推奨事項は、以下の「ディザスター リカバリー」セクションで説明されている特定のビジネス継続性とディザスター リカバリー (BCDR) シナリオを計画していない限り、Office コンテナー (ODFC) 分割なしでプロファイル コンテナーを使用することです。https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
+          <t>Azure Virtual Desktop では、以下の「ディザスター リカバリー」セクションで説明するように、特定のビジネス継続性とディザスター リカバリー (BCDR) シナリオを計画していない限り、Office コンテナー (ODFC) 分割なしでプロファイル コンテナーを使用することをお勧めします。https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
         </is>
       </c>
       <c r="E131" s="21" t="inlineStr">
@@ -7235,17 +7235,17 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>FSLogix (英語)</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>FSLogix の推奨されるウイルス対策除外を構成します (接続時に VHD(x) ファイルをスキャンしないことを含む)。</t>
+          <t>FSLogix の推奨されるウイルス対策の除外を構成します (接続時に VHD(x) ファイルをスキャンしないことを含む)。</t>
         </is>
       </c>
       <c r="D132" s="21" t="inlineStr">
         <is>
-          <t>FSLogix プロファイル コンテナーの仮想ハード ドライブに対して、参照されている記事の [詳細情報] 列に記載されているように、次のウイルス対策の除外を構成してください。</t>
+          <t>FSLogix プロファイル コンテナーの仮想ハード ドライブに対して、次のウイルス対策の除外を構成してください (参照記事の「詳細」列に記載されているように)。</t>
         </is>
       </c>
       <c r="E132" s="21" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>FSLogix (英語)</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
@@ -7294,7 +7294,7 @@
       </c>
       <c r="D133" s="21" t="inlineStr">
         <is>
-          <t>プロファイルコンテナのデフォルトの最大サイズは30GBです。大きなプロファイル コンテナーが予想され、お客様がそれらを小さく保とうとする場合は、OneDrive を使用して FSLogix プロファイルの外部で Office 365 ファイルをホストすることを検討してください。</t>
+          <t>プロファイル コンテナーの既定の最大サイズは 30 GB です。大きなプロファイル コンテナーが予想され、お客様がそれらを小さく保つことを試みる場合は、OneDrive を使用して FSLogix プロファイルの外部で Office 365 ファイルをホストすることを検討してください。</t>
         </is>
       </c>
       <c r="E133" s="21" t="inlineStr">
@@ -7333,17 +7333,17 @@
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>FSLogix (英語)</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>FSLogix レジストリ キーを確認し、適用するレジストリ キーを決定する</t>
+          <t>FSLogix レジストリ キーを確認し、適用するレジストリ キーを決定します</t>
         </is>
       </c>
       <c r="D134" s="21" t="inlineStr">
         <is>
-          <t>既定値と推奨設定は、関連記事の [詳細情報] 列で報告されます。推奨されていないキーや値を使用する必要がある場合は、Microsoft AVD の専門家に確認し、選択内容を明確に文書化してください。</t>
+          <t>既定値と推奨設定については、関連記事の「詳細情報」列に記載されています。推奨されないキーや値を使用する必要がある場合は、必ず Microsoft AVD のエキスパートに確認し、選択内容を明確に文書化してください。</t>
         </is>
       </c>
       <c r="E134" s="21" t="inlineStr">
@@ -7382,17 +7382,17 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>FSLogix (英語)</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>同時接続または複数の接続の使用を避ける</t>
+          <t>同時接続または複数接続の使用を避ける</t>
         </is>
       </c>
       <c r="D135" s="21" t="inlineStr">
         <is>
-          <t>同時接続または複数接続は、Azure 仮想デスクトップでは推奨されません。同時接続は、Azure 仮想デスクトップ ホスト プールで実行されているセッション ホストでもサポートされません。OneDrive を使用する場合、どのような状況でも、同じコンテナーを使用する同時接続または複数の接続はサポートされません。複数の接続の場合、同じプロファイル ディスクの使用はお勧めしません。</t>
+          <t>同時接続または複数接続は、Azure Virtual Desktop では推奨されません。同時接続は、Azure Virtual Desktop ホスト プールで実行されているセッション ホストでもサポートされません。OneDrive を使用する場合、どのような状況でも、同じコンテナーを使用した同時接続または複数接続はサポートされません。複数の接続の場合、同じプロファイル ディスクの使用はお勧めしません。</t>
         </is>
       </c>
       <c r="E135" s="21" t="inlineStr">
@@ -7431,17 +7431,17 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>FSLogix (英語)</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>FSLogix クラウド キャッシュを使用する場合は、キャッシュ ディレクトリを VM の一時ドライブに移動することを検討してください。</t>
+          <t>FSLogix Cloud Cache を使用する場合は、キャッシュ ディレクトリを VM の一時ドライブに移動することを検討してください。</t>
         </is>
       </c>
       <c r="D136" s="21" t="inlineStr">
         <is>
-          <t>クラウドキャッシュはOSドライブをローカルキャッシュストレージとして使用し、VMディスクに大きな負荷をかける可能性があります。使用する VM SKU とサイズによっては、VM 一時ドライブが、Cloud Cache のキャッシュされたコンテンツを再配置する実行可能でパフォーマンスの高いソリューションになる可能性があります。このソリューションを採用する前に、テストを実行してパフォーマンスと安定性を確認する必要があります。クラウドキャッシュの詳細については、こちらをご覧ください:https://learn.microsoft.com/en-us/fslogix/concepts-fslogix-cloud-cache。</t>
+          <t>Cloud Cache は OS ドライブをローカル キャッシュ ストレージとして使用し、VM ディスクに大きな負荷をかける可能性があります。使用する VM SKU とサイズによっては、VM 一時ドライブが Cloud Cache のキャッシュ コンテンツを再配置する実行可能でパフォーマンスの高いソリューションになる場合があります。このソリューションを採用する前に、テストを実行してパフォーマンスと安定性を確認する必要があります。Cloud Cache の詳細については、https://learn.microsoft.com/fslogix/concepts-fslogix-cloud-cache を参照してください。</t>
         </is>
       </c>
       <c r="E136" s="21" t="inlineStr">
@@ -7480,17 +7480,17 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>FSLogix (英語)</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>FSLogix リダイレクトの使用法を確認します。</t>
+          <t>FSLogix リダイレクトの使用状況を確認します。</t>
         </is>
       </c>
       <c r="D137" s="21" t="inlineStr">
         <is>
-          <t>REDIRECTION.XMLファイルは、プロファイルコンテナから「C:」ドライブにリダイレクトされるフォルダを制御するために使用されます。除外は例外であるべきであり、除外を構成するユーザーが特定の除外を完全に理解しない限り、決して使用しないでください。除外は、実装が意図されている環境で常に完全にテストする必要があります。除外を構成すると、機能、安定性、パフォーマンスに影響を与える可能性があります。</t>
+          <t>リダイレクト.XMLファイルは、プロファイルコンテナから「C:」ドライブにリダイレクトされるフォルダを制御するために使用されます。除外は例外であるべきであり、除外を構成するユーザーが特定の除外を完全に理解しない限り、決して使用しないでください。除外は、実装する予定の環境で常に完全にテストする必要があります。除外を設定すると、機能、安定性、パフォーマンスに影響を与える可能性があります。</t>
         </is>
       </c>
       <c r="E137" s="21" t="inlineStr">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>このチェックはまだ確認されていません</t>
+          <t>このチェックはまだ検討されていません</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>このチェックに関連付けられているアクションアイテムがあります</t>
+          <t>このチェックにはアクションアイテムが関連付けられています</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -10258,7 +10258,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みであり、それ以上のアクションアイテムは関連付けられていません</t>
+          <t>このチェックは検証済みで、これ以上のアクションアイテムは関連付けられていません</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -10270,7 +10270,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>必須ではありません</t>
+          <t>必要なし</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -10280,7 +10280,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>推奨事項は理解されていますが、現在の要件では必要ありません</t>
+          <t>推奨事項は理解されているが、現在の要件では不要</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -10302,7 +10302,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>現在のデザインには適用できません</t>
+          <t>現在のデザインには適用されません</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
